--- a/data/trans_orig/P5705-Habitat-trans_orig.xlsx
+++ b/data/trans_orig/P5705-Habitat-trans_orig.xlsx
@@ -744,19 +744,19 @@
         <v>390705</v>
       </c>
       <c r="E4" s="5" t="n">
-        <v>367348</v>
+        <v>363077</v>
       </c>
       <c r="F4" s="5" t="n">
-        <v>416421</v>
+        <v>416594</v>
       </c>
       <c r="G4" s="6" t="n">
         <v>0.5629654406199345</v>
       </c>
       <c r="H4" s="6" t="n">
-        <v>0.5293104575820431</v>
+        <v>0.5231559632744086</v>
       </c>
       <c r="I4" s="6" t="n">
-        <v>0.600019901365348</v>
+        <v>0.6002693871857707</v>
       </c>
       <c r="J4" s="5" t="n">
         <v>354</v>
@@ -765,19 +765,19 @@
         <v>346723</v>
       </c>
       <c r="L4" s="5" t="n">
-        <v>317301</v>
+        <v>321272</v>
       </c>
       <c r="M4" s="5" t="n">
-        <v>371006</v>
+        <v>370963</v>
       </c>
       <c r="N4" s="6" t="n">
         <v>0.504430417710843</v>
       </c>
       <c r="O4" s="6" t="n">
-        <v>0.461625850018037</v>
+        <v>0.4674026139445487</v>
       </c>
       <c r="P4" s="6" t="n">
-        <v>0.5397574835157611</v>
+        <v>0.5396956797894358</v>
       </c>
       <c r="Q4" s="5" t="n">
         <v>734</v>
@@ -786,19 +786,19 @@
         <v>737428</v>
       </c>
       <c r="S4" s="5" t="n">
-        <v>703893</v>
+        <v>702152</v>
       </c>
       <c r="T4" s="5" t="n">
-        <v>776519</v>
+        <v>777039</v>
       </c>
       <c r="U4" s="6" t="n">
         <v>0.5338389522140981</v>
       </c>
       <c r="V4" s="6" t="n">
-        <v>0.5095619091187994</v>
+        <v>0.5083020703460579</v>
       </c>
       <c r="W4" s="6" t="n">
-        <v>0.5621379696841105</v>
+        <v>0.5625143945993127</v>
       </c>
     </row>
     <row r="5">
@@ -815,19 +815,19 @@
         <v>214255</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>189164</v>
+        <v>190807</v>
       </c>
       <c r="F5" s="5" t="n">
-        <v>238059</v>
+        <v>236528</v>
       </c>
       <c r="G5" s="6" t="n">
         <v>0.3087200258839524</v>
       </c>
       <c r="H5" s="6" t="n">
-        <v>0.2725661057396939</v>
+        <v>0.2749330223466352</v>
       </c>
       <c r="I5" s="6" t="n">
-        <v>0.3430183613210861</v>
+        <v>0.3408132320387537</v>
       </c>
       <c r="J5" s="5" t="n">
         <v>230</v>
@@ -836,19 +836,19 @@
         <v>230970</v>
       </c>
       <c r="L5" s="5" t="n">
-        <v>208771</v>
+        <v>210662</v>
       </c>
       <c r="M5" s="5" t="n">
-        <v>260702</v>
+        <v>255760</v>
       </c>
       <c r="N5" s="6" t="n">
         <v>0.3360261408383526</v>
       </c>
       <c r="O5" s="6" t="n">
-        <v>0.3037303508467888</v>
+        <v>0.3064809530072989</v>
       </c>
       <c r="P5" s="6" t="n">
-        <v>0.379281651708306</v>
+        <v>0.3720918311822859</v>
       </c>
       <c r="Q5" s="5" t="n">
         <v>445</v>
@@ -857,19 +857,19 @@
         <v>445225</v>
       </c>
       <c r="S5" s="5" t="n">
-        <v>410290</v>
+        <v>411910</v>
       </c>
       <c r="T5" s="5" t="n">
-        <v>477100</v>
+        <v>480787</v>
       </c>
       <c r="U5" s="6" t="n">
         <v>0.3223072972490456</v>
       </c>
       <c r="V5" s="6" t="n">
-        <v>0.2970168060650433</v>
+        <v>0.298190049969849</v>
       </c>
       <c r="W5" s="6" t="n">
-        <v>0.3453822494081982</v>
+        <v>0.3480513589229456</v>
       </c>
     </row>
     <row r="6">
@@ -886,19 +886,19 @@
         <v>71303</v>
       </c>
       <c r="E6" s="5" t="n">
-        <v>57497</v>
+        <v>55801</v>
       </c>
       <c r="F6" s="5" t="n">
-        <v>88036</v>
+        <v>87540</v>
       </c>
       <c r="G6" s="6" t="n">
         <v>0.1027405240029927</v>
       </c>
       <c r="H6" s="6" t="n">
-        <v>0.0828468325544993</v>
+        <v>0.08040303830543304</v>
       </c>
       <c r="I6" s="6" t="n">
-        <v>0.1268512408132193</v>
+        <v>0.1261361423591748</v>
       </c>
       <c r="J6" s="5" t="n">
         <v>78</v>
@@ -907,19 +907,19 @@
         <v>76601</v>
       </c>
       <c r="L6" s="5" t="n">
-        <v>60820</v>
+        <v>61739</v>
       </c>
       <c r="M6" s="5" t="n">
-        <v>94981</v>
+        <v>95421</v>
       </c>
       <c r="N6" s="6" t="n">
         <v>0.1114432439811216</v>
       </c>
       <c r="O6" s="6" t="n">
-        <v>0.08848425518801448</v>
+        <v>0.08982096332122583</v>
       </c>
       <c r="P6" s="6" t="n">
-        <v>0.1381828104034827</v>
+        <v>0.1388235795038639</v>
       </c>
       <c r="Q6" s="5" t="n">
         <v>149</v>
@@ -928,19 +928,19 @@
         <v>147904</v>
       </c>
       <c r="S6" s="5" t="n">
-        <v>126002</v>
+        <v>128050</v>
       </c>
       <c r="T6" s="5" t="n">
-        <v>172441</v>
+        <v>171132</v>
       </c>
       <c r="U6" s="6" t="n">
         <v>0.1070709173289829</v>
       </c>
       <c r="V6" s="6" t="n">
-        <v>0.09121531771273811</v>
+        <v>0.09269796049651585</v>
       </c>
       <c r="W6" s="6" t="n">
-        <v>0.1248336582169456</v>
+        <v>0.1238859498154826</v>
       </c>
     </row>
     <row r="7">
@@ -957,19 +957,19 @@
         <v>16785</v>
       </c>
       <c r="E7" s="5" t="n">
-        <v>10211</v>
+        <v>10193</v>
       </c>
       <c r="F7" s="5" t="n">
-        <v>25877</v>
+        <v>27618</v>
       </c>
       <c r="G7" s="6" t="n">
         <v>0.02418547244550818</v>
       </c>
       <c r="H7" s="6" t="n">
-        <v>0.0147135812782501</v>
+        <v>0.01468674015177558</v>
       </c>
       <c r="I7" s="6" t="n">
-        <v>0.03728667014390264</v>
+        <v>0.03979540309492301</v>
       </c>
       <c r="J7" s="5" t="n">
         <v>27</v>
@@ -978,19 +978,19 @@
         <v>27266</v>
       </c>
       <c r="L7" s="5" t="n">
-        <v>18611</v>
+        <v>18516</v>
       </c>
       <c r="M7" s="5" t="n">
-        <v>39401</v>
+        <v>39300</v>
       </c>
       <c r="N7" s="6" t="n">
         <v>0.03966751666311859</v>
       </c>
       <c r="O7" s="6" t="n">
-        <v>0.0270769107144222</v>
+        <v>0.02693860140224806</v>
       </c>
       <c r="P7" s="6" t="n">
-        <v>0.05732221362839216</v>
+        <v>0.05717555033545813</v>
       </c>
       <c r="Q7" s="5" t="n">
         <v>43</v>
@@ -999,19 +999,19 @@
         <v>44051</v>
       </c>
       <c r="S7" s="5" t="n">
-        <v>31179</v>
+        <v>31069</v>
       </c>
       <c r="T7" s="5" t="n">
-        <v>58697</v>
+        <v>57586</v>
       </c>
       <c r="U7" s="6" t="n">
         <v>0.03188919508867193</v>
       </c>
       <c r="V7" s="6" t="n">
-        <v>0.02257120184060167</v>
+        <v>0.02249175585262737</v>
       </c>
       <c r="W7" s="6" t="n">
-        <v>0.04249225487845742</v>
+        <v>0.04168752091507237</v>
       </c>
     </row>
     <row r="8">
@@ -1031,7 +1031,7 @@
         <v>0</v>
       </c>
       <c r="F8" s="5" t="n">
-        <v>4852</v>
+        <v>5000</v>
       </c>
       <c r="G8" s="6" t="n">
         <v>0.001388537047612242</v>
@@ -1040,7 +1040,7 @@
         <v>0</v>
       </c>
       <c r="I8" s="6" t="n">
-        <v>0.006991669493364158</v>
+        <v>0.007205187076873803</v>
       </c>
       <c r="J8" s="5" t="n">
         <v>6</v>
@@ -1049,19 +1049,19 @@
         <v>5796</v>
       </c>
       <c r="L8" s="5" t="n">
-        <v>2133</v>
+        <v>1849</v>
       </c>
       <c r="M8" s="5" t="n">
-        <v>12358</v>
+        <v>11751</v>
       </c>
       <c r="N8" s="6" t="n">
         <v>0.008432680806564214</v>
       </c>
       <c r="O8" s="6" t="n">
-        <v>0.003103486704685454</v>
+        <v>0.002690202798486474</v>
       </c>
       <c r="P8" s="6" t="n">
-        <v>0.0179784003471378</v>
+        <v>0.01709641540143844</v>
       </c>
       <c r="Q8" s="5" t="n">
         <v>7</v>
@@ -1070,19 +1070,19 @@
         <v>6760</v>
       </c>
       <c r="S8" s="5" t="n">
-        <v>2841</v>
+        <v>2913</v>
       </c>
       <c r="T8" s="5" t="n">
-        <v>13499</v>
+        <v>14599</v>
       </c>
       <c r="U8" s="6" t="n">
         <v>0.004893638119201522</v>
       </c>
       <c r="V8" s="6" t="n">
-        <v>0.002056304104768973</v>
+        <v>0.002108969400946427</v>
       </c>
       <c r="W8" s="6" t="n">
-        <v>0.009772033199328439</v>
+        <v>0.01056868671906685</v>
       </c>
     </row>
     <row r="9">
@@ -1174,19 +1174,19 @@
         <v>593038</v>
       </c>
       <c r="E10" s="5" t="n">
-        <v>562319</v>
+        <v>560234</v>
       </c>
       <c r="F10" s="5" t="n">
-        <v>622873</v>
+        <v>621881</v>
       </c>
       <c r="G10" s="6" t="n">
         <v>0.6165919398202073</v>
       </c>
       <c r="H10" s="6" t="n">
-        <v>0.5846522512628897</v>
+        <v>0.5824853323425112</v>
       </c>
       <c r="I10" s="6" t="n">
-        <v>0.6476120097257272</v>
+        <v>0.6465806416590286</v>
       </c>
       <c r="J10" s="5" t="n">
         <v>547</v>
@@ -1195,19 +1195,19 @@
         <v>580444</v>
       </c>
       <c r="L10" s="5" t="n">
-        <v>548699</v>
+        <v>549373</v>
       </c>
       <c r="M10" s="5" t="n">
-        <v>608944</v>
+        <v>611991</v>
       </c>
       <c r="N10" s="6" t="n">
         <v>0.5993893701575309</v>
       </c>
       <c r="O10" s="6" t="n">
-        <v>0.566607821887058</v>
+        <v>0.5673040056113784</v>
       </c>
       <c r="P10" s="6" t="n">
-        <v>0.6288192537839374</v>
+        <v>0.6319654844342972</v>
       </c>
       <c r="Q10" s="5" t="n">
         <v>1095</v>
@@ -1216,19 +1216,19 @@
         <v>1173483</v>
       </c>
       <c r="S10" s="5" t="n">
-        <v>1129345</v>
+        <v>1130729</v>
       </c>
       <c r="T10" s="5" t="n">
-        <v>1216859</v>
+        <v>1221141</v>
       </c>
       <c r="U10" s="6" t="n">
         <v>0.6079612751683947</v>
       </c>
       <c r="V10" s="6" t="n">
-        <v>0.5850944640710238</v>
+        <v>0.5858115539936598</v>
       </c>
       <c r="W10" s="6" t="n">
-        <v>0.6304336741865065</v>
+        <v>0.6326522089998553</v>
       </c>
     </row>
     <row r="11">
@@ -1245,19 +1245,19 @@
         <v>239902</v>
       </c>
       <c r="E11" s="5" t="n">
-        <v>215018</v>
+        <v>212508</v>
       </c>
       <c r="F11" s="5" t="n">
-        <v>268347</v>
+        <v>270223</v>
       </c>
       <c r="G11" s="6" t="n">
         <v>0.2494303031831739</v>
       </c>
       <c r="H11" s="6" t="n">
-        <v>0.2235576176704681</v>
+        <v>0.2209479865520168</v>
       </c>
       <c r="I11" s="6" t="n">
-        <v>0.2790054266671913</v>
+        <v>0.2809557268438641</v>
       </c>
       <c r="J11" s="5" t="n">
         <v>253</v>
@@ -1266,19 +1266,19 @@
         <v>269393</v>
       </c>
       <c r="L11" s="5" t="n">
-        <v>244271</v>
+        <v>241278</v>
       </c>
       <c r="M11" s="5" t="n">
-        <v>298736</v>
+        <v>298127</v>
       </c>
       <c r="N11" s="6" t="n">
         <v>0.2781853109322192</v>
       </c>
       <c r="O11" s="6" t="n">
-        <v>0.2522435126677913</v>
+        <v>0.2491527559659193</v>
       </c>
       <c r="P11" s="6" t="n">
-        <v>0.3084863326052284</v>
+        <v>0.3078570510457939</v>
       </c>
       <c r="Q11" s="5" t="n">
         <v>482</v>
@@ -1287,19 +1287,19 @@
         <v>509295</v>
       </c>
       <c r="S11" s="5" t="n">
-        <v>468791</v>
+        <v>469572</v>
       </c>
       <c r="T11" s="5" t="n">
-        <v>548361</v>
+        <v>549532</v>
       </c>
       <c r="U11" s="6" t="n">
         <v>0.2638569169861534</v>
       </c>
       <c r="V11" s="6" t="n">
-        <v>0.2428727880284083</v>
+        <v>0.2432770532961223</v>
       </c>
       <c r="W11" s="6" t="n">
-        <v>0.2840962953849763</v>
+        <v>0.2847032416711259</v>
       </c>
     </row>
     <row r="12">
@@ -1316,19 +1316,19 @@
         <v>102636</v>
       </c>
       <c r="E12" s="5" t="n">
-        <v>82857</v>
+        <v>83571</v>
       </c>
       <c r="F12" s="5" t="n">
-        <v>124654</v>
+        <v>123143</v>
       </c>
       <c r="G12" s="6" t="n">
         <v>0.1067124402114719</v>
       </c>
       <c r="H12" s="6" t="n">
-        <v>0.08614831302269275</v>
+        <v>0.08688979023609829</v>
       </c>
       <c r="I12" s="6" t="n">
-        <v>0.1296047388093867</v>
+        <v>0.128034030476141</v>
       </c>
       <c r="J12" s="5" t="n">
         <v>88</v>
@@ -1337,19 +1337,19 @@
         <v>95673</v>
       </c>
       <c r="L12" s="5" t="n">
-        <v>78045</v>
+        <v>77109</v>
       </c>
       <c r="M12" s="5" t="n">
-        <v>116180</v>
+        <v>115265</v>
       </c>
       <c r="N12" s="6" t="n">
         <v>0.09879611809280142</v>
       </c>
       <c r="O12" s="6" t="n">
-        <v>0.08059263589784042</v>
+        <v>0.07962575047028779</v>
       </c>
       <c r="P12" s="6" t="n">
-        <v>0.1199719848693559</v>
+        <v>0.1190272513194708</v>
       </c>
       <c r="Q12" s="5" t="n">
         <v>183</v>
@@ -1358,19 +1358,19 @@
         <v>198309</v>
       </c>
       <c r="S12" s="5" t="n">
-        <v>172726</v>
+        <v>171830</v>
       </c>
       <c r="T12" s="5" t="n">
-        <v>227464</v>
+        <v>226957</v>
       </c>
       <c r="U12" s="6" t="n">
         <v>0.1027407590718681</v>
       </c>
       <c r="V12" s="6" t="n">
-        <v>0.08948635349197281</v>
+        <v>0.08902240381889806</v>
       </c>
       <c r="W12" s="6" t="n">
-        <v>0.1178450102841691</v>
+        <v>0.1175827441644692</v>
       </c>
     </row>
     <row r="13">
@@ -1387,19 +1387,19 @@
         <v>22343</v>
       </c>
       <c r="E13" s="5" t="n">
-        <v>14126</v>
+        <v>14326</v>
       </c>
       <c r="F13" s="5" t="n">
-        <v>32655</v>
+        <v>35271</v>
       </c>
       <c r="G13" s="6" t="n">
         <v>0.02323025945318772</v>
       </c>
       <c r="H13" s="6" t="n">
-        <v>0.0146871544726196</v>
+        <v>0.01489472771110052</v>
       </c>
       <c r="I13" s="6" t="n">
-        <v>0.03395196117820795</v>
+        <v>0.03667189841448059</v>
       </c>
       <c r="J13" s="5" t="n">
         <v>19</v>
@@ -1408,19 +1408,19 @@
         <v>21695</v>
       </c>
       <c r="L13" s="5" t="n">
-        <v>13541</v>
+        <v>14203</v>
       </c>
       <c r="M13" s="5" t="n">
-        <v>33583</v>
+        <v>33144</v>
       </c>
       <c r="N13" s="6" t="n">
         <v>0.02240330063112552</v>
       </c>
       <c r="O13" s="6" t="n">
-        <v>0.01398327478400826</v>
+        <v>0.01466657996554018</v>
       </c>
       <c r="P13" s="6" t="n">
-        <v>0.03467890131270221</v>
+        <v>0.03422551498812956</v>
       </c>
       <c r="Q13" s="5" t="n">
         <v>40</v>
@@ -1429,19 +1429,19 @@
         <v>44038</v>
       </c>
       <c r="S13" s="5" t="n">
-        <v>32481</v>
+        <v>33181</v>
       </c>
       <c r="T13" s="5" t="n">
-        <v>59906</v>
+        <v>59909</v>
       </c>
       <c r="U13" s="6" t="n">
         <v>0.02281536770073274</v>
       </c>
       <c r="V13" s="6" t="n">
-        <v>0.01682801520074389</v>
+        <v>0.01719048822476683</v>
       </c>
       <c r="W13" s="6" t="n">
-        <v>0.03103621212950726</v>
+        <v>0.03103780387111101</v>
       </c>
     </row>
     <row r="14">
@@ -1458,19 +1458,19 @@
         <v>3881</v>
       </c>
       <c r="E14" s="5" t="n">
-        <v>1003</v>
+        <v>1011</v>
       </c>
       <c r="F14" s="5" t="n">
-        <v>12463</v>
+        <v>11742</v>
       </c>
       <c r="G14" s="6" t="n">
         <v>0.004035057331959157</v>
       </c>
       <c r="H14" s="6" t="n">
-        <v>0.001043086372160827</v>
+        <v>0.001050764755155978</v>
       </c>
       <c r="I14" s="6" t="n">
-        <v>0.01295812878004034</v>
+        <v>0.01220836934606237</v>
       </c>
       <c r="J14" s="5" t="n">
         <v>1</v>
@@ -1482,7 +1482,7 @@
         <v>0</v>
       </c>
       <c r="M14" s="5" t="n">
-        <v>6600</v>
+        <v>6718</v>
       </c>
       <c r="N14" s="6" t="n">
         <v>0.001225900186323003</v>
@@ -1491,7 +1491,7 @@
         <v>0</v>
       </c>
       <c r="P14" s="6" t="n">
-        <v>0.006815886688722269</v>
+        <v>0.006937606747671861</v>
       </c>
       <c r="Q14" s="5" t="n">
         <v>4</v>
@@ -1500,19 +1500,19 @@
         <v>5068</v>
       </c>
       <c r="S14" s="5" t="n">
-        <v>1190</v>
+        <v>1825</v>
       </c>
       <c r="T14" s="5" t="n">
-        <v>13658</v>
+        <v>12397</v>
       </c>
       <c r="U14" s="6" t="n">
         <v>0.002625681072851091</v>
       </c>
       <c r="V14" s="6" t="n">
-        <v>0.0006165361731082894</v>
+        <v>0.0009456386649113934</v>
       </c>
       <c r="W14" s="6" t="n">
-        <v>0.007075746845913607</v>
+        <v>0.006422626268351678</v>
       </c>
     </row>
     <row r="15">
@@ -1604,19 +1604,19 @@
         <v>460861</v>
       </c>
       <c r="E16" s="5" t="n">
-        <v>433337</v>
+        <v>434824</v>
       </c>
       <c r="F16" s="5" t="n">
-        <v>483907</v>
+        <v>484444</v>
       </c>
       <c r="G16" s="6" t="n">
         <v>0.6792266744602805</v>
       </c>
       <c r="H16" s="6" t="n">
-        <v>0.6386611759735842</v>
+        <v>0.6408520533092378</v>
       </c>
       <c r="I16" s="6" t="n">
-        <v>0.7131916414693951</v>
+        <v>0.713983696009954</v>
       </c>
       <c r="J16" s="5" t="n">
         <v>448</v>
@@ -1625,19 +1625,19 @@
         <v>440065</v>
       </c>
       <c r="L16" s="5" t="n">
-        <v>413437</v>
+        <v>415020</v>
       </c>
       <c r="M16" s="5" t="n">
-        <v>464140</v>
+        <v>464457</v>
       </c>
       <c r="N16" s="6" t="n">
         <v>0.6435201401611604</v>
       </c>
       <c r="O16" s="6" t="n">
-        <v>0.6045806863489758</v>
+        <v>0.6068960130849871</v>
       </c>
       <c r="P16" s="6" t="n">
-        <v>0.6787243988475025</v>
+        <v>0.6791882009208852</v>
       </c>
       <c r="Q16" s="5" t="n">
         <v>883</v>
@@ -1646,19 +1646,19 @@
         <v>900927</v>
       </c>
       <c r="S16" s="5" t="n">
-        <v>864338</v>
+        <v>866202</v>
       </c>
       <c r="T16" s="5" t="n">
-        <v>933251</v>
+        <v>935554</v>
       </c>
       <c r="U16" s="6" t="n">
         <v>0.6613035311500682</v>
       </c>
       <c r="V16" s="6" t="n">
-        <v>0.6344464873277722</v>
+        <v>0.6358143570267294</v>
       </c>
       <c r="W16" s="6" t="n">
-        <v>0.6850304322782769</v>
+        <v>0.6867210286025783</v>
       </c>
     </row>
     <row r="17">
@@ -1675,19 +1675,19 @@
         <v>149456</v>
       </c>
       <c r="E17" s="5" t="n">
-        <v>127043</v>
+        <v>128965</v>
       </c>
       <c r="F17" s="5" t="n">
-        <v>172055</v>
+        <v>173476</v>
       </c>
       <c r="G17" s="6" t="n">
         <v>0.2202708666889749</v>
       </c>
       <c r="H17" s="6" t="n">
-        <v>0.1872380756408873</v>
+        <v>0.1900707875369592</v>
       </c>
       <c r="I17" s="6" t="n">
-        <v>0.2535781845828428</v>
+        <v>0.2556728685752214</v>
       </c>
       <c r="J17" s="5" t="n">
         <v>161</v>
@@ -1696,19 +1696,19 @@
         <v>155393</v>
       </c>
       <c r="L17" s="5" t="n">
-        <v>135866</v>
+        <v>135388</v>
       </c>
       <c r="M17" s="5" t="n">
-        <v>180422</v>
+        <v>176418</v>
       </c>
       <c r="N17" s="6" t="n">
         <v>0.2272360783182603</v>
       </c>
       <c r="O17" s="6" t="n">
-        <v>0.1986807609344191</v>
+        <v>0.1979810321413467</v>
       </c>
       <c r="P17" s="6" t="n">
-        <v>0.2638358960079569</v>
+        <v>0.2579808885438187</v>
       </c>
       <c r="Q17" s="5" t="n">
         <v>305</v>
@@ -1717,19 +1717,19 @@
         <v>304849</v>
       </c>
       <c r="S17" s="5" t="n">
-        <v>276008</v>
+        <v>275236</v>
       </c>
       <c r="T17" s="5" t="n">
-        <v>335121</v>
+        <v>334719</v>
       </c>
       <c r="U17" s="6" t="n">
         <v>0.2237671031249125</v>
       </c>
       <c r="V17" s="6" t="n">
-        <v>0.2025966966793809</v>
+        <v>0.2020303550002406</v>
       </c>
       <c r="W17" s="6" t="n">
-        <v>0.2459875484966434</v>
+        <v>0.2456922773971333</v>
       </c>
     </row>
     <row r="18">
@@ -1746,19 +1746,19 @@
         <v>49563</v>
       </c>
       <c r="E18" s="5" t="n">
-        <v>36833</v>
+        <v>36540</v>
       </c>
       <c r="F18" s="5" t="n">
-        <v>66300</v>
+        <v>65388</v>
       </c>
       <c r="G18" s="6" t="n">
         <v>0.07304759901930641</v>
       </c>
       <c r="H18" s="6" t="n">
-        <v>0.05428545791153265</v>
+        <v>0.05385324010918947</v>
       </c>
       <c r="I18" s="6" t="n">
-        <v>0.09771363242776553</v>
+        <v>0.09636943949334445</v>
       </c>
       <c r="J18" s="5" t="n">
         <v>67</v>
@@ -1767,19 +1767,19 @@
         <v>66670</v>
       </c>
       <c r="L18" s="5" t="n">
-        <v>51935</v>
+        <v>52482</v>
       </c>
       <c r="M18" s="5" t="n">
-        <v>82129</v>
+        <v>82518</v>
       </c>
       <c r="N18" s="6" t="n">
         <v>0.0974936246156463</v>
       </c>
       <c r="O18" s="6" t="n">
-        <v>0.07594608933964753</v>
+        <v>0.07674600932181339</v>
       </c>
       <c r="P18" s="6" t="n">
-        <v>0.1200988881890292</v>
+        <v>0.1206678993609809</v>
       </c>
       <c r="Q18" s="5" t="n">
         <v>113</v>
@@ -1788,19 +1788,19 @@
         <v>116234</v>
       </c>
       <c r="S18" s="5" t="n">
-        <v>96570</v>
+        <v>95561</v>
       </c>
       <c r="T18" s="5" t="n">
-        <v>138456</v>
+        <v>136515</v>
       </c>
       <c r="U18" s="6" t="n">
         <v>0.08531845164414699</v>
       </c>
       <c r="V18" s="6" t="n">
-        <v>0.0708845966390203</v>
+        <v>0.07014453298129097</v>
       </c>
       <c r="W18" s="6" t="n">
-        <v>0.1016299570670027</v>
+        <v>0.1002057936782085</v>
       </c>
     </row>
     <row r="19">
@@ -1817,19 +1817,19 @@
         <v>15997</v>
       </c>
       <c r="E19" s="5" t="n">
-        <v>9071</v>
+        <v>8685</v>
       </c>
       <c r="F19" s="5" t="n">
-        <v>26579</v>
+        <v>25671</v>
       </c>
       <c r="G19" s="6" t="n">
         <v>0.02357705191786546</v>
       </c>
       <c r="H19" s="6" t="n">
-        <v>0.01336971008544677</v>
+        <v>0.01280009122416217</v>
       </c>
       <c r="I19" s="6" t="n">
-        <v>0.03917321312193638</v>
+        <v>0.03783497714120754</v>
       </c>
       <c r="J19" s="5" t="n">
         <v>20</v>
@@ -1838,19 +1838,19 @@
         <v>21712</v>
       </c>
       <c r="L19" s="5" t="n">
-        <v>13372</v>
+        <v>14174</v>
       </c>
       <c r="M19" s="5" t="n">
-        <v>32562</v>
+        <v>34597</v>
       </c>
       <c r="N19" s="6" t="n">
         <v>0.03175015690493294</v>
       </c>
       <c r="O19" s="6" t="n">
-        <v>0.01955391374071361</v>
+        <v>0.02072719471359121</v>
       </c>
       <c r="P19" s="6" t="n">
-        <v>0.04761560498257242</v>
+        <v>0.0505919607242052</v>
       </c>
       <c r="Q19" s="5" t="n">
         <v>34</v>
@@ -1859,19 +1859,19 @@
         <v>37709</v>
       </c>
       <c r="S19" s="5" t="n">
-        <v>27494</v>
+        <v>26029</v>
       </c>
       <c r="T19" s="5" t="n">
-        <v>52481</v>
+        <v>52621</v>
       </c>
       <c r="U19" s="6" t="n">
         <v>0.02767959882834036</v>
       </c>
       <c r="V19" s="6" t="n">
-        <v>0.02018147576666288</v>
+        <v>0.01910586429116613</v>
       </c>
       <c r="W19" s="6" t="n">
-        <v>0.03852226435883762</v>
+        <v>0.03862507425779255</v>
       </c>
     </row>
     <row r="20">
@@ -1891,7 +1891,7 @@
         <v>0</v>
       </c>
       <c r="F20" s="5" t="n">
-        <v>8189</v>
+        <v>9152</v>
       </c>
       <c r="G20" s="6" t="n">
         <v>0.003877807913572717</v>
@@ -1900,7 +1900,7 @@
         <v>0</v>
       </c>
       <c r="I20" s="6" t="n">
-        <v>0.01206838938536115</v>
+        <v>0.01348805403627183</v>
       </c>
       <c r="J20" s="5" t="n">
         <v>0</v>
@@ -1925,7 +1925,7 @@
         <v>0</v>
       </c>
       <c r="T20" s="5" t="n">
-        <v>9007</v>
+        <v>10166</v>
       </c>
       <c r="U20" s="6" t="n">
         <v>0.001931315252531909</v>
@@ -1934,7 +1934,7 @@
         <v>0</v>
       </c>
       <c r="W20" s="6" t="n">
-        <v>0.006611476551112754</v>
+        <v>0.007461967984851527</v>
       </c>
     </row>
     <row r="21">
@@ -2026,19 +2026,19 @@
         <v>560820</v>
       </c>
       <c r="E22" s="5" t="n">
-        <v>532971</v>
+        <v>531399</v>
       </c>
       <c r="F22" s="5" t="n">
-        <v>589452</v>
+        <v>590254</v>
       </c>
       <c r="G22" s="6" t="n">
         <v>0.5952099821136271</v>
       </c>
       <c r="H22" s="6" t="n">
-        <v>0.5656531771930567</v>
+        <v>0.5639853153730391</v>
       </c>
       <c r="I22" s="6" t="n">
-        <v>0.6255977254237406</v>
+        <v>0.6264491162655587</v>
       </c>
       <c r="J22" s="5" t="n">
         <v>606</v>
@@ -2047,19 +2047,19 @@
         <v>626557</v>
       </c>
       <c r="L22" s="5" t="n">
-        <v>593079</v>
+        <v>597008</v>
       </c>
       <c r="M22" s="5" t="n">
-        <v>657166</v>
+        <v>659188</v>
       </c>
       <c r="N22" s="6" t="n">
         <v>0.603833774410132</v>
       </c>
       <c r="O22" s="6" t="n">
-        <v>0.5715695031952276</v>
+        <v>0.5753564477569605</v>
       </c>
       <c r="P22" s="6" t="n">
-        <v>0.6333324615922502</v>
+        <v>0.6352813654939234</v>
       </c>
       <c r="Q22" s="5" t="n">
         <v>1203</v>
@@ -2068,19 +2068,19 @@
         <v>1187377</v>
       </c>
       <c r="S22" s="5" t="n">
-        <v>1141634</v>
+        <v>1144385</v>
       </c>
       <c r="T22" s="5" t="n">
-        <v>1230501</v>
+        <v>1227533</v>
       </c>
       <c r="U22" s="6" t="n">
         <v>0.5997296700554237</v>
       </c>
       <c r="V22" s="6" t="n">
-        <v>0.5766255391223292</v>
+        <v>0.5780149410489318</v>
       </c>
       <c r="W22" s="6" t="n">
-        <v>0.6215108000398757</v>
+        <v>0.6200119061299393</v>
       </c>
     </row>
     <row r="23">
@@ -2097,19 +2097,19 @@
         <v>260356</v>
       </c>
       <c r="E23" s="5" t="n">
-        <v>235621</v>
+        <v>232325</v>
       </c>
       <c r="F23" s="5" t="n">
-        <v>285802</v>
+        <v>286967</v>
       </c>
       <c r="G23" s="6" t="n">
         <v>0.2763215165974229</v>
       </c>
       <c r="H23" s="6" t="n">
-        <v>0.2500697495980267</v>
+        <v>0.2465711028953497</v>
       </c>
       <c r="I23" s="6" t="n">
-        <v>0.3033278985810284</v>
+        <v>0.3045639553001845</v>
       </c>
       <c r="J23" s="5" t="n">
         <v>244</v>
@@ -2118,19 +2118,19 @@
         <v>253922</v>
       </c>
       <c r="L23" s="5" t="n">
-        <v>227848</v>
+        <v>226659</v>
       </c>
       <c r="M23" s="5" t="n">
-        <v>284243</v>
+        <v>281735</v>
       </c>
       <c r="N23" s="6" t="n">
         <v>0.2447132432933949</v>
       </c>
       <c r="O23" s="6" t="n">
-        <v>0.2195845769313526</v>
+        <v>0.2184389788222306</v>
       </c>
       <c r="P23" s="6" t="n">
-        <v>0.2739345712901369</v>
+        <v>0.2715177069983343</v>
       </c>
       <c r="Q23" s="5" t="n">
         <v>511</v>
@@ -2139,19 +2139,19 @@
         <v>514279</v>
       </c>
       <c r="S23" s="5" t="n">
-        <v>475328</v>
+        <v>476116</v>
       </c>
       <c r="T23" s="5" t="n">
-        <v>551245</v>
+        <v>549270</v>
       </c>
       <c r="U23" s="6" t="n">
         <v>0.2597557730357276</v>
       </c>
       <c r="V23" s="6" t="n">
-        <v>0.2400823111068988</v>
+        <v>0.2404804686784146</v>
       </c>
       <c r="W23" s="6" t="n">
-        <v>0.2784271039443335</v>
+        <v>0.2774296893116999</v>
       </c>
     </row>
     <row r="24">
@@ -2168,19 +2168,19 @@
         <v>81684</v>
       </c>
       <c r="E24" s="5" t="n">
-        <v>66886</v>
+        <v>66980</v>
       </c>
       <c r="F24" s="5" t="n">
-        <v>99975</v>
+        <v>99887</v>
       </c>
       <c r="G24" s="6" t="n">
         <v>0.08669330649521227</v>
       </c>
       <c r="H24" s="6" t="n">
-        <v>0.07098726478885881</v>
+        <v>0.07108733063378449</v>
       </c>
       <c r="I24" s="6" t="n">
-        <v>0.106105326776818</v>
+        <v>0.1060126644492333</v>
       </c>
       <c r="J24" s="5" t="n">
         <v>105</v>
@@ -2189,19 +2189,19 @@
         <v>113024</v>
       </c>
       <c r="L24" s="5" t="n">
-        <v>91815</v>
+        <v>94087</v>
       </c>
       <c r="M24" s="5" t="n">
-        <v>133215</v>
+        <v>135091</v>
       </c>
       <c r="N24" s="6" t="n">
         <v>0.108924714784749</v>
       </c>
       <c r="O24" s="6" t="n">
-        <v>0.08848468854837012</v>
+        <v>0.0906742654525116</v>
       </c>
       <c r="P24" s="6" t="n">
-        <v>0.1283839305396344</v>
+        <v>0.1301920989814379</v>
       </c>
       <c r="Q24" s="5" t="n">
         <v>193</v>
@@ -2210,19 +2210,19 @@
         <v>194708</v>
       </c>
       <c r="S24" s="5" t="n">
-        <v>169038</v>
+        <v>166795</v>
       </c>
       <c r="T24" s="5" t="n">
-        <v>221948</v>
+        <v>221288</v>
       </c>
       <c r="U24" s="6" t="n">
         <v>0.09834468033640473</v>
       </c>
       <c r="V24" s="6" t="n">
-        <v>0.08537880022771052</v>
+        <v>0.08424598523047544</v>
       </c>
       <c r="W24" s="6" t="n">
-        <v>0.1121031734758169</v>
+        <v>0.1117696647443512</v>
       </c>
     </row>
     <row r="25">
@@ -2239,19 +2239,19 @@
         <v>35261</v>
       </c>
       <c r="E25" s="5" t="n">
-        <v>24989</v>
+        <v>25090</v>
       </c>
       <c r="F25" s="5" t="n">
-        <v>48927</v>
+        <v>48304</v>
       </c>
       <c r="G25" s="6" t="n">
         <v>0.0374230678581385</v>
       </c>
       <c r="H25" s="6" t="n">
-        <v>0.02652149220603281</v>
+        <v>0.02662854140685744</v>
       </c>
       <c r="I25" s="6" t="n">
-        <v>0.05192737420957471</v>
+        <v>0.05126651267577748</v>
       </c>
       <c r="J25" s="5" t="n">
         <v>36</v>
@@ -2260,19 +2260,19 @@
         <v>38766</v>
       </c>
       <c r="L25" s="5" t="n">
-        <v>27321</v>
+        <v>28345</v>
       </c>
       <c r="M25" s="5" t="n">
-        <v>53535</v>
+        <v>53201</v>
       </c>
       <c r="N25" s="6" t="n">
         <v>0.03736031587843484</v>
       </c>
       <c r="O25" s="6" t="n">
-        <v>0.02632981049968781</v>
+        <v>0.0273168974815272</v>
       </c>
       <c r="P25" s="6" t="n">
-        <v>0.05159352619118213</v>
+        <v>0.05127139743199421</v>
       </c>
       <c r="Q25" s="5" t="n">
         <v>74</v>
@@ -2281,19 +2281,19 @@
         <v>74027</v>
       </c>
       <c r="S25" s="5" t="n">
-        <v>59763</v>
+        <v>57113</v>
       </c>
       <c r="T25" s="5" t="n">
-        <v>93145</v>
+        <v>92617</v>
       </c>
       <c r="U25" s="6" t="n">
         <v>0.03739017984828865</v>
       </c>
       <c r="V25" s="6" t="n">
-        <v>0.03018530811175712</v>
+        <v>0.02884696156355681</v>
       </c>
       <c r="W25" s="6" t="n">
-        <v>0.04704642338302965</v>
+        <v>0.04677990113428004</v>
       </c>
     </row>
     <row r="26">
@@ -2310,19 +2310,19 @@
         <v>4101</v>
       </c>
       <c r="E26" s="5" t="n">
-        <v>873</v>
+        <v>878</v>
       </c>
       <c r="F26" s="5" t="n">
-        <v>11028</v>
+        <v>11199</v>
       </c>
       <c r="G26" s="6" t="n">
         <v>0.004352126935599191</v>
       </c>
       <c r="H26" s="6" t="n">
-        <v>0.0009267536710179365</v>
+        <v>0.0009322381104304771</v>
       </c>
       <c r="I26" s="6" t="n">
-        <v>0.01170414290498663</v>
+        <v>0.01188611934704317</v>
       </c>
       <c r="J26" s="5" t="n">
         <v>5</v>
@@ -2331,19 +2331,19 @@
         <v>5362</v>
       </c>
       <c r="L26" s="5" t="n">
-        <v>2017</v>
+        <v>2116</v>
       </c>
       <c r="M26" s="5" t="n">
-        <v>11978</v>
+        <v>12335</v>
       </c>
       <c r="N26" s="6" t="n">
         <v>0.00516795163328919</v>
       </c>
       <c r="O26" s="6" t="n">
-        <v>0.00194423495775144</v>
+        <v>0.002038857583904885</v>
       </c>
       <c r="P26" s="6" t="n">
-        <v>0.01154331383451444</v>
+        <v>0.01188738520334179</v>
       </c>
       <c r="Q26" s="5" t="n">
         <v>9</v>
@@ -2352,19 +2352,19 @@
         <v>9463</v>
       </c>
       <c r="S26" s="5" t="n">
-        <v>4926</v>
+        <v>4178</v>
       </c>
       <c r="T26" s="5" t="n">
-        <v>17354</v>
+        <v>17713</v>
       </c>
       <c r="U26" s="6" t="n">
         <v>0.004779696724155401</v>
       </c>
       <c r="V26" s="6" t="n">
-        <v>0.002488031512733363</v>
+        <v>0.002110284412156491</v>
       </c>
       <c r="W26" s="6" t="n">
-        <v>0.008765141067507264</v>
+        <v>0.008946507510054373</v>
       </c>
     </row>
     <row r="27">
@@ -2456,19 +2456,19 @@
         <v>2005424</v>
       </c>
       <c r="E28" s="5" t="n">
-        <v>1944373</v>
+        <v>1949419</v>
       </c>
       <c r="F28" s="5" t="n">
-        <v>2061562</v>
+        <v>2060666</v>
       </c>
       <c r="G28" s="6" t="n">
         <v>0.6120549133873263</v>
       </c>
       <c r="H28" s="6" t="n">
-        <v>0.5934222136161734</v>
+        <v>0.5949621806779332</v>
       </c>
       <c r="I28" s="6" t="n">
-        <v>0.6291881156797001</v>
+        <v>0.6289147261475633</v>
       </c>
       <c r="J28" s="5" t="n">
         <v>1955</v>
@@ -2477,19 +2477,19 @@
         <v>1993790</v>
       </c>
       <c r="L28" s="5" t="n">
-        <v>1930948</v>
+        <v>1938288</v>
       </c>
       <c r="M28" s="5" t="n">
-        <v>2050418</v>
+        <v>2051008</v>
       </c>
       <c r="N28" s="6" t="n">
         <v>0.5903640460225051</v>
       </c>
       <c r="O28" s="6" t="n">
-        <v>0.5717563781875729</v>
+        <v>0.5739296662163386</v>
       </c>
       <c r="P28" s="6" t="n">
-        <v>0.6071316237695824</v>
+        <v>0.6073061016421554</v>
       </c>
       <c r="Q28" s="5" t="n">
         <v>3915</v>
@@ -2498,19 +2498,19 @@
         <v>3999215</v>
       </c>
       <c r="S28" s="5" t="n">
-        <v>3924579</v>
+        <v>3916376</v>
       </c>
       <c r="T28" s="5" t="n">
-        <v>4081757</v>
+        <v>4081639</v>
       </c>
       <c r="U28" s="6" t="n">
         <v>0.6010453759708304</v>
       </c>
       <c r="V28" s="6" t="n">
-        <v>0.5898282910355884</v>
+        <v>0.5885953565582496</v>
       </c>
       <c r="W28" s="6" t="n">
-        <v>0.6134506108769638</v>
+        <v>0.6134329536900672</v>
       </c>
     </row>
     <row r="29">
@@ -2527,19 +2527,19 @@
         <v>863969</v>
       </c>
       <c r="E29" s="5" t="n">
-        <v>810394</v>
+        <v>813751</v>
       </c>
       <c r="F29" s="5" t="n">
-        <v>912642</v>
+        <v>910866</v>
       </c>
       <c r="G29" s="6" t="n">
         <v>0.2636832332997717</v>
       </c>
       <c r="H29" s="6" t="n">
-        <v>0.2473320501986117</v>
+        <v>0.2483564693196915</v>
       </c>
       <c r="I29" s="6" t="n">
-        <v>0.2785380235239051</v>
+        <v>0.2779960355660674</v>
       </c>
       <c r="J29" s="5" t="n">
         <v>888</v>
@@ -2548,19 +2548,19 @@
         <v>909678</v>
       </c>
       <c r="L29" s="5" t="n">
-        <v>857186</v>
+        <v>858948</v>
       </c>
       <c r="M29" s="5" t="n">
-        <v>964204</v>
+        <v>966313</v>
       </c>
       <c r="N29" s="6" t="n">
         <v>0.2693568666074196</v>
       </c>
       <c r="O29" s="6" t="n">
-        <v>0.2538138649226577</v>
+        <v>0.2543357485241541</v>
       </c>
       <c r="P29" s="6" t="n">
-        <v>0.2855021540646783</v>
+        <v>0.2861265629358515</v>
       </c>
       <c r="Q29" s="5" t="n">
         <v>1743</v>
@@ -2569,19 +2569,19 @@
         <v>1773648</v>
       </c>
       <c r="S29" s="5" t="n">
-        <v>1698765</v>
+        <v>1701937</v>
       </c>
       <c r="T29" s="5" t="n">
-        <v>1844363</v>
+        <v>1849385</v>
       </c>
       <c r="U29" s="6" t="n">
         <v>0.26656297421273</v>
       </c>
       <c r="V29" s="6" t="n">
-        <v>0.2553087761042391</v>
+        <v>0.255785568718145</v>
       </c>
       <c r="W29" s="6" t="n">
-        <v>0.2771908764217783</v>
+        <v>0.2779456063947098</v>
       </c>
     </row>
     <row r="30">
@@ -2598,19 +2598,19 @@
         <v>305187</v>
       </c>
       <c r="E30" s="5" t="n">
-        <v>271370</v>
+        <v>272277</v>
       </c>
       <c r="F30" s="5" t="n">
-        <v>337566</v>
+        <v>340464</v>
       </c>
       <c r="G30" s="6" t="n">
         <v>0.09314297938788026</v>
       </c>
       <c r="H30" s="6" t="n">
-        <v>0.082822084007525</v>
+        <v>0.08309890641583925</v>
       </c>
       <c r="I30" s="6" t="n">
-        <v>0.1030250330943868</v>
+        <v>0.1039094071974113</v>
       </c>
       <c r="J30" s="5" t="n">
         <v>338</v>
@@ -2619,19 +2619,19 @@
         <v>351969</v>
       </c>
       <c r="L30" s="5" t="n">
-        <v>315632</v>
+        <v>320620</v>
       </c>
       <c r="M30" s="5" t="n">
-        <v>390196</v>
+        <v>387894</v>
       </c>
       <c r="N30" s="6" t="n">
         <v>0.1042183659702964</v>
       </c>
       <c r="O30" s="6" t="n">
-        <v>0.09345905079474084</v>
+        <v>0.09493614852161682</v>
       </c>
       <c r="P30" s="6" t="n">
-        <v>0.1155376998201583</v>
+        <v>0.1148558285518328</v>
       </c>
       <c r="Q30" s="5" t="n">
         <v>638</v>
@@ -2640,19 +2640,19 @@
         <v>657156</v>
       </c>
       <c r="S30" s="5" t="n">
-        <v>609961</v>
+        <v>607693</v>
       </c>
       <c r="T30" s="5" t="n">
-        <v>706660</v>
+        <v>710311</v>
       </c>
       <c r="U30" s="6" t="n">
         <v>0.09876446427045459</v>
       </c>
       <c r="V30" s="6" t="n">
-        <v>0.09167161365626315</v>
+        <v>0.09133066750779412</v>
       </c>
       <c r="W30" s="6" t="n">
-        <v>0.1062045062734892</v>
+        <v>0.1067532987211555</v>
       </c>
     </row>
     <row r="31">
@@ -2669,19 +2669,19 @@
         <v>90386</v>
       </c>
       <c r="E31" s="5" t="n">
-        <v>72910</v>
+        <v>73343</v>
       </c>
       <c r="F31" s="5" t="n">
-        <v>112049</v>
+        <v>112489</v>
       </c>
       <c r="G31" s="6" t="n">
         <v>0.02758576702451187</v>
       </c>
       <c r="H31" s="6" t="n">
-        <v>0.02225220187229407</v>
+        <v>0.02238433996648065</v>
       </c>
       <c r="I31" s="6" t="n">
-        <v>0.03419734533375488</v>
+        <v>0.03433159576917011</v>
       </c>
       <c r="J31" s="5" t="n">
         <v>102</v>
@@ -2690,19 +2690,19 @@
         <v>109439</v>
       </c>
       <c r="L31" s="5" t="n">
-        <v>89312</v>
+        <v>89481</v>
       </c>
       <c r="M31" s="5" t="n">
-        <v>130894</v>
+        <v>133218</v>
       </c>
       <c r="N31" s="6" t="n">
         <v>0.03240510186010191</v>
       </c>
       <c r="O31" s="6" t="n">
-        <v>0.02644553363816004</v>
+        <v>0.02649555494785463</v>
       </c>
       <c r="P31" s="6" t="n">
-        <v>0.03875801966303109</v>
+        <v>0.03944591827535218</v>
       </c>
       <c r="Q31" s="5" t="n">
         <v>191</v>
@@ -2711,19 +2711,19 @@
         <v>199825</v>
       </c>
       <c r="S31" s="5" t="n">
-        <v>171148</v>
+        <v>172787</v>
       </c>
       <c r="T31" s="5" t="n">
-        <v>231624</v>
+        <v>229581</v>
       </c>
       <c r="U31" s="6" t="n">
         <v>0.03003189544817751</v>
       </c>
       <c r="V31" s="6" t="n">
-        <v>0.02572190471726475</v>
+        <v>0.02596834321555491</v>
       </c>
       <c r="W31" s="6" t="n">
-        <v>0.03481093665360531</v>
+        <v>0.03450389547828536</v>
       </c>
     </row>
     <row r="32">
@@ -2740,19 +2740,19 @@
         <v>11576</v>
       </c>
       <c r="E32" s="5" t="n">
-        <v>5620</v>
+        <v>5726</v>
       </c>
       <c r="F32" s="5" t="n">
-        <v>21731</v>
+        <v>22706</v>
       </c>
       <c r="G32" s="6" t="n">
         <v>0.003533106900509927</v>
       </c>
       <c r="H32" s="6" t="n">
-        <v>0.001715101318933501</v>
+        <v>0.001747611803451261</v>
       </c>
       <c r="I32" s="6" t="n">
-        <v>0.00663243971616529</v>
+        <v>0.006929955121771099</v>
       </c>
       <c r="J32" s="5" t="n">
         <v>12</v>
@@ -2761,19 +2761,19 @@
         <v>12346</v>
       </c>
       <c r="L32" s="5" t="n">
-        <v>7017</v>
+        <v>6409</v>
       </c>
       <c r="M32" s="5" t="n">
-        <v>20726</v>
+        <v>19735</v>
       </c>
       <c r="N32" s="6" t="n">
         <v>0.003655619539676932</v>
       </c>
       <c r="O32" s="6" t="n">
-        <v>0.002077794074017009</v>
+        <v>0.001897601999769693</v>
       </c>
       <c r="P32" s="6" t="n">
-        <v>0.006137014713721458</v>
+        <v>0.0058435292200173</v>
       </c>
       <c r="Q32" s="5" t="n">
         <v>22</v>
@@ -2782,19 +2782,19 @@
         <v>23922</v>
       </c>
       <c r="S32" s="5" t="n">
-        <v>14835</v>
+        <v>15333</v>
       </c>
       <c r="T32" s="5" t="n">
-        <v>35033</v>
+        <v>38130</v>
       </c>
       <c r="U32" s="6" t="n">
         <v>0.00359529009780753</v>
       </c>
       <c r="V32" s="6" t="n">
-        <v>0.002229537534967416</v>
+        <v>0.002304346202771824</v>
       </c>
       <c r="W32" s="6" t="n">
-        <v>0.005265080524142774</v>
+        <v>0.005730542767665757</v>
       </c>
     </row>
     <row r="33">
@@ -3126,19 +3126,19 @@
         <v>525194</v>
       </c>
       <c r="E4" s="5" t="n">
-        <v>498889</v>
+        <v>502768</v>
       </c>
       <c r="F4" s="5" t="n">
-        <v>549245</v>
+        <v>546446</v>
       </c>
       <c r="G4" s="6" t="n">
         <v>0.748712267389446</v>
       </c>
       <c r="H4" s="6" t="n">
-        <v>0.7112122909474715</v>
+        <v>0.7167415950757204</v>
       </c>
       <c r="I4" s="6" t="n">
-        <v>0.7829993453077895</v>
+        <v>0.7790085072141619</v>
       </c>
       <c r="J4" s="5" t="n">
         <v>442</v>
@@ -3147,19 +3147,19 @@
         <v>473093</v>
       </c>
       <c r="L4" s="5" t="n">
-        <v>447939</v>
+        <v>446847</v>
       </c>
       <c r="M4" s="5" t="n">
-        <v>499656</v>
+        <v>496495</v>
       </c>
       <c r="N4" s="6" t="n">
         <v>0.6796757091850859</v>
       </c>
       <c r="O4" s="6" t="n">
-        <v>0.643537296013121</v>
+        <v>0.6419693751369369</v>
       </c>
       <c r="P4" s="6" t="n">
-        <v>0.7178373725421502</v>
+        <v>0.7132966892479523</v>
       </c>
       <c r="Q4" s="5" t="n">
         <v>943</v>
@@ -3168,19 +3168,19 @@
         <v>998287</v>
       </c>
       <c r="S4" s="5" t="n">
-        <v>962804</v>
+        <v>965098</v>
       </c>
       <c r="T4" s="5" t="n">
-        <v>1031868</v>
+        <v>1033731</v>
       </c>
       <c r="U4" s="6" t="n">
         <v>0.714327500411066</v>
       </c>
       <c r="V4" s="6" t="n">
-        <v>0.6889375890093605</v>
+        <v>0.6905793040347475</v>
       </c>
       <c r="W4" s="6" t="n">
-        <v>0.7383561751283226</v>
+        <v>0.7396896562594762</v>
       </c>
     </row>
     <row r="5">
@@ -3197,19 +3197,19 @@
         <v>130063</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>109888</v>
+        <v>110106</v>
       </c>
       <c r="F5" s="5" t="n">
-        <v>154310</v>
+        <v>150925</v>
       </c>
       <c r="G5" s="6" t="n">
         <v>0.1854167821005198</v>
       </c>
       <c r="H5" s="6" t="n">
-        <v>0.1566551206298916</v>
+        <v>0.1569660511580943</v>
       </c>
       <c r="I5" s="6" t="n">
-        <v>0.2199825138212399</v>
+        <v>0.215156901722959</v>
       </c>
       <c r="J5" s="5" t="n">
         <v>154</v>
@@ -3218,19 +3218,19 @@
         <v>164256</v>
       </c>
       <c r="L5" s="5" t="n">
-        <v>141437</v>
+        <v>141810</v>
       </c>
       <c r="M5" s="5" t="n">
-        <v>188238</v>
+        <v>188166</v>
       </c>
       <c r="N5" s="6" t="n">
         <v>0.2359802037332072</v>
       </c>
       <c r="O5" s="6" t="n">
-        <v>0.2031974649080304</v>
+        <v>0.2037326004193364</v>
       </c>
       <c r="P5" s="6" t="n">
-        <v>0.2704350110299583</v>
+        <v>0.2703306410398757</v>
       </c>
       <c r="Q5" s="5" t="n">
         <v>278</v>
@@ -3239,19 +3239,19 @@
         <v>294319</v>
       </c>
       <c r="S5" s="5" t="n">
-        <v>265592</v>
+        <v>263674</v>
       </c>
       <c r="T5" s="5" t="n">
-        <v>326880</v>
+        <v>325585</v>
       </c>
       <c r="U5" s="6" t="n">
         <v>0.2106007066137167</v>
       </c>
       <c r="V5" s="6" t="n">
-        <v>0.1900453472251743</v>
+        <v>0.1886726635299278</v>
       </c>
       <c r="W5" s="6" t="n">
-        <v>0.2338999716113779</v>
+        <v>0.2329731383917734</v>
       </c>
     </row>
     <row r="6">
@@ -3268,19 +3268,19 @@
         <v>32696</v>
       </c>
       <c r="E6" s="5" t="n">
-        <v>23311</v>
+        <v>22111</v>
       </c>
       <c r="F6" s="5" t="n">
-        <v>46006</v>
+        <v>45429</v>
       </c>
       <c r="G6" s="6" t="n">
         <v>0.04661118293897545</v>
       </c>
       <c r="H6" s="6" t="n">
-        <v>0.03323177082225757</v>
+        <v>0.03152119654904955</v>
       </c>
       <c r="I6" s="6" t="n">
-        <v>0.06558644051140866</v>
+        <v>0.06476255433761696</v>
       </c>
       <c r="J6" s="5" t="n">
         <v>37</v>
@@ -3289,19 +3289,19 @@
         <v>42309</v>
       </c>
       <c r="L6" s="5" t="n">
-        <v>29984</v>
+        <v>30492</v>
       </c>
       <c r="M6" s="5" t="n">
-        <v>57255</v>
+        <v>57387</v>
       </c>
       <c r="N6" s="6" t="n">
         <v>0.06078409072548635</v>
       </c>
       <c r="O6" s="6" t="n">
-        <v>0.0430775540443953</v>
+        <v>0.04380669148356775</v>
       </c>
       <c r="P6" s="6" t="n">
-        <v>0.08225625534803689</v>
+        <v>0.08244522946768998</v>
       </c>
       <c r="Q6" s="5" t="n">
         <v>70</v>
@@ -3310,19 +3310,19 @@
         <v>75005</v>
       </c>
       <c r="S6" s="5" t="n">
-        <v>59826</v>
+        <v>59268</v>
       </c>
       <c r="T6" s="5" t="n">
-        <v>94267</v>
+        <v>93931</v>
       </c>
       <c r="U6" s="6" t="n">
         <v>0.05367022736877824</v>
       </c>
       <c r="V6" s="6" t="n">
-        <v>0.04280836343866047</v>
+        <v>0.04240914062169705</v>
       </c>
       <c r="W6" s="6" t="n">
-        <v>0.06745271877750621</v>
+        <v>0.06721246371938246</v>
       </c>
     </row>
     <row r="7">
@@ -3339,19 +3339,19 @@
         <v>8771</v>
       </c>
       <c r="E7" s="5" t="n">
-        <v>4161</v>
+        <v>4474</v>
       </c>
       <c r="F7" s="5" t="n">
-        <v>16516</v>
+        <v>16219</v>
       </c>
       <c r="G7" s="6" t="n">
         <v>0.01250363048616832</v>
       </c>
       <c r="H7" s="6" t="n">
-        <v>0.005931492576784992</v>
+        <v>0.006377720664166173</v>
       </c>
       <c r="I7" s="6" t="n">
-        <v>0.02354522624404352</v>
+        <v>0.02312103161960952</v>
       </c>
       <c r="J7" s="5" t="n">
         <v>14</v>
@@ -3360,19 +3360,19 @@
         <v>14419</v>
       </c>
       <c r="L7" s="5" t="n">
-        <v>8209</v>
+        <v>8143</v>
       </c>
       <c r="M7" s="5" t="n">
-        <v>23963</v>
+        <v>23846</v>
       </c>
       <c r="N7" s="6" t="n">
         <v>0.02071556226998469</v>
       </c>
       <c r="O7" s="6" t="n">
-        <v>0.01179319369995623</v>
+        <v>0.01169867333804663</v>
       </c>
       <c r="P7" s="6" t="n">
-        <v>0.03442666777185875</v>
+        <v>0.03425921136050655</v>
       </c>
       <c r="Q7" s="5" t="n">
         <v>23</v>
@@ -3381,19 +3381,19 @@
         <v>23190</v>
       </c>
       <c r="S7" s="5" t="n">
-        <v>14220</v>
+        <v>15011</v>
       </c>
       <c r="T7" s="5" t="n">
-        <v>33472</v>
+        <v>33796</v>
       </c>
       <c r="U7" s="6" t="n">
         <v>0.01659371504677211</v>
       </c>
       <c r="V7" s="6" t="n">
-        <v>0.01017522389827939</v>
+        <v>0.01074086618051666</v>
       </c>
       <c r="W7" s="6" t="n">
-        <v>0.02395086130614761</v>
+        <v>0.02418275756109431</v>
       </c>
     </row>
     <row r="8">
@@ -3410,19 +3410,19 @@
         <v>4739</v>
       </c>
       <c r="E8" s="5" t="n">
-        <v>1619</v>
+        <v>1091</v>
       </c>
       <c r="F8" s="5" t="n">
-        <v>10200</v>
+        <v>10607</v>
       </c>
       <c r="G8" s="6" t="n">
         <v>0.00675613708489055</v>
       </c>
       <c r="H8" s="6" t="n">
-        <v>0.002308548513262986</v>
+        <v>0.001555570852724228</v>
       </c>
       <c r="I8" s="6" t="n">
-        <v>0.01454151028127026</v>
+        <v>0.01512068259061502</v>
       </c>
       <c r="J8" s="5" t="n">
         <v>2</v>
@@ -3434,7 +3434,7 @@
         <v>0</v>
       </c>
       <c r="M8" s="5" t="n">
-        <v>8265</v>
+        <v>6981</v>
       </c>
       <c r="N8" s="6" t="n">
         <v>0.002844434086235826</v>
@@ -3443,7 +3443,7 @@
         <v>0</v>
       </c>
       <c r="P8" s="6" t="n">
-        <v>0.01187462960462191</v>
+        <v>0.01002997528755896</v>
       </c>
       <c r="Q8" s="5" t="n">
         <v>7</v>
@@ -3452,19 +3452,19 @@
         <v>6719</v>
       </c>
       <c r="S8" s="5" t="n">
-        <v>2815</v>
+        <v>2883</v>
       </c>
       <c r="T8" s="5" t="n">
-        <v>14171</v>
+        <v>13218</v>
       </c>
       <c r="U8" s="6" t="n">
         <v>0.004807850559666902</v>
       </c>
       <c r="V8" s="6" t="n">
-        <v>0.00201462077129983</v>
+        <v>0.002062616644306457</v>
       </c>
       <c r="W8" s="6" t="n">
-        <v>0.01014032071823319</v>
+        <v>0.009458456737276001</v>
       </c>
     </row>
     <row r="9">
@@ -3556,19 +3556,19 @@
         <v>658995</v>
       </c>
       <c r="E10" s="5" t="n">
-        <v>626594</v>
+        <v>624367</v>
       </c>
       <c r="F10" s="5" t="n">
-        <v>689579</v>
+        <v>690015</v>
       </c>
       <c r="G10" s="6" t="n">
         <v>0.6493164934657165</v>
       </c>
       <c r="H10" s="6" t="n">
-        <v>0.6173916232866057</v>
+        <v>0.615197812912934</v>
       </c>
       <c r="I10" s="6" t="n">
-        <v>0.6794521806038638</v>
+        <v>0.6798817126052474</v>
       </c>
       <c r="J10" s="5" t="n">
         <v>620</v>
@@ -3577,19 +3577,19 @@
         <v>680848</v>
       </c>
       <c r="L10" s="5" t="n">
-        <v>650517</v>
+        <v>648757</v>
       </c>
       <c r="M10" s="5" t="n">
-        <v>711079</v>
+        <v>711990</v>
       </c>
       <c r="N10" s="6" t="n">
         <v>0.6616566584624324</v>
       </c>
       <c r="O10" s="6" t="n">
-        <v>0.6321809379205896</v>
+        <v>0.630470543927495</v>
       </c>
       <c r="P10" s="6" t="n">
-        <v>0.6910353082577594</v>
+        <v>0.6919212614582279</v>
       </c>
       <c r="Q10" s="5" t="n">
         <v>1229</v>
@@ -3598,19 +3598,19 @@
         <v>1339842</v>
       </c>
       <c r="S10" s="5" t="n">
-        <v>1297916</v>
+        <v>1292314</v>
       </c>
       <c r="T10" s="5" t="n">
-        <v>1385347</v>
+        <v>1382797</v>
       </c>
       <c r="U10" s="6" t="n">
         <v>0.6555291416179519</v>
       </c>
       <c r="V10" s="6" t="n">
-        <v>0.6350166928452711</v>
+        <v>0.632275810720323</v>
       </c>
       <c r="W10" s="6" t="n">
-        <v>0.6777927265625993</v>
+        <v>0.6765451518435596</v>
       </c>
     </row>
     <row r="11">
@@ -3627,19 +3627,19 @@
         <v>264785</v>
       </c>
       <c r="E11" s="5" t="n">
-        <v>236686</v>
+        <v>235374</v>
       </c>
       <c r="F11" s="5" t="n">
-        <v>294436</v>
+        <v>293987</v>
       </c>
       <c r="G11" s="6" t="n">
         <v>0.2608961116536189</v>
       </c>
       <c r="H11" s="6" t="n">
-        <v>0.2332104495829003</v>
+        <v>0.2319170355072354</v>
       </c>
       <c r="I11" s="6" t="n">
-        <v>0.2901123237392813</v>
+        <v>0.2896692670512178</v>
       </c>
       <c r="J11" s="5" t="n">
         <v>247</v>
@@ -3648,19 +3648,19 @@
         <v>271306</v>
       </c>
       <c r="L11" s="5" t="n">
-        <v>243550</v>
+        <v>240760</v>
       </c>
       <c r="M11" s="5" t="n">
-        <v>299490</v>
+        <v>299959</v>
       </c>
       <c r="N11" s="6" t="n">
         <v>0.2636583831565982</v>
       </c>
       <c r="O11" s="6" t="n">
-        <v>0.236685282811792</v>
+        <v>0.2339738282752777</v>
       </c>
       <c r="P11" s="6" t="n">
-        <v>0.2910482339226729</v>
+        <v>0.2915039410398307</v>
       </c>
       <c r="Q11" s="5" t="n">
         <v>489</v>
@@ -3669,19 +3669,19 @@
         <v>536090</v>
       </c>
       <c r="S11" s="5" t="n">
-        <v>498600</v>
+        <v>494132</v>
       </c>
       <c r="T11" s="5" t="n">
-        <v>579627</v>
+        <v>579193</v>
       </c>
       <c r="U11" s="6" t="n">
         <v>0.262286775469988</v>
       </c>
       <c r="V11" s="6" t="n">
-        <v>0.2439442492076186</v>
+        <v>0.2417585011972736</v>
       </c>
       <c r="W11" s="6" t="n">
-        <v>0.2835874906132337</v>
+        <v>0.2833750355465905</v>
       </c>
     </row>
     <row r="12">
@@ -3698,19 +3698,19 @@
         <v>77907</v>
       </c>
       <c r="E12" s="5" t="n">
-        <v>62140</v>
+        <v>62421</v>
       </c>
       <c r="F12" s="5" t="n">
-        <v>97365</v>
+        <v>96712</v>
       </c>
       <c r="G12" s="6" t="n">
         <v>0.0767623926216673</v>
       </c>
       <c r="H12" s="6" t="n">
-        <v>0.06122744441784431</v>
+        <v>0.06150381940960301</v>
       </c>
       <c r="I12" s="6" t="n">
-        <v>0.09593514044109254</v>
+        <v>0.09529149865845284</v>
       </c>
       <c r="J12" s="5" t="n">
         <v>60</v>
@@ -3719,19 +3719,19 @@
         <v>65938</v>
       </c>
       <c r="L12" s="5" t="n">
-        <v>51052</v>
+        <v>51680</v>
       </c>
       <c r="M12" s="5" t="n">
-        <v>82508</v>
+        <v>82556</v>
       </c>
       <c r="N12" s="6" t="n">
         <v>0.06407970871953764</v>
       </c>
       <c r="O12" s="6" t="n">
-        <v>0.04961302919077336</v>
+        <v>0.0502228960515566</v>
       </c>
       <c r="P12" s="6" t="n">
-        <v>0.08018206026480253</v>
+        <v>0.08022915922135207</v>
       </c>
       <c r="Q12" s="5" t="n">
         <v>131</v>
@@ -3740,19 +3740,19 @@
         <v>143845</v>
       </c>
       <c r="S12" s="5" t="n">
-        <v>122587</v>
+        <v>121065</v>
       </c>
       <c r="T12" s="5" t="n">
-        <v>169260</v>
+        <v>171034</v>
       </c>
       <c r="U12" s="6" t="n">
         <v>0.0703773035462035</v>
       </c>
       <c r="V12" s="6" t="n">
-        <v>0.05997696954533231</v>
+        <v>0.05923228379687664</v>
       </c>
       <c r="W12" s="6" t="n">
-        <v>0.08281173944320308</v>
+        <v>0.08367978606980096</v>
       </c>
     </row>
     <row r="13">
@@ -3769,19 +3769,19 @@
         <v>13219</v>
       </c>
       <c r="E13" s="5" t="n">
-        <v>6637</v>
+        <v>6722</v>
       </c>
       <c r="F13" s="5" t="n">
-        <v>23618</v>
+        <v>24242</v>
       </c>
       <c r="G13" s="6" t="n">
         <v>0.01302500225899729</v>
       </c>
       <c r="H13" s="6" t="n">
-        <v>0.006539584335835521</v>
+        <v>0.006623340222157253</v>
       </c>
       <c r="I13" s="6" t="n">
-        <v>0.02327142782919408</v>
+        <v>0.02388626690871258</v>
       </c>
       <c r="J13" s="5" t="n">
         <v>8</v>
@@ -3790,19 +3790,19 @@
         <v>8775</v>
       </c>
       <c r="L13" s="5" t="n">
-        <v>4259</v>
+        <v>4073</v>
       </c>
       <c r="M13" s="5" t="n">
-        <v>16762</v>
+        <v>16803</v>
       </c>
       <c r="N13" s="6" t="n">
         <v>0.008527938630568981</v>
       </c>
       <c r="O13" s="6" t="n">
-        <v>0.004139400355627588</v>
+        <v>0.00395828823785045</v>
       </c>
       <c r="P13" s="6" t="n">
-        <v>0.0162895042996517</v>
+        <v>0.01632967141271171</v>
       </c>
       <c r="Q13" s="5" t="n">
         <v>19</v>
@@ -3811,19 +3811,19 @@
         <v>21994</v>
       </c>
       <c r="S13" s="5" t="n">
-        <v>13849</v>
+        <v>13006</v>
       </c>
       <c r="T13" s="5" t="n">
-        <v>34076</v>
+        <v>33734</v>
       </c>
       <c r="U13" s="6" t="n">
         <v>0.01076095845981993</v>
       </c>
       <c r="V13" s="6" t="n">
-        <v>0.006775895841479652</v>
+        <v>0.006363128658104045</v>
       </c>
       <c r="W13" s="6" t="n">
-        <v>0.01667177313260522</v>
+        <v>0.01650446137668306</v>
       </c>
     </row>
     <row r="14">
@@ -3856,7 +3856,7 @@
         <v>0</v>
       </c>
       <c r="M14" s="5" t="n">
-        <v>6510</v>
+        <v>7370</v>
       </c>
       <c r="N14" s="6" t="n">
         <v>0.002077311030862731</v>
@@ -3865,7 +3865,7 @@
         <v>0</v>
       </c>
       <c r="P14" s="6" t="n">
-        <v>0.006326578529467711</v>
+        <v>0.007161953950574546</v>
       </c>
       <c r="Q14" s="5" t="n">
         <v>2</v>
@@ -3877,7 +3877,7 @@
         <v>0</v>
       </c>
       <c r="T14" s="5" t="n">
-        <v>6750</v>
+        <v>7259</v>
       </c>
       <c r="U14" s="6" t="n">
         <v>0.00104582090603668</v>
@@ -3886,7 +3886,7 @@
         <v>0</v>
       </c>
       <c r="W14" s="6" t="n">
-        <v>0.003302351029385788</v>
+        <v>0.003551383402551873</v>
       </c>
     </row>
     <row r="15">
@@ -3978,19 +3978,19 @@
         <v>506544</v>
       </c>
       <c r="E16" s="5" t="n">
-        <v>479195</v>
+        <v>480231</v>
       </c>
       <c r="F16" s="5" t="n">
-        <v>535607</v>
+        <v>533459</v>
       </c>
       <c r="G16" s="6" t="n">
         <v>0.6732810339416214</v>
       </c>
       <c r="H16" s="6" t="n">
-        <v>0.6369296967202434</v>
+        <v>0.6383075908206002</v>
       </c>
       <c r="I16" s="6" t="n">
-        <v>0.7119115683698605</v>
+        <v>0.7090559794576324</v>
       </c>
       <c r="J16" s="5" t="n">
         <v>458</v>
@@ -3999,19 +3999,19 @@
         <v>503772</v>
       </c>
       <c r="L16" s="5" t="n">
-        <v>478366</v>
+        <v>474848</v>
       </c>
       <c r="M16" s="5" t="n">
-        <v>534481</v>
+        <v>529787</v>
       </c>
       <c r="N16" s="6" t="n">
         <v>0.6482094319032835</v>
       </c>
       <c r="O16" s="6" t="n">
-        <v>0.6155195223655998</v>
+        <v>0.6109932967379483</v>
       </c>
       <c r="P16" s="6" t="n">
-        <v>0.6877241617135373</v>
+        <v>0.6816832942322318</v>
       </c>
       <c r="Q16" s="5" t="n">
         <v>925</v>
@@ -4020,19 +4020,19 @@
         <v>1010315</v>
       </c>
       <c r="S16" s="5" t="n">
-        <v>972565</v>
+        <v>968231</v>
       </c>
       <c r="T16" s="5" t="n">
-        <v>1053395</v>
+        <v>1048077</v>
       </c>
       <c r="U16" s="6" t="n">
         <v>0.660541789934677</v>
       </c>
       <c r="V16" s="6" t="n">
-        <v>0.6358609109959997</v>
+        <v>0.6330271568774427</v>
       </c>
       <c r="W16" s="6" t="n">
-        <v>0.6887072331082759</v>
+        <v>0.6852301588131845</v>
       </c>
     </row>
     <row r="17">
@@ -4049,19 +4049,19 @@
         <v>170542</v>
       </c>
       <c r="E17" s="5" t="n">
-        <v>147609</v>
+        <v>147810</v>
       </c>
       <c r="F17" s="5" t="n">
-        <v>196835</v>
+        <v>196286</v>
       </c>
       <c r="G17" s="6" t="n">
         <v>0.2266782263211726</v>
       </c>
       <c r="H17" s="6" t="n">
-        <v>0.1961973457741997</v>
+        <v>0.1964645010384978</v>
       </c>
       <c r="I17" s="6" t="n">
-        <v>0.2616267741969658</v>
+        <v>0.2608967047685005</v>
       </c>
       <c r="J17" s="5" t="n">
         <v>182</v>
@@ -4070,19 +4070,19 @@
         <v>201555</v>
       </c>
       <c r="L17" s="5" t="n">
-        <v>175222</v>
+        <v>176985</v>
       </c>
       <c r="M17" s="5" t="n">
-        <v>225482</v>
+        <v>227705</v>
       </c>
       <c r="N17" s="6" t="n">
         <v>0.2593437244052811</v>
       </c>
       <c r="O17" s="6" t="n">
-        <v>0.2254598411093799</v>
+        <v>0.2277288691838743</v>
       </c>
       <c r="P17" s="6" t="n">
-        <v>0.2901306849393022</v>
+        <v>0.2929914525519368</v>
       </c>
       <c r="Q17" s="5" t="n">
         <v>336</v>
@@ -4091,19 +4091,19 @@
         <v>372097</v>
       </c>
       <c r="S17" s="5" t="n">
-        <v>337379</v>
+        <v>337598</v>
       </c>
       <c r="T17" s="5" t="n">
-        <v>404127</v>
+        <v>409424</v>
       </c>
       <c r="U17" s="6" t="n">
         <v>0.2432760388608542</v>
       </c>
       <c r="V17" s="6" t="n">
-        <v>0.2205776668946861</v>
+        <v>0.2207205193859408</v>
       </c>
       <c r="W17" s="6" t="n">
-        <v>0.2642170085006562</v>
+        <v>0.2676807261125195</v>
       </c>
     </row>
     <row r="18">
@@ -4120,19 +4120,19 @@
         <v>59477</v>
       </c>
       <c r="E18" s="5" t="n">
-        <v>45365</v>
+        <v>43549</v>
       </c>
       <c r="F18" s="5" t="n">
-        <v>76819</v>
+        <v>78355</v>
       </c>
       <c r="G18" s="6" t="n">
         <v>0.07905526634402633</v>
       </c>
       <c r="H18" s="6" t="n">
-        <v>0.06029791777584469</v>
+        <v>0.05788410070562385</v>
       </c>
       <c r="I18" s="6" t="n">
-        <v>0.1021057842134703</v>
+        <v>0.1041471042558984</v>
       </c>
       <c r="J18" s="5" t="n">
         <v>50</v>
@@ -4141,19 +4141,19 @@
         <v>55452</v>
       </c>
       <c r="L18" s="5" t="n">
-        <v>40473</v>
+        <v>42003</v>
       </c>
       <c r="M18" s="5" t="n">
-        <v>70890</v>
+        <v>71598</v>
       </c>
       <c r="N18" s="6" t="n">
         <v>0.07135047534652829</v>
       </c>
       <c r="O18" s="6" t="n">
-        <v>0.05207683016166142</v>
+        <v>0.05404613916274493</v>
       </c>
       <c r="P18" s="6" t="n">
-        <v>0.09121482216788965</v>
+        <v>0.09212563126009855</v>
       </c>
       <c r="Q18" s="5" t="n">
         <v>99</v>
@@ -4162,19 +4162,19 @@
         <v>114929</v>
       </c>
       <c r="S18" s="5" t="n">
-        <v>94044</v>
+        <v>94695</v>
       </c>
       <c r="T18" s="5" t="n">
-        <v>140086</v>
+        <v>138241</v>
       </c>
       <c r="U18" s="6" t="n">
         <v>0.0751403504806704</v>
       </c>
       <c r="V18" s="6" t="n">
-        <v>0.06148569847575924</v>
+        <v>0.06191130113253181</v>
       </c>
       <c r="W18" s="6" t="n">
-        <v>0.09158797739780153</v>
+        <v>0.09038194579707839</v>
       </c>
     </row>
     <row r="19">
@@ -4191,19 +4191,19 @@
         <v>10517</v>
       </c>
       <c r="E19" s="5" t="n">
-        <v>5214</v>
+        <v>5354</v>
       </c>
       <c r="F19" s="5" t="n">
-        <v>19282</v>
+        <v>17755</v>
       </c>
       <c r="G19" s="6" t="n">
         <v>0.01397893520530752</v>
       </c>
       <c r="H19" s="6" t="n">
-        <v>0.006930668172718933</v>
+        <v>0.007115797497210275</v>
       </c>
       <c r="I19" s="6" t="n">
-        <v>0.02562924356421576</v>
+        <v>0.02359887311668312</v>
       </c>
       <c r="J19" s="5" t="n">
         <v>12</v>
@@ -4212,19 +4212,19 @@
         <v>13047</v>
       </c>
       <c r="L19" s="5" t="n">
-        <v>6925</v>
+        <v>6309</v>
       </c>
       <c r="M19" s="5" t="n">
-        <v>22140</v>
+        <v>22520</v>
       </c>
       <c r="N19" s="6" t="n">
         <v>0.01678811048285671</v>
       </c>
       <c r="O19" s="6" t="n">
-        <v>0.008910455738408249</v>
+        <v>0.008117313533465686</v>
       </c>
       <c r="P19" s="6" t="n">
-        <v>0.02848820096666724</v>
+        <v>0.02897685898841581</v>
       </c>
       <c r="Q19" s="5" t="n">
         <v>22</v>
@@ -4233,19 +4233,19 @@
         <v>23564</v>
       </c>
       <c r="S19" s="5" t="n">
-        <v>14323</v>
+        <v>14949</v>
       </c>
       <c r="T19" s="5" t="n">
-        <v>33956</v>
+        <v>36662</v>
       </c>
       <c r="U19" s="6" t="n">
         <v>0.01540631783782745</v>
       </c>
       <c r="V19" s="6" t="n">
-        <v>0.009364226670232722</v>
+        <v>0.009773624600613413</v>
       </c>
       <c r="W19" s="6" t="n">
-        <v>0.02220035350977309</v>
+        <v>0.02396949452051191</v>
       </c>
     </row>
     <row r="20">
@@ -4262,19 +4262,19 @@
         <v>5271</v>
       </c>
       <c r="E20" s="5" t="n">
-        <v>1990</v>
+        <v>1214</v>
       </c>
       <c r="F20" s="5" t="n">
-        <v>14775</v>
+        <v>13208</v>
       </c>
       <c r="G20" s="6" t="n">
         <v>0.007006538187872158</v>
       </c>
       <c r="H20" s="6" t="n">
-        <v>0.002644683269061466</v>
+        <v>0.001614004792824581</v>
       </c>
       <c r="I20" s="6" t="n">
-        <v>0.0196379030217072</v>
+        <v>0.01755596656120051</v>
       </c>
       <c r="J20" s="5" t="n">
         <v>3</v>
@@ -4283,19 +4283,19 @@
         <v>3348</v>
       </c>
       <c r="L20" s="5" t="n">
-        <v>995</v>
+        <v>0</v>
       </c>
       <c r="M20" s="5" t="n">
-        <v>9476</v>
+        <v>8980</v>
       </c>
       <c r="N20" s="6" t="n">
         <v>0.004308257862050423</v>
       </c>
       <c r="O20" s="6" t="n">
-        <v>0.001279779008120163</v>
+        <v>0</v>
       </c>
       <c r="P20" s="6" t="n">
-        <v>0.01219267751170504</v>
+        <v>0.01155529107458853</v>
       </c>
       <c r="Q20" s="5" t="n">
         <v>7</v>
@@ -4304,19 +4304,19 @@
         <v>8620</v>
       </c>
       <c r="S20" s="5" t="n">
-        <v>3417</v>
+        <v>3967</v>
       </c>
       <c r="T20" s="5" t="n">
-        <v>17810</v>
+        <v>17616</v>
       </c>
       <c r="U20" s="6" t="n">
         <v>0.005635502885970914</v>
       </c>
       <c r="V20" s="6" t="n">
-        <v>0.002234108289879137</v>
+        <v>0.002593585016124208</v>
       </c>
       <c r="W20" s="6" t="n">
-        <v>0.01164417337649361</v>
+        <v>0.01151734230680719</v>
       </c>
     </row>
     <row r="21">
@@ -4408,19 +4408,19 @@
         <v>564035</v>
       </c>
       <c r="E22" s="5" t="n">
-        <v>530704</v>
+        <v>534377</v>
       </c>
       <c r="F22" s="5" t="n">
-        <v>593507</v>
+        <v>595427</v>
       </c>
       <c r="G22" s="6" t="n">
         <v>0.5957443031171967</v>
       </c>
       <c r="H22" s="6" t="n">
-        <v>0.5605402175503948</v>
+        <v>0.564418999055147</v>
       </c>
       <c r="I22" s="6" t="n">
-        <v>0.6268731031068246</v>
+        <v>0.6289020523024436</v>
       </c>
       <c r="J22" s="5" t="n">
         <v>571</v>
@@ -4429,19 +4429,19 @@
         <v>595024</v>
       </c>
       <c r="L22" s="5" t="n">
-        <v>566713</v>
+        <v>560526</v>
       </c>
       <c r="M22" s="5" t="n">
-        <v>629721</v>
+        <v>627240</v>
       </c>
       <c r="N22" s="6" t="n">
         <v>0.5685498874864922</v>
       </c>
       <c r="O22" s="6" t="n">
-        <v>0.5414983148698834</v>
+        <v>0.5355871415005714</v>
       </c>
       <c r="P22" s="6" t="n">
-        <v>0.601703393075648</v>
+        <v>0.599332915967437</v>
       </c>
       <c r="Q22" s="5" t="n">
         <v>1113</v>
@@ -4450,19 +4450,19 @@
         <v>1159058</v>
       </c>
       <c r="S22" s="5" t="n">
-        <v>1114351</v>
+        <v>1117187</v>
       </c>
       <c r="T22" s="5" t="n">
-        <v>1203837</v>
+        <v>1210935</v>
       </c>
       <c r="U22" s="6" t="n">
         <v>0.5814663934151236</v>
       </c>
       <c r="V22" s="6" t="n">
-        <v>0.5590378159960608</v>
+        <v>0.5604608129269295</v>
       </c>
       <c r="W22" s="6" t="n">
-        <v>0.603930439499768</v>
+        <v>0.607491476309586</v>
       </c>
     </row>
     <row r="23">
@@ -4479,19 +4479,19 @@
         <v>271866</v>
       </c>
       <c r="E23" s="5" t="n">
-        <v>245682</v>
+        <v>244130</v>
       </c>
       <c r="F23" s="5" t="n">
-        <v>301813</v>
+        <v>302195</v>
       </c>
       <c r="G23" s="6" t="n">
         <v>0.2871504271824079</v>
       </c>
       <c r="H23" s="6" t="n">
-        <v>0.2594944095206913</v>
+        <v>0.2578549863747237</v>
       </c>
       <c r="I23" s="6" t="n">
-        <v>0.3187803131520743</v>
+        <v>0.31918374402869</v>
       </c>
       <c r="J23" s="5" t="n">
         <v>309</v>
@@ -4500,19 +4500,19 @@
         <v>326235</v>
       </c>
       <c r="L23" s="5" t="n">
-        <v>295292</v>
+        <v>296554</v>
       </c>
       <c r="M23" s="5" t="n">
-        <v>356931</v>
+        <v>357327</v>
       </c>
       <c r="N23" s="6" t="n">
         <v>0.3117204993170828</v>
       </c>
       <c r="O23" s="6" t="n">
-        <v>0.282153485997345</v>
+        <v>0.2833592310416025</v>
       </c>
       <c r="P23" s="6" t="n">
-        <v>0.3410502852296395</v>
+        <v>0.3414288270702815</v>
       </c>
       <c r="Q23" s="5" t="n">
         <v>571</v>
@@ -4521,19 +4521,19 @@
         <v>598102</v>
       </c>
       <c r="S23" s="5" t="n">
-        <v>554432</v>
+        <v>554044</v>
       </c>
       <c r="T23" s="5" t="n">
-        <v>638540</v>
+        <v>643310</v>
       </c>
       <c r="U23" s="6" t="n">
         <v>0.3000504753421566</v>
       </c>
       <c r="V23" s="6" t="n">
-        <v>0.2781427167126923</v>
+        <v>0.2779481577898336</v>
       </c>
       <c r="W23" s="6" t="n">
-        <v>0.3203371248212633</v>
+        <v>0.3227299290589541</v>
       </c>
     </row>
     <row r="24">
@@ -4550,19 +4550,19 @@
         <v>91997</v>
       </c>
       <c r="E24" s="5" t="n">
-        <v>74764</v>
+        <v>74319</v>
       </c>
       <c r="F24" s="5" t="n">
-        <v>112376</v>
+        <v>109658</v>
       </c>
       <c r="G24" s="6" t="n">
         <v>0.09716862057416523</v>
       </c>
       <c r="H24" s="6" t="n">
-        <v>0.0789676028923012</v>
+        <v>0.07849720339415772</v>
       </c>
       <c r="I24" s="6" t="n">
-        <v>0.1186942040671795</v>
+        <v>0.1158226408016892</v>
       </c>
       <c r="J24" s="5" t="n">
         <v>94</v>
@@ -4571,19 +4571,19 @@
         <v>98303</v>
       </c>
       <c r="L24" s="5" t="n">
-        <v>80718</v>
+        <v>80644</v>
       </c>
       <c r="M24" s="5" t="n">
-        <v>118720</v>
+        <v>118279</v>
       </c>
       <c r="N24" s="6" t="n">
         <v>0.09392936500398789</v>
       </c>
       <c r="O24" s="6" t="n">
-        <v>0.07712697199417416</v>
+        <v>0.07705605918805848</v>
       </c>
       <c r="P24" s="6" t="n">
-        <v>0.1134380492472861</v>
+        <v>0.1130165329203268</v>
       </c>
       <c r="Q24" s="5" t="n">
         <v>182</v>
@@ -4592,19 +4592,19 @@
         <v>190300</v>
       </c>
       <c r="S24" s="5" t="n">
-        <v>164878</v>
+        <v>165020</v>
       </c>
       <c r="T24" s="5" t="n">
-        <v>218521</v>
+        <v>218100</v>
       </c>
       <c r="U24" s="6" t="n">
         <v>0.09546791116525592</v>
       </c>
       <c r="V24" s="6" t="n">
-        <v>0.08271464214704038</v>
+        <v>0.08278596176048099</v>
       </c>
       <c r="W24" s="6" t="n">
-        <v>0.1096255691671284</v>
+        <v>0.109414664836662</v>
       </c>
     </row>
     <row r="25">
@@ -4621,19 +4621,19 @@
         <v>12835</v>
       </c>
       <c r="E25" s="5" t="n">
-        <v>6803</v>
+        <v>6067</v>
       </c>
       <c r="F25" s="5" t="n">
-        <v>22431</v>
+        <v>22465</v>
       </c>
       <c r="G25" s="6" t="n">
         <v>0.01355625689039223</v>
       </c>
       <c r="H25" s="6" t="n">
-        <v>0.00718543018965024</v>
+        <v>0.006408054233499702</v>
       </c>
       <c r="I25" s="6" t="n">
-        <v>0.02369207614259705</v>
+        <v>0.02372785376558426</v>
       </c>
       <c r="J25" s="5" t="n">
         <v>14</v>
@@ -4642,19 +4642,19 @@
         <v>17065</v>
       </c>
       <c r="L25" s="5" t="n">
-        <v>9190</v>
+        <v>9248</v>
       </c>
       <c r="M25" s="5" t="n">
-        <v>28225</v>
+        <v>28730</v>
       </c>
       <c r="N25" s="6" t="n">
         <v>0.01630555820383676</v>
       </c>
       <c r="O25" s="6" t="n">
-        <v>0.008780649239973305</v>
+        <v>0.008836678367028518</v>
       </c>
       <c r="P25" s="6" t="n">
-        <v>0.02696878969828358</v>
+        <v>0.02745145358618988</v>
       </c>
       <c r="Q25" s="5" t="n">
         <v>26</v>
@@ -4663,19 +4663,19 @@
         <v>29900</v>
       </c>
       <c r="S25" s="5" t="n">
-        <v>19136</v>
+        <v>19093</v>
       </c>
       <c r="T25" s="5" t="n">
-        <v>41711</v>
+        <v>42851</v>
       </c>
       <c r="U25" s="6" t="n">
         <v>0.01499972515351722</v>
       </c>
       <c r="V25" s="6" t="n">
-        <v>0.009600105822699588</v>
+        <v>0.009578416503740708</v>
       </c>
       <c r="W25" s="6" t="n">
-        <v>0.02092499101381779</v>
+        <v>0.02149709142529829</v>
       </c>
     </row>
     <row r="26">
@@ -4692,19 +4692,19 @@
         <v>6041</v>
       </c>
       <c r="E26" s="5" t="n">
-        <v>1984</v>
+        <v>1861</v>
       </c>
       <c r="F26" s="5" t="n">
-        <v>13446</v>
+        <v>15447</v>
       </c>
       <c r="G26" s="6" t="n">
         <v>0.00638039223583799</v>
       </c>
       <c r="H26" s="6" t="n">
-        <v>0.00209502157976574</v>
+        <v>0.001965956485339585</v>
       </c>
       <c r="I26" s="6" t="n">
-        <v>0.01420171118442501</v>
+        <v>0.01631580068408331</v>
       </c>
       <c r="J26" s="5" t="n">
         <v>10</v>
@@ -4713,19 +4713,19 @@
         <v>9937</v>
       </c>
       <c r="L26" s="5" t="n">
-        <v>4974</v>
+        <v>4811</v>
       </c>
       <c r="M26" s="5" t="n">
-        <v>16943</v>
+        <v>17098</v>
       </c>
       <c r="N26" s="6" t="n">
         <v>0.009494689988600334</v>
       </c>
       <c r="O26" s="6" t="n">
-        <v>0.004752951072297826</v>
+        <v>0.00459690307750366</v>
       </c>
       <c r="P26" s="6" t="n">
-        <v>0.0161892468930035</v>
+        <v>0.0163371467088323</v>
       </c>
       <c r="Q26" s="5" t="n">
         <v>15</v>
@@ -4734,19 +4734,19 @@
         <v>15978</v>
       </c>
       <c r="S26" s="5" t="n">
-        <v>8875</v>
+        <v>9307</v>
       </c>
       <c r="T26" s="5" t="n">
-        <v>26083</v>
+        <v>26002</v>
       </c>
       <c r="U26" s="6" t="n">
         <v>0.008015494923946685</v>
       </c>
       <c r="V26" s="6" t="n">
-        <v>0.004452537104381398</v>
+        <v>0.0046691981855623</v>
       </c>
       <c r="W26" s="6" t="n">
-        <v>0.01308531952275428</v>
+        <v>0.01304426977634631</v>
       </c>
     </row>
     <row r="27">
@@ -4838,19 +4838,19 @@
         <v>2254767</v>
       </c>
       <c r="E28" s="5" t="n">
-        <v>2200445</v>
+        <v>2197219</v>
       </c>
       <c r="F28" s="5" t="n">
-        <v>2314815</v>
+        <v>2311572</v>
       </c>
       <c r="G28" s="6" t="n">
         <v>0.6601586981917111</v>
       </c>
       <c r="H28" s="6" t="n">
-        <v>0.6442542611493711</v>
+        <v>0.64330960685156</v>
       </c>
       <c r="I28" s="6" t="n">
-        <v>0.677739940131957</v>
+        <v>0.6767904466289437</v>
       </c>
       <c r="J28" s="5" t="n">
         <v>2091</v>
@@ -4859,19 +4859,19 @@
         <v>2252736</v>
       </c>
       <c r="L28" s="5" t="n">
-        <v>2192840</v>
+        <v>2200830</v>
       </c>
       <c r="M28" s="5" t="n">
-        <v>2310455</v>
+        <v>2309684</v>
       </c>
       <c r="N28" s="6" t="n">
         <v>0.6347882233298179</v>
       </c>
       <c r="O28" s="6" t="n">
-        <v>0.6179102203015744</v>
+        <v>0.6201617340928202</v>
       </c>
       <c r="P28" s="6" t="n">
-        <v>0.6510525379305804</v>
+        <v>0.6508351283024434</v>
       </c>
       <c r="Q28" s="5" t="n">
         <v>4210</v>
@@ -4880,19 +4880,19 @@
         <v>4507503</v>
       </c>
       <c r="S28" s="5" t="n">
-        <v>4432244</v>
+        <v>4422439</v>
       </c>
       <c r="T28" s="5" t="n">
-        <v>4588820</v>
+        <v>4585657</v>
       </c>
       <c r="U28" s="6" t="n">
         <v>0.647230644920656</v>
       </c>
       <c r="V28" s="6" t="n">
-        <v>0.6364242534398624</v>
+        <v>0.6350163008560226</v>
       </c>
       <c r="W28" s="6" t="n">
-        <v>0.6589068451233805</v>
+        <v>0.6584527554179617</v>
       </c>
     </row>
     <row r="29">
@@ -4909,19 +4909,19 @@
         <v>837256</v>
       </c>
       <c r="E29" s="5" t="n">
-        <v>783497</v>
+        <v>787434</v>
       </c>
       <c r="F29" s="5" t="n">
-        <v>891531</v>
+        <v>891646</v>
       </c>
       <c r="G29" s="6" t="n">
         <v>0.2451347152419897</v>
       </c>
       <c r="H29" s="6" t="n">
-        <v>0.2293949896850757</v>
+        <v>0.2305476956410386</v>
       </c>
       <c r="I29" s="6" t="n">
-        <v>0.2610257528602643</v>
+        <v>0.2610592474312467</v>
       </c>
       <c r="J29" s="5" t="n">
         <v>892</v>
@@ -4930,19 +4930,19 @@
         <v>963352</v>
       </c>
       <c r="L29" s="5" t="n">
-        <v>910016</v>
+        <v>914397</v>
       </c>
       <c r="M29" s="5" t="n">
-        <v>1018500</v>
+        <v>1018054</v>
       </c>
       <c r="N29" s="6" t="n">
         <v>0.2714585470161901</v>
       </c>
       <c r="O29" s="6" t="n">
-        <v>0.2564291986880672</v>
+        <v>0.2576637311082472</v>
       </c>
       <c r="P29" s="6" t="n">
-        <v>0.2869984059137646</v>
+        <v>0.2868726259710103</v>
       </c>
       <c r="Q29" s="5" t="n">
         <v>1674</v>
@@ -4951,19 +4951,19 @@
         <v>1800608</v>
       </c>
       <c r="S29" s="5" t="n">
-        <v>1727283</v>
+        <v>1734105</v>
       </c>
       <c r="T29" s="5" t="n">
-        <v>1879053</v>
+        <v>1879040</v>
       </c>
       <c r="U29" s="6" t="n">
         <v>0.2585485713612662</v>
       </c>
       <c r="V29" s="6" t="n">
-        <v>0.2480198862673612</v>
+        <v>0.2489994401690124</v>
       </c>
       <c r="W29" s="6" t="n">
-        <v>0.2698125237758363</v>
+        <v>0.2698106032742394</v>
       </c>
     </row>
     <row r="30">
@@ -4980,19 +4980,19 @@
         <v>262077</v>
       </c>
       <c r="E30" s="5" t="n">
-        <v>233107</v>
+        <v>231853</v>
       </c>
       <c r="F30" s="5" t="n">
-        <v>294309</v>
+        <v>295347</v>
       </c>
       <c r="G30" s="6" t="n">
         <v>0.0767317000817571</v>
       </c>
       <c r="H30" s="6" t="n">
-        <v>0.06824993739594766</v>
+        <v>0.06788274404375118</v>
       </c>
       <c r="I30" s="6" t="n">
-        <v>0.08616875303122187</v>
+        <v>0.08647279716815467</v>
       </c>
       <c r="J30" s="5" t="n">
         <v>241</v>
@@ -5001,19 +5001,19 @@
         <v>262002</v>
       </c>
       <c r="L30" s="5" t="n">
-        <v>232670</v>
+        <v>233081</v>
       </c>
       <c r="M30" s="5" t="n">
-        <v>298788</v>
+        <v>293343</v>
       </c>
       <c r="N30" s="6" t="n">
         <v>0.07382843406800288</v>
       </c>
       <c r="O30" s="6" t="n">
-        <v>0.06556294458570364</v>
+        <v>0.06567870577561381</v>
       </c>
       <c r="P30" s="6" t="n">
-        <v>0.08419402610650796</v>
+        <v>0.08265982991709789</v>
       </c>
       <c r="Q30" s="5" t="n">
         <v>482</v>
@@ -5022,19 +5022,19 @@
         <v>524079</v>
       </c>
       <c r="S30" s="5" t="n">
-        <v>482179</v>
+        <v>476969</v>
       </c>
       <c r="T30" s="5" t="n">
-        <v>568564</v>
+        <v>572685</v>
       </c>
       <c r="U30" s="6" t="n">
         <v>0.07525228048515213</v>
       </c>
       <c r="V30" s="6" t="n">
-        <v>0.06923584299026467</v>
+        <v>0.0684878628882766</v>
       </c>
       <c r="W30" s="6" t="n">
-        <v>0.08163994990675046</v>
+        <v>0.08223166448657106</v>
       </c>
     </row>
     <row r="31">
@@ -5051,19 +5051,19 @@
         <v>45342</v>
       </c>
       <c r="E31" s="5" t="n">
-        <v>33295</v>
+        <v>32204</v>
       </c>
       <c r="F31" s="5" t="n">
-        <v>62302</v>
+        <v>59744</v>
       </c>
       <c r="G31" s="6" t="n">
         <v>0.01327531689720849</v>
       </c>
       <c r="H31" s="6" t="n">
-        <v>0.009748371055930211</v>
+        <v>0.009428718672197805</v>
       </c>
       <c r="I31" s="6" t="n">
-        <v>0.01824090438787264</v>
+        <v>0.01749198903459592</v>
       </c>
       <c r="J31" s="5" t="n">
         <v>48</v>
@@ -5072,19 +5072,19 @@
         <v>53307</v>
       </c>
       <c r="L31" s="5" t="n">
-        <v>39009</v>
+        <v>40854</v>
       </c>
       <c r="M31" s="5" t="n">
-        <v>70745</v>
+        <v>73076</v>
       </c>
       <c r="N31" s="6" t="n">
         <v>0.0150210207831274</v>
       </c>
       <c r="O31" s="6" t="n">
-        <v>0.01099213081814434</v>
+        <v>0.01151200429254944</v>
       </c>
       <c r="P31" s="6" t="n">
-        <v>0.01993490776898694</v>
+        <v>0.02059180057487029</v>
       </c>
       <c r="Q31" s="5" t="n">
         <v>90</v>
@@ -5093,19 +5093,19 @@
         <v>98648</v>
       </c>
       <c r="S31" s="5" t="n">
-        <v>78413</v>
+        <v>79637</v>
       </c>
       <c r="T31" s="5" t="n">
-        <v>122072</v>
+        <v>121141</v>
       </c>
       <c r="U31" s="6" t="n">
         <v>0.01416487662975201</v>
       </c>
       <c r="V31" s="6" t="n">
-        <v>0.01125930490939393</v>
+        <v>0.01143509836199973</v>
       </c>
       <c r="W31" s="6" t="n">
-        <v>0.01752827200986834</v>
+        <v>0.01739462965341015</v>
       </c>
     </row>
     <row r="32">
@@ -5122,19 +5122,19 @@
         <v>16051</v>
       </c>
       <c r="E32" s="5" t="n">
-        <v>8453</v>
+        <v>8339</v>
       </c>
       <c r="F32" s="5" t="n">
-        <v>26903</v>
+        <v>26627</v>
       </c>
       <c r="G32" s="6" t="n">
         <v>0.004699569587333558</v>
       </c>
       <c r="H32" s="6" t="n">
-        <v>0.002475037162881872</v>
+        <v>0.002441581519407896</v>
       </c>
       <c r="I32" s="6" t="n">
-        <v>0.007876710417084661</v>
+        <v>0.007796073072560376</v>
       </c>
       <c r="J32" s="5" t="n">
         <v>17</v>
@@ -5143,19 +5143,19 @@
         <v>17403</v>
       </c>
       <c r="L32" s="5" t="n">
-        <v>10257</v>
+        <v>10134</v>
       </c>
       <c r="M32" s="5" t="n">
-        <v>27282</v>
+        <v>27032</v>
       </c>
       <c r="N32" s="6" t="n">
         <v>0.004903774802861735</v>
       </c>
       <c r="O32" s="6" t="n">
-        <v>0.002890233318384838</v>
+        <v>0.002855508979623834</v>
       </c>
       <c r="P32" s="6" t="n">
-        <v>0.007687773838153131</v>
+        <v>0.007617140054236558</v>
       </c>
       <c r="Q32" s="5" t="n">
         <v>31</v>
@@ -5164,19 +5164,19 @@
         <v>33454</v>
       </c>
       <c r="S32" s="5" t="n">
-        <v>23104</v>
+        <v>23238</v>
       </c>
       <c r="T32" s="5" t="n">
-        <v>47112</v>
+        <v>46111</v>
       </c>
       <c r="U32" s="6" t="n">
         <v>0.004803626603173686</v>
       </c>
       <c r="V32" s="6" t="n">
-        <v>0.003317523795162569</v>
+        <v>0.003336753848435425</v>
       </c>
       <c r="W32" s="6" t="n">
-        <v>0.006764781241743891</v>
+        <v>0.006621024208945165</v>
       </c>
     </row>
     <row r="33">
@@ -5508,19 +5508,19 @@
         <v>322731</v>
       </c>
       <c r="E4" s="5" t="n">
-        <v>292457</v>
+        <v>297532</v>
       </c>
       <c r="F4" s="5" t="n">
-        <v>347015</v>
+        <v>347764</v>
       </c>
       <c r="G4" s="6" t="n">
         <v>0.4790124119509491</v>
       </c>
       <c r="H4" s="6" t="n">
-        <v>0.4340784658489873</v>
+        <v>0.4416116231688184</v>
       </c>
       <c r="I4" s="6" t="n">
-        <v>0.5150558610520695</v>
+        <v>0.5161676175869043</v>
       </c>
       <c r="J4" s="5" t="n">
         <v>304</v>
@@ -5529,19 +5529,19 @@
         <v>304906</v>
       </c>
       <c r="L4" s="5" t="n">
-        <v>276391</v>
+        <v>279218</v>
       </c>
       <c r="M4" s="5" t="n">
-        <v>329606</v>
+        <v>329239</v>
       </c>
       <c r="N4" s="6" t="n">
         <v>0.4551576871878836</v>
       </c>
       <c r="O4" s="6" t="n">
-        <v>0.4125905366716718</v>
+        <v>0.4168103879273791</v>
       </c>
       <c r="P4" s="6" t="n">
-        <v>0.4920300271055232</v>
+        <v>0.4914813666595811</v>
       </c>
       <c r="Q4" s="5" t="n">
         <v>615</v>
@@ -5550,19 +5550,19 @@
         <v>627636</v>
       </c>
       <c r="S4" s="5" t="n">
-        <v>586920</v>
+        <v>588338</v>
       </c>
       <c r="T4" s="5" t="n">
-        <v>662425</v>
+        <v>665511</v>
       </c>
       <c r="U4" s="6" t="n">
         <v>0.4671192336610351</v>
       </c>
       <c r="V4" s="6" t="n">
-        <v>0.4368162903114067</v>
+        <v>0.4378712209696699</v>
       </c>
       <c r="W4" s="6" t="n">
-        <v>0.4930107724691207</v>
+        <v>0.495307509986148</v>
       </c>
     </row>
     <row r="5">
@@ -5579,19 +5579,19 @@
         <v>248407</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>226756</v>
+        <v>223772</v>
       </c>
       <c r="F5" s="5" t="n">
-        <v>274865</v>
+        <v>275573</v>
       </c>
       <c r="G5" s="6" t="n">
         <v>0.3686970934872293</v>
       </c>
       <c r="H5" s="6" t="n">
-        <v>0.3365614182030252</v>
+        <v>0.3321330195438968</v>
       </c>
       <c r="I5" s="6" t="n">
-        <v>0.4079672544757292</v>
+        <v>0.4090187648185745</v>
       </c>
       <c r="J5" s="5" t="n">
         <v>251</v>
@@ -5600,19 +5600,19 @@
         <v>252978</v>
       </c>
       <c r="L5" s="5" t="n">
-        <v>229150</v>
+        <v>228653</v>
       </c>
       <c r="M5" s="5" t="n">
-        <v>280399</v>
+        <v>276885</v>
       </c>
       <c r="N5" s="6" t="n">
         <v>0.3776410344854613</v>
       </c>
       <c r="O5" s="6" t="n">
-        <v>0.3420709689893268</v>
+        <v>0.3413290615033965</v>
       </c>
       <c r="P5" s="6" t="n">
-        <v>0.4185739294640692</v>
+        <v>0.4133285255459546</v>
       </c>
       <c r="Q5" s="5" t="n">
         <v>493</v>
@@ -5621,19 +5621,19 @@
         <v>501385</v>
       </c>
       <c r="S5" s="5" t="n">
-        <v>466760</v>
+        <v>467271</v>
       </c>
       <c r="T5" s="5" t="n">
-        <v>539671</v>
+        <v>537002</v>
       </c>
       <c r="U5" s="6" t="n">
         <v>0.3731562472172754</v>
       </c>
       <c r="V5" s="6" t="n">
-        <v>0.3473865159172276</v>
+        <v>0.347766888654674</v>
       </c>
       <c r="W5" s="6" t="n">
-        <v>0.4016507381594874</v>
+        <v>0.3996648435219813</v>
       </c>
     </row>
     <row r="6">
@@ -5650,19 +5650,19 @@
         <v>79219</v>
       </c>
       <c r="E6" s="5" t="n">
-        <v>63795</v>
+        <v>62857</v>
       </c>
       <c r="F6" s="5" t="n">
-        <v>96349</v>
+        <v>95988</v>
       </c>
       <c r="G6" s="6" t="n">
         <v>0.1175810223950389</v>
       </c>
       <c r="H6" s="6" t="n">
-        <v>0.09468724144818616</v>
+        <v>0.09329511898956891</v>
       </c>
       <c r="I6" s="6" t="n">
-        <v>0.1430058418665901</v>
+        <v>0.1424702590619178</v>
       </c>
       <c r="J6" s="5" t="n">
         <v>95</v>
@@ -5671,19 +5671,19 @@
         <v>97700</v>
       </c>
       <c r="L6" s="5" t="n">
-        <v>81017</v>
+        <v>80944</v>
       </c>
       <c r="M6" s="5" t="n">
-        <v>118956</v>
+        <v>117558</v>
       </c>
       <c r="N6" s="6" t="n">
         <v>0.1458440594620639</v>
       </c>
       <c r="O6" s="6" t="n">
-        <v>0.1209408094550133</v>
+        <v>0.1208319653384608</v>
       </c>
       <c r="P6" s="6" t="n">
-        <v>0.1775751682967592</v>
+        <v>0.1754887461688924</v>
       </c>
       <c r="Q6" s="5" t="n">
         <v>172</v>
@@ -5692,19 +5692,19 @@
         <v>176919</v>
       </c>
       <c r="S6" s="5" t="n">
-        <v>154019</v>
+        <v>151294</v>
       </c>
       <c r="T6" s="5" t="n">
-        <v>203887</v>
+        <v>203054</v>
       </c>
       <c r="U6" s="6" t="n">
         <v>0.1316720396753146</v>
       </c>
       <c r="V6" s="6" t="n">
-        <v>0.1146289900981454</v>
+        <v>0.1126008582543406</v>
       </c>
       <c r="W6" s="6" t="n">
-        <v>0.1517435486884712</v>
+        <v>0.1511233205743568</v>
       </c>
     </row>
     <row r="7">
@@ -5721,19 +5721,19 @@
         <v>18243</v>
       </c>
       <c r="E7" s="5" t="n">
-        <v>10906</v>
+        <v>10507</v>
       </c>
       <c r="F7" s="5" t="n">
-        <v>29481</v>
+        <v>29099</v>
       </c>
       <c r="G7" s="6" t="n">
         <v>0.02707707554479099</v>
       </c>
       <c r="H7" s="6" t="n">
-        <v>0.01618746633981958</v>
+        <v>0.01559559689013428</v>
       </c>
       <c r="I7" s="6" t="n">
-        <v>0.04375678269422471</v>
+        <v>0.04319035343268713</v>
       </c>
       <c r="J7" s="5" t="n">
         <v>8</v>
@@ -5742,19 +5742,19 @@
         <v>8713</v>
       </c>
       <c r="L7" s="5" t="n">
-        <v>4127</v>
+        <v>4262</v>
       </c>
       <c r="M7" s="5" t="n">
-        <v>17074</v>
+        <v>17420</v>
       </c>
       <c r="N7" s="6" t="n">
         <v>0.0130059150505598</v>
       </c>
       <c r="O7" s="6" t="n">
-        <v>0.006160112123852965</v>
+        <v>0.006362176618673019</v>
       </c>
       <c r="P7" s="6" t="n">
-        <v>0.02548825868767873</v>
+        <v>0.02600435986755151</v>
       </c>
       <c r="Q7" s="5" t="n">
         <v>24</v>
@@ -5763,19 +5763,19 @@
         <v>26955</v>
       </c>
       <c r="S7" s="5" t="n">
-        <v>18236</v>
+        <v>17224</v>
       </c>
       <c r="T7" s="5" t="n">
-        <v>41250</v>
+        <v>39125</v>
       </c>
       <c r="U7" s="6" t="n">
         <v>0.02006165943053769</v>
       </c>
       <c r="V7" s="6" t="n">
-        <v>0.01357246730872276</v>
+        <v>0.01281893668921537</v>
       </c>
       <c r="W7" s="6" t="n">
-        <v>0.03070001753110461</v>
+        <v>0.02911919488754896</v>
       </c>
     </row>
     <row r="8">
@@ -5792,19 +5792,19 @@
         <v>5142</v>
       </c>
       <c r="E8" s="5" t="n">
-        <v>1999</v>
+        <v>2004</v>
       </c>
       <c r="F8" s="5" t="n">
-        <v>11400</v>
+        <v>10444</v>
       </c>
       <c r="G8" s="6" t="n">
         <v>0.007632396621991676</v>
       </c>
       <c r="H8" s="6" t="n">
-        <v>0.00296659113606159</v>
+        <v>0.002974593142331181</v>
       </c>
       <c r="I8" s="6" t="n">
-        <v>0.01692083247844176</v>
+        <v>0.01550180695559802</v>
       </c>
       <c r="J8" s="5" t="n">
         <v>5</v>
@@ -5813,19 +5813,19 @@
         <v>5594</v>
       </c>
       <c r="L8" s="5" t="n">
-        <v>2018</v>
+        <v>2054</v>
       </c>
       <c r="M8" s="5" t="n">
-        <v>12123</v>
+        <v>12397</v>
       </c>
       <c r="N8" s="6" t="n">
         <v>0.008351303814031394</v>
       </c>
       <c r="O8" s="6" t="n">
-        <v>0.003011759404315729</v>
+        <v>0.003065593218234783</v>
       </c>
       <c r="P8" s="6" t="n">
-        <v>0.01809737025390589</v>
+        <v>0.01850597128311106</v>
       </c>
       <c r="Q8" s="5" t="n">
         <v>10</v>
@@ -5834,19 +5834,19 @@
         <v>10737</v>
       </c>
       <c r="S8" s="5" t="n">
-        <v>5624</v>
+        <v>5285</v>
       </c>
       <c r="T8" s="5" t="n">
-        <v>19508</v>
+        <v>19480</v>
       </c>
       <c r="U8" s="6" t="n">
         <v>0.007990820015837244</v>
       </c>
       <c r="V8" s="6" t="n">
-        <v>0.004185830065302187</v>
+        <v>0.003933112653096442</v>
       </c>
       <c r="W8" s="6" t="n">
-        <v>0.01451875880336879</v>
+        <v>0.0144978898579962</v>
       </c>
     </row>
     <row r="9">
@@ -5938,19 +5938,19 @@
         <v>597756</v>
       </c>
       <c r="E10" s="5" t="n">
-        <v>562896</v>
+        <v>565821</v>
       </c>
       <c r="F10" s="5" t="n">
-        <v>626075</v>
+        <v>630263</v>
       </c>
       <c r="G10" s="6" t="n">
         <v>0.584641721198656</v>
       </c>
       <c r="H10" s="6" t="n">
-        <v>0.5505467361608791</v>
+        <v>0.5534074768380066</v>
       </c>
       <c r="I10" s="6" t="n">
-        <v>0.6123393247235814</v>
+        <v>0.6164352540989689</v>
       </c>
       <c r="J10" s="5" t="n">
         <v>549</v>
@@ -5959,19 +5959,19 @@
         <v>582006</v>
       </c>
       <c r="L10" s="5" t="n">
-        <v>550099</v>
+        <v>551015</v>
       </c>
       <c r="M10" s="5" t="n">
-        <v>612895</v>
+        <v>615430</v>
       </c>
       <c r="N10" s="6" t="n">
         <v>0.5593238199590134</v>
       </c>
       <c r="O10" s="6" t="n">
-        <v>0.5286599019775601</v>
+        <v>0.5295405922158735</v>
       </c>
       <c r="P10" s="6" t="n">
-        <v>0.5890087624639473</v>
+        <v>0.5914455973165227</v>
       </c>
       <c r="Q10" s="5" t="n">
         <v>1099</v>
@@ -5980,19 +5980,19 @@
         <v>1179762</v>
       </c>
       <c r="S10" s="5" t="n">
-        <v>1134218</v>
+        <v>1130470</v>
       </c>
       <c r="T10" s="5" t="n">
-        <v>1227824</v>
+        <v>1222583</v>
       </c>
       <c r="U10" s="6" t="n">
         <v>0.5718715673052943</v>
       </c>
       <c r="V10" s="6" t="n">
-        <v>0.5497948345942077</v>
+        <v>0.5479782854646486</v>
       </c>
       <c r="W10" s="6" t="n">
-        <v>0.5951689596000213</v>
+        <v>0.5926286577020293</v>
       </c>
     </row>
     <row r="11">
@@ -6009,19 +6009,19 @@
         <v>297426</v>
       </c>
       <c r="E11" s="5" t="n">
-        <v>270358</v>
+        <v>266946</v>
       </c>
       <c r="F11" s="5" t="n">
-        <v>330254</v>
+        <v>328219</v>
       </c>
       <c r="G11" s="6" t="n">
         <v>0.2909004582411651</v>
       </c>
       <c r="H11" s="6" t="n">
-        <v>0.2644270902358495</v>
+        <v>0.2610893514794691</v>
       </c>
       <c r="I11" s="6" t="n">
-        <v>0.3230082804387909</v>
+        <v>0.3210183828868098</v>
       </c>
       <c r="J11" s="5" t="n">
         <v>305</v>
@@ -6030,19 +6030,19 @@
         <v>326859</v>
       </c>
       <c r="L11" s="5" t="n">
-        <v>297066</v>
+        <v>295187</v>
       </c>
       <c r="M11" s="5" t="n">
-        <v>358868</v>
+        <v>355574</v>
       </c>
       <c r="N11" s="6" t="n">
         <v>0.3141204454470811</v>
       </c>
       <c r="O11" s="6" t="n">
-        <v>0.2854887866363889</v>
+        <v>0.2836827944948733</v>
       </c>
       <c r="P11" s="6" t="n">
-        <v>0.3448819707461238</v>
+        <v>0.3417164488472999</v>
       </c>
       <c r="Q11" s="5" t="n">
         <v>586</v>
@@ -6051,19 +6051,19 @@
         <v>624285</v>
       </c>
       <c r="S11" s="5" t="n">
-        <v>580523</v>
+        <v>581454</v>
       </c>
       <c r="T11" s="5" t="n">
-        <v>668263</v>
+        <v>667354</v>
       </c>
       <c r="U11" s="6" t="n">
         <v>0.3026124404949367</v>
       </c>
       <c r="V11" s="6" t="n">
-        <v>0.2813996024878062</v>
+        <v>0.2818509302053381</v>
       </c>
       <c r="W11" s="6" t="n">
-        <v>0.3239302742182048</v>
+        <v>0.3234896922289779</v>
       </c>
     </row>
     <row r="12">
@@ -6080,19 +6080,19 @@
         <v>95027</v>
       </c>
       <c r="E12" s="5" t="n">
-        <v>77066</v>
+        <v>77102</v>
       </c>
       <c r="F12" s="5" t="n">
-        <v>114781</v>
+        <v>115152</v>
       </c>
       <c r="G12" s="6" t="n">
         <v>0.09294209087963459</v>
       </c>
       <c r="H12" s="6" t="n">
-        <v>0.07537543726075938</v>
+        <v>0.07541003426168782</v>
       </c>
       <c r="I12" s="6" t="n">
-        <v>0.1122627623962559</v>
+        <v>0.1126256747155382</v>
       </c>
       <c r="J12" s="5" t="n">
         <v>102</v>
@@ -6101,19 +6101,19 @@
         <v>111030</v>
       </c>
       <c r="L12" s="5" t="n">
-        <v>91719</v>
+        <v>92024</v>
       </c>
       <c r="M12" s="5" t="n">
-        <v>132786</v>
+        <v>134359</v>
       </c>
       <c r="N12" s="6" t="n">
         <v>0.1067026395848874</v>
       </c>
       <c r="O12" s="6" t="n">
-        <v>0.08814495436014645</v>
+        <v>0.08843723462335994</v>
       </c>
       <c r="P12" s="6" t="n">
-        <v>0.127610650632364</v>
+        <v>0.1291229275945645</v>
       </c>
       <c r="Q12" s="5" t="n">
         <v>190</v>
@@ -6122,19 +6122,19 @@
         <v>206057</v>
       </c>
       <c r="S12" s="5" t="n">
-        <v>180384</v>
+        <v>181506</v>
       </c>
       <c r="T12" s="5" t="n">
-        <v>234872</v>
+        <v>236757</v>
       </c>
       <c r="U12" s="6" t="n">
         <v>0.09988280539462881</v>
       </c>
       <c r="V12" s="6" t="n">
-        <v>0.08743828586324794</v>
+        <v>0.08798241416465069</v>
       </c>
       <c r="W12" s="6" t="n">
-        <v>0.1138506623369862</v>
+        <v>0.1147644132456299</v>
       </c>
     </row>
     <row r="13">
@@ -6151,19 +6151,19 @@
         <v>25339</v>
       </c>
       <c r="E13" s="5" t="n">
-        <v>16246</v>
+        <v>17578</v>
       </c>
       <c r="F13" s="5" t="n">
-        <v>37045</v>
+        <v>38784</v>
       </c>
       <c r="G13" s="6" t="n">
         <v>0.02478287014583582</v>
       </c>
       <c r="H13" s="6" t="n">
-        <v>0.01588984703323075</v>
+        <v>0.01719239810161702</v>
       </c>
       <c r="I13" s="6" t="n">
-        <v>0.03623244160324635</v>
+        <v>0.03793265536187948</v>
       </c>
       <c r="J13" s="5" t="n">
         <v>18</v>
@@ -6172,19 +6172,19 @@
         <v>19554</v>
       </c>
       <c r="L13" s="5" t="n">
-        <v>12073</v>
+        <v>12268</v>
       </c>
       <c r="M13" s="5" t="n">
-        <v>30757</v>
+        <v>31269</v>
       </c>
       <c r="N13" s="6" t="n">
         <v>0.01879216193254757</v>
       </c>
       <c r="O13" s="6" t="n">
-        <v>0.0116027928732328</v>
+        <v>0.01179024233253144</v>
       </c>
       <c r="P13" s="6" t="n">
-        <v>0.02955842034172023</v>
+        <v>0.03005083676842164</v>
       </c>
       <c r="Q13" s="5" t="n">
         <v>43</v>
@@ -6193,19 +6193,19 @@
         <v>44893</v>
       </c>
       <c r="S13" s="5" t="n">
-        <v>32893</v>
+        <v>33763</v>
       </c>
       <c r="T13" s="5" t="n">
-        <v>61187</v>
+        <v>60155</v>
       </c>
       <c r="U13" s="6" t="n">
         <v>0.02176120318024509</v>
       </c>
       <c r="V13" s="6" t="n">
-        <v>0.01594450321131377</v>
+        <v>0.01636606317442214</v>
       </c>
       <c r="W13" s="6" t="n">
-        <v>0.02965970257067344</v>
+        <v>0.02915925696867017</v>
       </c>
     </row>
     <row r="14">
@@ -6222,19 +6222,19 @@
         <v>6884</v>
       </c>
       <c r="E14" s="5" t="n">
-        <v>2859</v>
+        <v>2781</v>
       </c>
       <c r="F14" s="5" t="n">
-        <v>13554</v>
+        <v>12912</v>
       </c>
       <c r="G14" s="6" t="n">
         <v>0.006732859534708466</v>
       </c>
       <c r="H14" s="6" t="n">
-        <v>0.002796472922033928</v>
+        <v>0.002720366460065679</v>
       </c>
       <c r="I14" s="6" t="n">
-        <v>0.01325628530877414</v>
+        <v>0.01262862835183962</v>
       </c>
       <c r="J14" s="5" t="n">
         <v>1</v>
@@ -6246,7 +6246,7 @@
         <v>0</v>
       </c>
       <c r="M14" s="5" t="n">
-        <v>4786</v>
+        <v>5528</v>
       </c>
       <c r="N14" s="6" t="n">
         <v>0.001060933076470533</v>
@@ -6255,7 +6255,7 @@
         <v>0</v>
       </c>
       <c r="P14" s="6" t="n">
-        <v>0.004599504339918526</v>
+        <v>0.005312855710130598</v>
       </c>
       <c r="Q14" s="5" t="n">
         <v>8</v>
@@ -6264,19 +6264,19 @@
         <v>7988</v>
       </c>
       <c r="S14" s="5" t="n">
-        <v>3760</v>
+        <v>3737</v>
       </c>
       <c r="T14" s="5" t="n">
-        <v>15252</v>
+        <v>15748</v>
       </c>
       <c r="U14" s="6" t="n">
         <v>0.003871983624895072</v>
       </c>
       <c r="V14" s="6" t="n">
-        <v>0.001822371079577882</v>
+        <v>0.001811561467365212</v>
       </c>
       <c r="W14" s="6" t="n">
-        <v>0.007393105123304049</v>
+        <v>0.007633765753541914</v>
       </c>
     </row>
     <row r="15">
@@ -6368,19 +6368,19 @@
         <v>378979</v>
       </c>
       <c r="E16" s="5" t="n">
-        <v>350095</v>
+        <v>348979</v>
       </c>
       <c r="F16" s="5" t="n">
-        <v>405978</v>
+        <v>404974</v>
       </c>
       <c r="G16" s="6" t="n">
         <v>0.500384985625468</v>
       </c>
       <c r="H16" s="6" t="n">
-        <v>0.4622485187946191</v>
+        <v>0.4607753766073919</v>
       </c>
       <c r="I16" s="6" t="n">
-        <v>0.5360330768866534</v>
+        <v>0.5347077452253369</v>
       </c>
       <c r="J16" s="5" t="n">
         <v>347</v>
@@ -6389,19 +6389,19 @@
         <v>363527</v>
       </c>
       <c r="L16" s="5" t="n">
-        <v>334991</v>
+        <v>333597</v>
       </c>
       <c r="M16" s="5" t="n">
-        <v>392376</v>
+        <v>391090</v>
       </c>
       <c r="N16" s="6" t="n">
         <v>0.4664566862388333</v>
       </c>
       <c r="O16" s="6" t="n">
-        <v>0.4298404520131561</v>
+        <v>0.4280512001692913</v>
       </c>
       <c r="P16" s="6" t="n">
-        <v>0.5034736513032765</v>
+        <v>0.5018233933910984</v>
       </c>
       <c r="Q16" s="5" t="n">
         <v>692</v>
@@ -6410,19 +6410,19 @@
         <v>742506</v>
       </c>
       <c r="S16" s="5" t="n">
-        <v>702883</v>
+        <v>701572</v>
       </c>
       <c r="T16" s="5" t="n">
-        <v>785257</v>
+        <v>784485</v>
       </c>
       <c r="U16" s="6" t="n">
         <v>0.4831783651750742</v>
       </c>
       <c r="V16" s="6" t="n">
-        <v>0.4573939777250806</v>
+        <v>0.4565412982545712</v>
       </c>
       <c r="W16" s="6" t="n">
-        <v>0.5109982768631304</v>
+        <v>0.5104955925040514</v>
       </c>
     </row>
     <row r="17">
@@ -6439,19 +6439,19 @@
         <v>244591</v>
       </c>
       <c r="E17" s="5" t="n">
-        <v>219229</v>
+        <v>220338</v>
       </c>
       <c r="F17" s="5" t="n">
-        <v>275683</v>
+        <v>276528</v>
       </c>
       <c r="G17" s="6" t="n">
         <v>0.3229458413948306</v>
       </c>
       <c r="H17" s="6" t="n">
-        <v>0.289459977033013</v>
+        <v>0.2909235024160394</v>
       </c>
       <c r="I17" s="6" t="n">
-        <v>0.3639984374556758</v>
+        <v>0.3651136626515007</v>
       </c>
       <c r="J17" s="5" t="n">
         <v>251</v>
@@ -6460,19 +6460,19 @@
         <v>270690</v>
       </c>
       <c r="L17" s="5" t="n">
-        <v>242958</v>
+        <v>241593</v>
       </c>
       <c r="M17" s="5" t="n">
-        <v>298053</v>
+        <v>298501</v>
       </c>
       <c r="N17" s="6" t="n">
         <v>0.3473330355177986</v>
       </c>
       <c r="O17" s="6" t="n">
-        <v>0.3117488187860093</v>
+        <v>0.3099981273104089</v>
       </c>
       <c r="P17" s="6" t="n">
-        <v>0.382444163307825</v>
+        <v>0.3830185824089039</v>
       </c>
       <c r="Q17" s="5" t="n">
         <v>477</v>
@@ -6481,19 +6481,19 @@
         <v>515281</v>
       </c>
       <c r="S17" s="5" t="n">
-        <v>476266</v>
+        <v>477151</v>
       </c>
       <c r="T17" s="5" t="n">
-        <v>557032</v>
+        <v>551701</v>
       </c>
       <c r="U17" s="6" t="n">
         <v>0.335313723095653</v>
       </c>
       <c r="V17" s="6" t="n">
-        <v>0.3099251846471852</v>
+        <v>0.3105009566400551</v>
       </c>
       <c r="W17" s="6" t="n">
-        <v>0.36248311198609</v>
+        <v>0.3590136515082077</v>
       </c>
     </row>
     <row r="18">
@@ -6510,19 +6510,19 @@
         <v>120936</v>
       </c>
       <c r="E18" s="5" t="n">
-        <v>102279</v>
+        <v>102050</v>
       </c>
       <c r="F18" s="5" t="n">
-        <v>143160</v>
+        <v>142750</v>
       </c>
       <c r="G18" s="6" t="n">
         <v>0.159677396333867</v>
       </c>
       <c r="H18" s="6" t="n">
-        <v>0.1350437462675175</v>
+        <v>0.1347421277000866</v>
       </c>
       <c r="I18" s="6" t="n">
-        <v>0.1890209381573295</v>
+        <v>0.1884798025504631</v>
       </c>
       <c r="J18" s="5" t="n">
         <v>123</v>
@@ -6531,19 +6531,19 @@
         <v>133567</v>
       </c>
       <c r="L18" s="5" t="n">
-        <v>114252</v>
+        <v>112840</v>
       </c>
       <c r="M18" s="5" t="n">
-        <v>158067</v>
+        <v>157583</v>
       </c>
       <c r="N18" s="6" t="n">
         <v>0.171385371222166</v>
       </c>
       <c r="O18" s="6" t="n">
-        <v>0.1466012097230865</v>
+        <v>0.1447897242803221</v>
       </c>
       <c r="P18" s="6" t="n">
-        <v>0.2028222547705908</v>
+        <v>0.2022012494858728</v>
       </c>
       <c r="Q18" s="5" t="n">
         <v>233</v>
@@ -6552,19 +6552,19 @@
         <v>254503</v>
       </c>
       <c r="S18" s="5" t="n">
-        <v>223252</v>
+        <v>226496</v>
       </c>
       <c r="T18" s="5" t="n">
-        <v>285234</v>
+        <v>285222</v>
       </c>
       <c r="U18" s="6" t="n">
         <v>0.1656150555678297</v>
       </c>
       <c r="V18" s="6" t="n">
-        <v>0.1452787386959535</v>
+        <v>0.1473902579323866</v>
       </c>
       <c r="W18" s="6" t="n">
-        <v>0.1856133348403514</v>
+        <v>0.1856055035830769</v>
       </c>
     </row>
     <row r="19">
@@ -6581,19 +6581,19 @@
         <v>12004</v>
       </c>
       <c r="E19" s="5" t="n">
-        <v>6389</v>
+        <v>6220</v>
       </c>
       <c r="F19" s="5" t="n">
-        <v>20032</v>
+        <v>20179</v>
       </c>
       <c r="G19" s="6" t="n">
         <v>0.01585007529339488</v>
       </c>
       <c r="H19" s="6" t="n">
-        <v>0.008435949117583032</v>
+        <v>0.008213167532266972</v>
       </c>
       <c r="I19" s="6" t="n">
-        <v>0.02644926636357861</v>
+        <v>0.02664295277148961</v>
       </c>
       <c r="J19" s="5" t="n">
         <v>8</v>
@@ -6602,19 +6602,19 @@
         <v>8770</v>
       </c>
       <c r="L19" s="5" t="n">
-        <v>4404</v>
+        <v>4086</v>
       </c>
       <c r="M19" s="5" t="n">
-        <v>18672</v>
+        <v>17003</v>
       </c>
       <c r="N19" s="6" t="n">
         <v>0.01125317798372336</v>
       </c>
       <c r="O19" s="6" t="n">
-        <v>0.005651384815449389</v>
+        <v>0.005243373628057838</v>
       </c>
       <c r="P19" s="6" t="n">
-        <v>0.02395822064939044</v>
+        <v>0.02181758247542614</v>
       </c>
       <c r="Q19" s="5" t="n">
         <v>20</v>
@@ -6623,19 +6623,19 @@
         <v>20774</v>
       </c>
       <c r="S19" s="5" t="n">
-        <v>13207</v>
+        <v>13113</v>
       </c>
       <c r="T19" s="5" t="n">
-        <v>31906</v>
+        <v>32114</v>
       </c>
       <c r="U19" s="6" t="n">
         <v>0.01351877461853368</v>
       </c>
       <c r="V19" s="6" t="n">
-        <v>0.00859442418723279</v>
+        <v>0.008532875879390793</v>
       </c>
       <c r="W19" s="6" t="n">
-        <v>0.02076228271167197</v>
+        <v>0.02089785748253171</v>
       </c>
     </row>
     <row r="20">
@@ -6655,7 +6655,7 @@
         <v>0</v>
       </c>
       <c r="F20" s="5" t="n">
-        <v>3986</v>
+        <v>4355</v>
       </c>
       <c r="G20" s="6" t="n">
         <v>0.001141701352439593</v>
@@ -6664,7 +6664,7 @@
         <v>0</v>
       </c>
       <c r="I20" s="6" t="n">
-        <v>0.005262902299271353</v>
+        <v>0.005750163231536782</v>
       </c>
       <c r="J20" s="5" t="n">
         <v>2</v>
@@ -6676,7 +6676,7 @@
         <v>0</v>
       </c>
       <c r="M20" s="5" t="n">
-        <v>9512</v>
+        <v>10281</v>
       </c>
       <c r="N20" s="6" t="n">
         <v>0.003571729037478617</v>
@@ -6685,7 +6685,7 @@
         <v>0</v>
       </c>
       <c r="P20" s="6" t="n">
-        <v>0.01220533144869911</v>
+        <v>0.01319143372163789</v>
       </c>
       <c r="Q20" s="5" t="n">
         <v>3</v>
@@ -6694,19 +6694,19 @@
         <v>3648</v>
       </c>
       <c r="S20" s="5" t="n">
-        <v>860</v>
+        <v>865</v>
       </c>
       <c r="T20" s="5" t="n">
-        <v>10568</v>
+        <v>10427</v>
       </c>
       <c r="U20" s="6" t="n">
         <v>0.002374081542909343</v>
       </c>
       <c r="V20" s="6" t="n">
-        <v>0.0005596825594738954</v>
+        <v>0.0005628243477536179</v>
       </c>
       <c r="W20" s="6" t="n">
-        <v>0.006877089086664125</v>
+        <v>0.006785350935437091</v>
       </c>
     </row>
     <row r="21">
@@ -6798,19 +6798,19 @@
         <v>550541</v>
       </c>
       <c r="E22" s="5" t="n">
-        <v>519973</v>
+        <v>516019</v>
       </c>
       <c r="F22" s="5" t="n">
-        <v>577906</v>
+        <v>578383</v>
       </c>
       <c r="G22" s="6" t="n">
         <v>0.588621388769312</v>
       </c>
       <c r="H22" s="6" t="n">
-        <v>0.5559390734501117</v>
+        <v>0.5517120424036435</v>
       </c>
       <c r="I22" s="6" t="n">
-        <v>0.6178793209602977</v>
+        <v>0.6183893844860286</v>
       </c>
       <c r="J22" s="5" t="n">
         <v>560</v>
@@ -6819,19 +6819,19 @@
         <v>604900</v>
       </c>
       <c r="L22" s="5" t="n">
-        <v>574791</v>
+        <v>571842</v>
       </c>
       <c r="M22" s="5" t="n">
-        <v>641004</v>
+        <v>636701</v>
       </c>
       <c r="N22" s="6" t="n">
         <v>0.5795292538496708</v>
       </c>
       <c r="O22" s="6" t="n">
-        <v>0.5506825013898913</v>
+        <v>0.5478573203256925</v>
       </c>
       <c r="P22" s="6" t="n">
-        <v>0.6141189445965917</v>
+        <v>0.6099955927913122</v>
       </c>
       <c r="Q22" s="5" t="n">
         <v>1102</v>
@@ -6840,19 +6840,19 @@
         <v>1155441</v>
       </c>
       <c r="S22" s="5" t="n">
-        <v>1112007</v>
+        <v>1107777</v>
       </c>
       <c r="T22" s="5" t="n">
-        <v>1201060</v>
+        <v>1198652</v>
       </c>
       <c r="U22" s="6" t="n">
         <v>0.5838261503416143</v>
       </c>
       <c r="V22" s="6" t="n">
-        <v>0.5618798337517643</v>
+        <v>0.5597424797500219</v>
       </c>
       <c r="W22" s="6" t="n">
-        <v>0.6068765352401663</v>
+        <v>0.6056599657243282</v>
       </c>
     </row>
     <row r="23">
@@ -6869,19 +6869,19 @@
         <v>261982</v>
       </c>
       <c r="E23" s="5" t="n">
-        <v>235795</v>
+        <v>236490</v>
       </c>
       <c r="F23" s="5" t="n">
-        <v>291461</v>
+        <v>292053</v>
       </c>
       <c r="G23" s="6" t="n">
         <v>0.2801029102264078</v>
       </c>
       <c r="H23" s="6" t="n">
-        <v>0.2521044038388066</v>
+        <v>0.2528479737946556</v>
       </c>
       <c r="I23" s="6" t="n">
-        <v>0.311621872388792</v>
+        <v>0.3122539001991776</v>
       </c>
       <c r="J23" s="5" t="n">
         <v>272</v>
@@ -6890,19 +6890,19 @@
         <v>294710</v>
       </c>
       <c r="L23" s="5" t="n">
-        <v>266697</v>
+        <v>264603</v>
       </c>
       <c r="M23" s="5" t="n">
-        <v>323508</v>
+        <v>324382</v>
       </c>
       <c r="N23" s="6" t="n">
         <v>0.2823488889688492</v>
       </c>
       <c r="O23" s="6" t="n">
-        <v>0.2555105559579043</v>
+        <v>0.2535045557901693</v>
       </c>
       <c r="P23" s="6" t="n">
-        <v>0.3099390177932378</v>
+        <v>0.310776097440952</v>
       </c>
       <c r="Q23" s="5" t="n">
         <v>535</v>
@@ -6911,19 +6911,19 @@
         <v>556691</v>
       </c>
       <c r="S23" s="5" t="n">
-        <v>513418</v>
+        <v>519016</v>
       </c>
       <c r="T23" s="5" t="n">
-        <v>595661</v>
+        <v>602451</v>
       </c>
       <c r="U23" s="6" t="n">
         <v>0.2812874508946596</v>
       </c>
       <c r="V23" s="6" t="n">
-        <v>0.2594221339009202</v>
+        <v>0.2622505482695014</v>
       </c>
       <c r="W23" s="6" t="n">
-        <v>0.3009779824954938</v>
+        <v>0.304409232319308</v>
       </c>
     </row>
     <row r="24">
@@ -6940,19 +6940,19 @@
         <v>99485</v>
       </c>
       <c r="E24" s="5" t="n">
-        <v>82502</v>
+        <v>81839</v>
       </c>
       <c r="F24" s="5" t="n">
-        <v>119155</v>
+        <v>119637</v>
       </c>
       <c r="G24" s="6" t="n">
         <v>0.1063665752959441</v>
       </c>
       <c r="H24" s="6" t="n">
-        <v>0.08820849661244864</v>
+        <v>0.087499280389155</v>
       </c>
       <c r="I24" s="6" t="n">
-        <v>0.1273969079708388</v>
+        <v>0.1279117683400283</v>
       </c>
       <c r="J24" s="5" t="n">
         <v>95</v>
@@ -6961,19 +6961,19 @@
         <v>106478</v>
       </c>
       <c r="L24" s="5" t="n">
-        <v>86474</v>
+        <v>87364</v>
       </c>
       <c r="M24" s="5" t="n">
-        <v>127067</v>
+        <v>129604</v>
       </c>
       <c r="N24" s="6" t="n">
         <v>0.1020119136101707</v>
       </c>
       <c r="O24" s="6" t="n">
-        <v>0.08284712098811521</v>
+        <v>0.08369983245802691</v>
       </c>
       <c r="P24" s="6" t="n">
-        <v>0.1217375866275231</v>
+        <v>0.1241680615184553</v>
       </c>
       <c r="Q24" s="5" t="n">
         <v>197</v>
@@ -6982,19 +6982,19 @@
         <v>205963</v>
       </c>
       <c r="S24" s="5" t="n">
-        <v>179793</v>
+        <v>179295</v>
       </c>
       <c r="T24" s="5" t="n">
-        <v>236671</v>
+        <v>234991</v>
       </c>
       <c r="U24" s="6" t="n">
         <v>0.1040699044656275</v>
       </c>
       <c r="V24" s="6" t="n">
-        <v>0.09084666444927643</v>
+        <v>0.09059485580024007</v>
       </c>
       <c r="W24" s="6" t="n">
-        <v>0.1195859667543595</v>
+        <v>0.118737047767089</v>
       </c>
     </row>
     <row r="25">
@@ -7011,19 +7011,19 @@
         <v>16199</v>
       </c>
       <c r="E25" s="5" t="n">
-        <v>9922</v>
+        <v>9657</v>
       </c>
       <c r="F25" s="5" t="n">
-        <v>27243</v>
+        <v>26910</v>
       </c>
       <c r="G25" s="6" t="n">
         <v>0.01731964972757463</v>
       </c>
       <c r="H25" s="6" t="n">
-        <v>0.01060858297594318</v>
+        <v>0.01032472962965312</v>
       </c>
       <c r="I25" s="6" t="n">
-        <v>0.0291273471997389</v>
+        <v>0.02877137284875933</v>
       </c>
       <c r="J25" s="5" t="n">
         <v>26</v>
@@ -7032,19 +7032,19 @@
         <v>29950</v>
       </c>
       <c r="L25" s="5" t="n">
-        <v>20043</v>
+        <v>20260</v>
       </c>
       <c r="M25" s="5" t="n">
-        <v>43542</v>
+        <v>45092</v>
       </c>
       <c r="N25" s="6" t="n">
         <v>0.0286936465634456</v>
       </c>
       <c r="O25" s="6" t="n">
-        <v>0.01920276249285978</v>
+        <v>0.01941053717613255</v>
       </c>
       <c r="P25" s="6" t="n">
-        <v>0.04171535820240177</v>
+        <v>0.04320114150273636</v>
       </c>
       <c r="Q25" s="5" t="n">
         <v>42</v>
@@ -7053,19 +7053,19 @@
         <v>46149</v>
       </c>
       <c r="S25" s="5" t="n">
-        <v>34266</v>
+        <v>34043</v>
       </c>
       <c r="T25" s="5" t="n">
-        <v>61705</v>
+        <v>63224</v>
       </c>
       <c r="U25" s="6" t="n">
         <v>0.02331835379278366</v>
       </c>
       <c r="V25" s="6" t="n">
-        <v>0.01731404600038075</v>
+        <v>0.01720139363479432</v>
       </c>
       <c r="W25" s="6" t="n">
-        <v>0.03117875195802635</v>
+        <v>0.0319460764744046</v>
       </c>
     </row>
     <row r="26">
@@ -7082,19 +7082,19 @@
         <v>7098</v>
       </c>
       <c r="E26" s="5" t="n">
-        <v>2941</v>
+        <v>3164</v>
       </c>
       <c r="F26" s="5" t="n">
-        <v>13510</v>
+        <v>14583</v>
       </c>
       <c r="G26" s="6" t="n">
         <v>0.007589475980761521</v>
       </c>
       <c r="H26" s="6" t="n">
-        <v>0.003144712547357072</v>
+        <v>0.003382861705085636</v>
       </c>
       <c r="I26" s="6" t="n">
-        <v>0.01444451976841431</v>
+        <v>0.01559206138854242</v>
       </c>
       <c r="J26" s="5" t="n">
         <v>6</v>
@@ -7103,19 +7103,19 @@
         <v>7741</v>
       </c>
       <c r="L26" s="5" t="n">
-        <v>2466</v>
+        <v>2940</v>
       </c>
       <c r="M26" s="5" t="n">
-        <v>15758</v>
+        <v>16072</v>
       </c>
       <c r="N26" s="6" t="n">
         <v>0.007416297007863592</v>
       </c>
       <c r="O26" s="6" t="n">
-        <v>0.002362136685535106</v>
+        <v>0.002816365457688591</v>
       </c>
       <c r="P26" s="6" t="n">
-        <v>0.01509733124542094</v>
+        <v>0.01539753285077178</v>
       </c>
       <c r="Q26" s="5" t="n">
         <v>13</v>
@@ -7124,19 +7124,19 @@
         <v>14839</v>
       </c>
       <c r="S26" s="5" t="n">
-        <v>8016</v>
+        <v>8351</v>
       </c>
       <c r="T26" s="5" t="n">
-        <v>26136</v>
+        <v>24893</v>
       </c>
       <c r="U26" s="6" t="n">
         <v>0.007498140505314998</v>
       </c>
       <c r="V26" s="6" t="n">
-        <v>0.004050121627757171</v>
+        <v>0.004219401001798509</v>
       </c>
       <c r="W26" s="6" t="n">
-        <v>0.01320611680330706</v>
+        <v>0.01257814379463644</v>
       </c>
     </row>
     <row r="27">
@@ -7228,19 +7228,19 @@
         <v>1850005</v>
       </c>
       <c r="E28" s="5" t="n">
-        <v>1793558</v>
+        <v>1790204</v>
       </c>
       <c r="F28" s="5" t="n">
-        <v>1907575</v>
+        <v>1906362</v>
       </c>
       <c r="G28" s="6" t="n">
         <v>0.5459092785329064</v>
       </c>
       <c r="H28" s="6" t="n">
-        <v>0.5292526127990326</v>
+        <v>0.5282629353942732</v>
       </c>
       <c r="I28" s="6" t="n">
-        <v>0.562897401284299</v>
+        <v>0.5625392946367933</v>
       </c>
       <c r="J28" s="5" t="n">
         <v>1760</v>
@@ -7249,19 +7249,19 @@
         <v>1855340</v>
       </c>
       <c r="L28" s="5" t="n">
-        <v>1792062</v>
+        <v>1798667</v>
       </c>
       <c r="M28" s="5" t="n">
-        <v>1914131</v>
+        <v>1917191</v>
       </c>
       <c r="N28" s="6" t="n">
         <v>0.5250624044539151</v>
       </c>
       <c r="O28" s="6" t="n">
-        <v>0.5071547867781965</v>
+        <v>0.5090238003328074</v>
       </c>
       <c r="P28" s="6" t="n">
-        <v>0.5417002598683633</v>
+        <v>0.5425661962269008</v>
       </c>
       <c r="Q28" s="5" t="n">
         <v>3508</v>
@@ -7270,19 +7270,19 @@
         <v>3705345</v>
       </c>
       <c r="S28" s="5" t="n">
-        <v>3631205</v>
+        <v>3625232</v>
       </c>
       <c r="T28" s="5" t="n">
-        <v>3788098</v>
+        <v>3796407</v>
       </c>
       <c r="U28" s="6" t="n">
         <v>0.5352679441433853</v>
       </c>
       <c r="V28" s="6" t="n">
-        <v>0.524557724570559</v>
+        <v>0.5236949709558887</v>
       </c>
       <c r="W28" s="6" t="n">
-        <v>0.5472223259015556</v>
+        <v>0.5484226201119895</v>
       </c>
     </row>
     <row r="29">
@@ -7299,19 +7299,19 @@
         <v>1052404</v>
       </c>
       <c r="E29" s="5" t="n">
-        <v>1001341</v>
+        <v>997223</v>
       </c>
       <c r="F29" s="5" t="n">
-        <v>1107783</v>
+        <v>1111503</v>
       </c>
       <c r="G29" s="6" t="n">
         <v>0.3105490499939108</v>
       </c>
       <c r="H29" s="6" t="n">
-        <v>0.2954810399847534</v>
+        <v>0.2942658230639172</v>
       </c>
       <c r="I29" s="6" t="n">
-        <v>0.3268904882980786</v>
+        <v>0.3279882118827271</v>
       </c>
       <c r="J29" s="5" t="n">
         <v>1079</v>
@@ -7320,19 +7320,19 @@
         <v>1145237</v>
       </c>
       <c r="L29" s="5" t="n">
-        <v>1092160</v>
+        <v>1090573</v>
       </c>
       <c r="M29" s="5" t="n">
-        <v>1198713</v>
+        <v>1201220</v>
       </c>
       <c r="N29" s="6" t="n">
         <v>0.3241027835039394</v>
       </c>
       <c r="O29" s="6" t="n">
-        <v>0.3090819813433675</v>
+        <v>0.3086329560063878</v>
       </c>
       <c r="P29" s="6" t="n">
-        <v>0.3392366441053296</v>
+        <v>0.3399459903486781</v>
       </c>
       <c r="Q29" s="5" t="n">
         <v>2091</v>
@@ -7341,19 +7341,19 @@
         <v>2197641</v>
       </c>
       <c r="S29" s="5" t="n">
-        <v>2129864</v>
+        <v>2118032</v>
       </c>
       <c r="T29" s="5" t="n">
-        <v>2275457</v>
+        <v>2270565</v>
       </c>
       <c r="U29" s="6" t="n">
         <v>0.3174675841568825</v>
       </c>
       <c r="V29" s="6" t="n">
-        <v>0.3076766086027585</v>
+        <v>0.3059673510278541</v>
       </c>
       <c r="W29" s="6" t="n">
-        <v>0.3287086711528896</v>
+        <v>0.3280019757244018</v>
       </c>
     </row>
     <row r="30">
@@ -7370,19 +7370,19 @@
         <v>394667</v>
       </c>
       <c r="E30" s="5" t="n">
-        <v>359423</v>
+        <v>356950</v>
       </c>
       <c r="F30" s="5" t="n">
-        <v>432811</v>
+        <v>433537</v>
       </c>
       <c r="G30" s="6" t="n">
         <v>0.116460333228215</v>
       </c>
       <c r="H30" s="6" t="n">
-        <v>0.1060603826583662</v>
+        <v>0.1053305629856683</v>
       </c>
       <c r="I30" s="6" t="n">
-        <v>0.1277161005482549</v>
+        <v>0.1279304589718008</v>
       </c>
       <c r="J30" s="5" t="n">
         <v>415</v>
@@ -7391,19 +7391,19 @@
         <v>448774</v>
       </c>
       <c r="L30" s="5" t="n">
-        <v>411598</v>
+        <v>407350</v>
       </c>
       <c r="M30" s="5" t="n">
-        <v>489818</v>
+        <v>492357</v>
       </c>
       <c r="N30" s="6" t="n">
         <v>0.1270034366381337</v>
       </c>
       <c r="O30" s="6" t="n">
-        <v>0.1164824690254312</v>
+        <v>0.1152802831287406</v>
       </c>
       <c r="P30" s="6" t="n">
-        <v>0.1386186789190726</v>
+        <v>0.1393374724112887</v>
       </c>
       <c r="Q30" s="5" t="n">
         <v>792</v>
@@ -7412,19 +7412,19 @@
         <v>843441</v>
       </c>
       <c r="S30" s="5" t="n">
-        <v>790636</v>
+        <v>781616</v>
       </c>
       <c r="T30" s="5" t="n">
-        <v>897652</v>
+        <v>896057</v>
       </c>
       <c r="U30" s="6" t="n">
         <v>0.1218420843945113</v>
       </c>
       <c r="V30" s="6" t="n">
-        <v>0.114213945087346</v>
+        <v>0.112910861244081</v>
       </c>
       <c r="W30" s="6" t="n">
-        <v>0.1296733048638974</v>
+        <v>0.1294428598312755</v>
       </c>
     </row>
     <row r="31">
@@ -7441,19 +7441,19 @@
         <v>71785</v>
       </c>
       <c r="E31" s="5" t="n">
-        <v>56789</v>
+        <v>57139</v>
       </c>
       <c r="F31" s="5" t="n">
-        <v>90421</v>
+        <v>89162</v>
       </c>
       <c r="G31" s="6" t="n">
         <v>0.02118278594533184</v>
       </c>
       <c r="H31" s="6" t="n">
-        <v>0.01675749346409027</v>
+        <v>0.01686079102643031</v>
       </c>
       <c r="I31" s="6" t="n">
-        <v>0.02668176260910884</v>
+        <v>0.02631034722614083</v>
       </c>
       <c r="J31" s="5" t="n">
         <v>60</v>
@@ -7462,19 +7462,19 @@
         <v>66987</v>
       </c>
       <c r="L31" s="5" t="n">
-        <v>51559</v>
+        <v>52971</v>
       </c>
       <c r="M31" s="5" t="n">
-        <v>86374</v>
+        <v>85745</v>
       </c>
       <c r="N31" s="6" t="n">
         <v>0.01895726210097902</v>
       </c>
       <c r="O31" s="6" t="n">
-        <v>0.0145912158416919</v>
+        <v>0.01499086704694476</v>
       </c>
       <c r="P31" s="6" t="n">
-        <v>0.02444377904425499</v>
+        <v>0.0242658833692839</v>
       </c>
       <c r="Q31" s="5" t="n">
         <v>129</v>
@@ -7483,19 +7483,19 @@
         <v>138772</v>
       </c>
       <c r="S31" s="5" t="n">
-        <v>116956</v>
+        <v>116663</v>
       </c>
       <c r="T31" s="5" t="n">
-        <v>165602</v>
+        <v>164391</v>
       </c>
       <c r="U31" s="6" t="n">
         <v>0.02004676222638602</v>
       </c>
       <c r="V31" s="6" t="n">
-        <v>0.01689533045923063</v>
+        <v>0.01685294533314263</v>
       </c>
       <c r="W31" s="6" t="n">
-        <v>0.02392254414738196</v>
+        <v>0.02374761018723534</v>
       </c>
     </row>
     <row r="32">
@@ -7512,19 +7512,19 @@
         <v>19989</v>
       </c>
       <c r="E32" s="5" t="n">
-        <v>12058</v>
+        <v>12571</v>
       </c>
       <c r="F32" s="5" t="n">
-        <v>30340</v>
+        <v>32509</v>
       </c>
       <c r="G32" s="6" t="n">
         <v>0.005898552299636</v>
       </c>
       <c r="H32" s="6" t="n">
-        <v>0.003558032132690668</v>
+        <v>0.003709478872933131</v>
       </c>
       <c r="I32" s="6" t="n">
-        <v>0.008952996020718272</v>
+        <v>0.009592861808145879</v>
       </c>
       <c r="J32" s="5" t="n">
         <v>14</v>
@@ -7533,19 +7533,19 @@
         <v>17223</v>
       </c>
       <c r="L32" s="5" t="n">
-        <v>9405</v>
+        <v>10167</v>
       </c>
       <c r="M32" s="5" t="n">
-        <v>28742</v>
+        <v>27770</v>
       </c>
       <c r="N32" s="6" t="n">
         <v>0.004874113303032879</v>
       </c>
       <c r="O32" s="6" t="n">
-        <v>0.002661681834614473</v>
+        <v>0.002877402267449893</v>
       </c>
       <c r="P32" s="6" t="n">
-        <v>0.008134036775245096</v>
+        <v>0.007858988003014456</v>
       </c>
       <c r="Q32" s="5" t="n">
         <v>34</v>
@@ -7554,19 +7554,19 @@
         <v>37212</v>
       </c>
       <c r="S32" s="5" t="n">
-        <v>26641</v>
+        <v>25914</v>
       </c>
       <c r="T32" s="5" t="n">
-        <v>53776</v>
+        <v>52656</v>
       </c>
       <c r="U32" s="6" t="n">
         <v>0.005375625078834812</v>
       </c>
       <c r="V32" s="6" t="n">
-        <v>0.003848469194811328</v>
+        <v>0.003743445927097373</v>
       </c>
       <c r="W32" s="6" t="n">
-        <v>0.00776845403951813</v>
+        <v>0.007606595243712558</v>
       </c>
     </row>
     <row r="33">
@@ -7898,19 +7898,19 @@
         <v>425106</v>
       </c>
       <c r="E4" s="5" t="n">
-        <v>398594</v>
+        <v>397105</v>
       </c>
       <c r="F4" s="5" t="n">
-        <v>451867</v>
+        <v>448409</v>
       </c>
       <c r="G4" s="6" t="n">
-        <v>0.6173824307435816</v>
+        <v>0.6173824307435817</v>
       </c>
       <c r="H4" s="6" t="n">
-        <v>0.5788793779695242</v>
+        <v>0.5767163889810895</v>
       </c>
       <c r="I4" s="6" t="n">
-        <v>0.6562473236091482</v>
+        <v>0.6512251318050197</v>
       </c>
       <c r="J4" s="5" t="n">
         <v>687</v>
@@ -7919,19 +7919,19 @@
         <v>435054</v>
       </c>
       <c r="L4" s="5" t="n">
-        <v>414914</v>
+        <v>414219</v>
       </c>
       <c r="M4" s="5" t="n">
-        <v>456988</v>
+        <v>455924</v>
       </c>
       <c r="N4" s="6" t="n">
-        <v>0.5956047196034451</v>
+        <v>0.5956047196034452</v>
       </c>
       <c r="O4" s="6" t="n">
-        <v>0.5680322810591402</v>
+        <v>0.5670804565425664</v>
       </c>
       <c r="P4" s="6" t="n">
-        <v>0.6256326377242299</v>
+        <v>0.6241761610912638</v>
       </c>
       <c r="Q4" s="5" t="n">
         <v>1102</v>
@@ -7940,19 +7940,19 @@
         <v>860160</v>
       </c>
       <c r="S4" s="5" t="n">
-        <v>828098</v>
+        <v>824915</v>
       </c>
       <c r="T4" s="5" t="n">
-        <v>895557</v>
+        <v>893540</v>
       </c>
       <c r="U4" s="6" t="n">
-        <v>0.6061722135320469</v>
+        <v>0.606172213532047</v>
       </c>
       <c r="V4" s="6" t="n">
-        <v>0.5835780194398649</v>
+        <v>0.5813346424770501</v>
       </c>
       <c r="W4" s="6" t="n">
-        <v>0.6311172800612629</v>
+        <v>0.6296958856224516</v>
       </c>
     </row>
     <row r="5">
@@ -7969,19 +7969,19 @@
         <v>177559</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>155917</v>
+        <v>156502</v>
       </c>
       <c r="F5" s="5" t="n">
-        <v>203036</v>
+        <v>201566</v>
       </c>
       <c r="G5" s="6" t="n">
-        <v>0.2578688056615638</v>
+        <v>0.2578688056615639</v>
       </c>
       <c r="H5" s="6" t="n">
-        <v>0.2264380200809067</v>
+        <v>0.2272888907182462</v>
       </c>
       <c r="I5" s="6" t="n">
-        <v>0.2948702832048336</v>
+        <v>0.2927342115772728</v>
       </c>
       <c r="J5" s="5" t="n">
         <v>384</v>
@@ -7990,19 +7990,19 @@
         <v>206675</v>
       </c>
       <c r="L5" s="5" t="n">
-        <v>188592</v>
+        <v>187960</v>
       </c>
       <c r="M5" s="5" t="n">
-        <v>224870</v>
+        <v>226300</v>
       </c>
       <c r="N5" s="6" t="n">
         <v>0.2829459502670722</v>
       </c>
       <c r="O5" s="6" t="n">
-        <v>0.2581891787586429</v>
+        <v>0.2573239257261264</v>
       </c>
       <c r="P5" s="6" t="n">
-        <v>0.3078552597662867</v>
+        <v>0.3098122532960556</v>
       </c>
       <c r="Q5" s="5" t="n">
         <v>596</v>
@@ -8011,19 +8011,19 @@
         <v>384234</v>
       </c>
       <c r="S5" s="5" t="n">
-        <v>351123</v>
+        <v>351247</v>
       </c>
       <c r="T5" s="5" t="n">
-        <v>412898</v>
+        <v>412305</v>
       </c>
       <c r="U5" s="6" t="n">
         <v>0.270777427521035</v>
       </c>
       <c r="V5" s="6" t="n">
-        <v>0.2474436012863382</v>
+        <v>0.2475310724151556</v>
       </c>
       <c r="W5" s="6" t="n">
-        <v>0.2909776805264271</v>
+        <v>0.2905601846096029</v>
       </c>
     </row>
     <row r="6">
@@ -8040,19 +8040,19 @@
         <v>49870</v>
       </c>
       <c r="E6" s="5" t="n">
-        <v>38661</v>
+        <v>37686</v>
       </c>
       <c r="F6" s="5" t="n">
-        <v>66525</v>
+        <v>64936</v>
       </c>
       <c r="G6" s="6" t="n">
         <v>0.07242606864504872</v>
       </c>
       <c r="H6" s="6" t="n">
-        <v>0.05614689548363381</v>
+        <v>0.05473212119093793</v>
       </c>
       <c r="I6" s="6" t="n">
-        <v>0.09661431123261563</v>
+        <v>0.09430668253171506</v>
       </c>
       <c r="J6" s="5" t="n">
         <v>107</v>
@@ -8061,19 +8061,19 @@
         <v>58331</v>
       </c>
       <c r="L6" s="5" t="n">
-        <v>47600</v>
+        <v>47652</v>
       </c>
       <c r="M6" s="5" t="n">
-        <v>70230</v>
+        <v>70406</v>
       </c>
       <c r="N6" s="6" t="n">
         <v>0.0798577741154065</v>
       </c>
       <c r="O6" s="6" t="n">
-        <v>0.06516678100083802</v>
+        <v>0.06523727938869719</v>
       </c>
       <c r="P6" s="6" t="n">
-        <v>0.09614754293068739</v>
+        <v>0.09638875071175673</v>
       </c>
       <c r="Q6" s="5" t="n">
         <v>166</v>
@@ -8082,19 +8082,19 @@
         <v>108201</v>
       </c>
       <c r="S6" s="5" t="n">
-        <v>90977</v>
+        <v>91313</v>
       </c>
       <c r="T6" s="5" t="n">
-        <v>127836</v>
+        <v>128566</v>
       </c>
       <c r="U6" s="6" t="n">
-        <v>0.07625158694854565</v>
+        <v>0.07625158694854567</v>
       </c>
       <c r="V6" s="6" t="n">
-        <v>0.06411370684481939</v>
+        <v>0.06435011542710639</v>
       </c>
       <c r="W6" s="6" t="n">
-        <v>0.0900884396434011</v>
+        <v>0.09060292720735966</v>
       </c>
     </row>
     <row r="7">
@@ -8111,19 +8111,19 @@
         <v>23225</v>
       </c>
       <c r="E7" s="5" t="n">
-        <v>15346</v>
+        <v>15209</v>
       </c>
       <c r="F7" s="5" t="n">
-        <v>34488</v>
+        <v>34665</v>
       </c>
       <c r="G7" s="6" t="n">
-        <v>0.03372906490472204</v>
+        <v>0.03372906490472205</v>
       </c>
       <c r="H7" s="6" t="n">
-        <v>0.02228652721544113</v>
+        <v>0.02208780318617378</v>
       </c>
       <c r="I7" s="6" t="n">
-        <v>0.05008740216474087</v>
+        <v>0.05034422094848111</v>
       </c>
       <c r="J7" s="5" t="n">
         <v>42</v>
@@ -8132,19 +8132,19 @@
         <v>22791</v>
       </c>
       <c r="L7" s="5" t="n">
-        <v>16642</v>
+        <v>16623</v>
       </c>
       <c r="M7" s="5" t="n">
-        <v>30432</v>
+        <v>31206</v>
       </c>
       <c r="N7" s="6" t="n">
         <v>0.03120118690455307</v>
       </c>
       <c r="O7" s="6" t="n">
-        <v>0.02278340083607494</v>
+        <v>0.02275728217791165</v>
       </c>
       <c r="P7" s="6" t="n">
-        <v>0.04166289029275825</v>
+        <v>0.04272222325123717</v>
       </c>
       <c r="Q7" s="5" t="n">
         <v>67</v>
@@ -8153,19 +8153,19 @@
         <v>46015</v>
       </c>
       <c r="S7" s="5" t="n">
-        <v>35763</v>
+        <v>35431</v>
       </c>
       <c r="T7" s="5" t="n">
-        <v>60005</v>
+        <v>60663</v>
       </c>
       <c r="U7" s="6" t="n">
         <v>0.03242782340676099</v>
       </c>
       <c r="V7" s="6" t="n">
-        <v>0.02520288999716697</v>
+        <v>0.02496926282898458</v>
       </c>
       <c r="W7" s="6" t="n">
-        <v>0.04228699705088224</v>
+        <v>0.04275071189476457</v>
       </c>
     </row>
     <row r="8">
@@ -8182,19 +8182,19 @@
         <v>12803</v>
       </c>
       <c r="E8" s="5" t="n">
-        <v>7591</v>
+        <v>7387</v>
       </c>
       <c r="F8" s="5" t="n">
-        <v>20791</v>
+        <v>21057</v>
       </c>
       <c r="G8" s="6" t="n">
         <v>0.01859363004508372</v>
       </c>
       <c r="H8" s="6" t="n">
-        <v>0.011024643517494</v>
+        <v>0.01072793447153462</v>
       </c>
       <c r="I8" s="6" t="n">
-        <v>0.03019414666899425</v>
+        <v>0.03058146660735756</v>
       </c>
       <c r="J8" s="5" t="n">
         <v>14</v>
@@ -8203,19 +8203,19 @@
         <v>7590</v>
       </c>
       <c r="L8" s="5" t="n">
-        <v>4325</v>
+        <v>4348</v>
       </c>
       <c r="M8" s="5" t="n">
-        <v>12964</v>
+        <v>12920</v>
       </c>
       <c r="N8" s="6" t="n">
         <v>0.01039036910952307</v>
       </c>
       <c r="O8" s="6" t="n">
-        <v>0.005921731404117366</v>
+        <v>0.005952995318518156</v>
       </c>
       <c r="P8" s="6" t="n">
-        <v>0.01774859306523383</v>
+        <v>0.01768734900422191</v>
       </c>
       <c r="Q8" s="5" t="n">
         <v>31</v>
@@ -8224,19 +8224,19 @@
         <v>20392</v>
       </c>
       <c r="S8" s="5" t="n">
-        <v>13723</v>
+        <v>13141</v>
       </c>
       <c r="T8" s="5" t="n">
-        <v>28943</v>
+        <v>28668</v>
       </c>
       <c r="U8" s="6" t="n">
         <v>0.01437094859161138</v>
       </c>
       <c r="V8" s="6" t="n">
-        <v>0.009670965549339322</v>
+        <v>0.009260403267616353</v>
       </c>
       <c r="W8" s="6" t="n">
-        <v>0.0203968406348518</v>
+        <v>0.02020292928873448</v>
       </c>
     </row>
     <row r="9">
@@ -8328,19 +8328,19 @@
         <v>637510</v>
       </c>
       <c r="E10" s="5" t="n">
-        <v>604043</v>
+        <v>602537</v>
       </c>
       <c r="F10" s="5" t="n">
-        <v>673995</v>
+        <v>669762</v>
       </c>
       <c r="G10" s="6" t="n">
-        <v>0.6077795629916348</v>
+        <v>0.6077795629916347</v>
       </c>
       <c r="H10" s="6" t="n">
-        <v>0.575873383451278</v>
+        <v>0.5744371249718992</v>
       </c>
       <c r="I10" s="6" t="n">
-        <v>0.6425625698198769</v>
+        <v>0.6385268623900499</v>
       </c>
       <c r="J10" s="5" t="n">
         <v>816</v>
@@ -8349,19 +8349,19 @@
         <v>608920</v>
       </c>
       <c r="L10" s="5" t="n">
-        <v>579961</v>
+        <v>576297</v>
       </c>
       <c r="M10" s="5" t="n">
-        <v>635690</v>
+        <v>638037</v>
       </c>
       <c r="N10" s="6" t="n">
-        <v>0.569296896549482</v>
+        <v>0.5692968965494821</v>
       </c>
       <c r="O10" s="6" t="n">
-        <v>0.5422227241878675</v>
+        <v>0.5387965113222363</v>
       </c>
       <c r="P10" s="6" t="n">
-        <v>0.5943246749373934</v>
+        <v>0.596518897286339</v>
       </c>
       <c r="Q10" s="5" t="n">
         <v>1348</v>
@@ -8370,19 +8370,19 @@
         <v>1246430</v>
       </c>
       <c r="S10" s="5" t="n">
-        <v>1201943</v>
+        <v>1198054</v>
       </c>
       <c r="T10" s="5" t="n">
-        <v>1293313</v>
+        <v>1288738</v>
       </c>
       <c r="U10" s="6" t="n">
-        <v>0.5883503811364279</v>
+        <v>0.5883503811364278</v>
       </c>
       <c r="V10" s="6" t="n">
-        <v>0.5673511039508711</v>
+        <v>0.5655154432314672</v>
       </c>
       <c r="W10" s="6" t="n">
-        <v>0.6104805841987607</v>
+        <v>0.6083208243329588</v>
       </c>
     </row>
     <row r="11">
@@ -8399,19 +8399,19 @@
         <v>312256</v>
       </c>
       <c r="E11" s="5" t="n">
-        <v>277451</v>
+        <v>281838</v>
       </c>
       <c r="F11" s="5" t="n">
-        <v>344792</v>
+        <v>344577</v>
       </c>
       <c r="G11" s="6" t="n">
         <v>0.2976936703364354</v>
       </c>
       <c r="H11" s="6" t="n">
-        <v>0.2645119173936011</v>
+        <v>0.2686943939279631</v>
       </c>
       <c r="I11" s="6" t="n">
-        <v>0.3287122089237587</v>
+        <v>0.328507146790872</v>
       </c>
       <c r="J11" s="5" t="n">
         <v>517</v>
@@ -8420,19 +8420,19 @@
         <v>341907</v>
       </c>
       <c r="L11" s="5" t="n">
-        <v>316707</v>
+        <v>316631</v>
       </c>
       <c r="M11" s="5" t="n">
-        <v>370282</v>
+        <v>370053</v>
       </c>
       <c r="N11" s="6" t="n">
-        <v>0.3196588722495556</v>
+        <v>0.3196588722495557</v>
       </c>
       <c r="O11" s="6" t="n">
-        <v>0.2960984373609279</v>
+        <v>0.2960271525774512</v>
       </c>
       <c r="P11" s="6" t="n">
-        <v>0.3461874113088196</v>
+        <v>0.3459736676411043</v>
       </c>
       <c r="Q11" s="5" t="n">
         <v>838</v>
@@ -8441,19 +8441,19 @@
         <v>654163</v>
       </c>
       <c r="S11" s="5" t="n">
-        <v>612705</v>
+        <v>616145</v>
       </c>
       <c r="T11" s="5" t="n">
-        <v>696510</v>
+        <v>703274</v>
       </c>
       <c r="U11" s="6" t="n">
-        <v>0.3087834918564143</v>
+        <v>0.3087834918564142</v>
       </c>
       <c r="V11" s="6" t="n">
-        <v>0.2892141676336382</v>
+        <v>0.2908378718648466</v>
       </c>
       <c r="W11" s="6" t="n">
-        <v>0.3287724046867695</v>
+        <v>0.3319652052567845</v>
       </c>
     </row>
     <row r="12">
@@ -8470,19 +8470,19 @@
         <v>55290</v>
       </c>
       <c r="E12" s="5" t="n">
-        <v>43473</v>
+        <v>43354</v>
       </c>
       <c r="F12" s="5" t="n">
-        <v>71034</v>
+        <v>71043</v>
       </c>
       <c r="G12" s="6" t="n">
-        <v>0.05271135748632932</v>
+        <v>0.05271135748632931</v>
       </c>
       <c r="H12" s="6" t="n">
-        <v>0.04144547921857102</v>
+        <v>0.04133222541539903</v>
       </c>
       <c r="I12" s="6" t="n">
-        <v>0.06772168548617723</v>
+        <v>0.06772941022665298</v>
       </c>
       <c r="J12" s="5" t="n">
         <v>112</v>
@@ -8491,19 +8491,19 @@
         <v>72381</v>
       </c>
       <c r="L12" s="5" t="n">
-        <v>59491</v>
+        <v>59376</v>
       </c>
       <c r="M12" s="5" t="n">
-        <v>89007</v>
+        <v>88112</v>
       </c>
       <c r="N12" s="6" t="n">
-        <v>0.06767069056023088</v>
+        <v>0.0676706905602309</v>
       </c>
       <c r="O12" s="6" t="n">
-        <v>0.0556202933393359</v>
+        <v>0.0555120282999115</v>
       </c>
       <c r="P12" s="6" t="n">
-        <v>0.0832154091336651</v>
+        <v>0.0823782788703646</v>
       </c>
       <c r="Q12" s="5" t="n">
         <v>175</v>
@@ -8512,19 +8512,19 @@
         <v>127670</v>
       </c>
       <c r="S12" s="5" t="n">
-        <v>109609</v>
+        <v>107611</v>
       </c>
       <c r="T12" s="5" t="n">
-        <v>150413</v>
+        <v>150951</v>
       </c>
       <c r="U12" s="6" t="n">
-        <v>0.06026404625758033</v>
+        <v>0.06026404625758032</v>
       </c>
       <c r="V12" s="6" t="n">
-        <v>0.05173849885317293</v>
+        <v>0.05079564542241261</v>
       </c>
       <c r="W12" s="6" t="n">
-        <v>0.07099928811659455</v>
+        <v>0.07125330123985556</v>
       </c>
     </row>
     <row r="13">
@@ -8541,19 +8541,19 @@
         <v>33205</v>
       </c>
       <c r="E13" s="5" t="n">
-        <v>23534</v>
+        <v>23379</v>
       </c>
       <c r="F13" s="5" t="n">
-        <v>44099</v>
+        <v>46160</v>
       </c>
       <c r="G13" s="6" t="n">
         <v>0.03165669972725287</v>
       </c>
       <c r="H13" s="6" t="n">
-        <v>0.02243685454794206</v>
+        <v>0.02228840120452183</v>
       </c>
       <c r="I13" s="6" t="n">
-        <v>0.04204205355764279</v>
+        <v>0.04400764066670181</v>
       </c>
       <c r="J13" s="5" t="n">
         <v>56</v>
@@ -8562,19 +8562,19 @@
         <v>38326</v>
       </c>
       <c r="L13" s="5" t="n">
-        <v>28729</v>
+        <v>29253</v>
       </c>
       <c r="M13" s="5" t="n">
-        <v>49272</v>
+        <v>50664</v>
       </c>
       <c r="N13" s="6" t="n">
-        <v>0.03583252212393745</v>
+        <v>0.03583252212393746</v>
       </c>
       <c r="O13" s="6" t="n">
-        <v>0.026859945257826</v>
+        <v>0.0273496599629156</v>
       </c>
       <c r="P13" s="6" t="n">
-        <v>0.04606628125356939</v>
+        <v>0.04736692378699749</v>
       </c>
       <c r="Q13" s="5" t="n">
         <v>94</v>
@@ -8583,19 +8583,19 @@
         <v>71532</v>
       </c>
       <c r="S13" s="5" t="n">
-        <v>56597</v>
+        <v>57826</v>
       </c>
       <c r="T13" s="5" t="n">
-        <v>86775</v>
+        <v>88164</v>
       </c>
       <c r="U13" s="6" t="n">
         <v>0.03376499471409299</v>
       </c>
       <c r="V13" s="6" t="n">
-        <v>0.02671550270917712</v>
+        <v>0.02729570520661287</v>
       </c>
       <c r="W13" s="6" t="n">
-        <v>0.04096038071346882</v>
+        <v>0.0416156685423078</v>
       </c>
     </row>
     <row r="14">
@@ -8612,19 +8612,19 @@
         <v>10656</v>
       </c>
       <c r="E14" s="5" t="n">
-        <v>5204</v>
+        <v>5258</v>
       </c>
       <c r="F14" s="5" t="n">
-        <v>19387</v>
+        <v>21341</v>
       </c>
       <c r="G14" s="6" t="n">
         <v>0.01015870945834762</v>
       </c>
       <c r="H14" s="6" t="n">
-        <v>0.004961556533088228</v>
+        <v>0.005012877998796098</v>
       </c>
       <c r="I14" s="6" t="n">
-        <v>0.0184825625788227</v>
+        <v>0.02034563646367473</v>
       </c>
       <c r="J14" s="5" t="n">
         <v>13</v>
@@ -8633,19 +8633,19 @@
         <v>8066</v>
       </c>
       <c r="L14" s="5" t="n">
-        <v>4266</v>
+        <v>4497</v>
       </c>
       <c r="M14" s="5" t="n">
-        <v>13462</v>
+        <v>13884</v>
       </c>
       <c r="N14" s="6" t="n">
-        <v>0.007541018516793808</v>
+        <v>0.007541018516793809</v>
       </c>
       <c r="O14" s="6" t="n">
-        <v>0.003988043173365817</v>
+        <v>0.004204599965433565</v>
       </c>
       <c r="P14" s="6" t="n">
-        <v>0.01258597237373827</v>
+        <v>0.01298010130572244</v>
       </c>
       <c r="Q14" s="5" t="n">
         <v>23</v>
@@ -8654,19 +8654,19 @@
         <v>18722</v>
       </c>
       <c r="S14" s="5" t="n">
-        <v>11597</v>
+        <v>11532</v>
       </c>
       <c r="T14" s="5" t="n">
-        <v>29401</v>
+        <v>27893</v>
       </c>
       <c r="U14" s="6" t="n">
-        <v>0.008837086035484524</v>
+        <v>0.008837086035484521</v>
       </c>
       <c r="V14" s="6" t="n">
-        <v>0.005474307956132135</v>
+        <v>0.005443510531862945</v>
       </c>
       <c r="W14" s="6" t="n">
-        <v>0.01387832281094408</v>
+        <v>0.01316620979237419</v>
       </c>
     </row>
     <row r="15">
@@ -8758,19 +8758,19 @@
         <v>513184</v>
       </c>
       <c r="E16" s="5" t="n">
-        <v>481622</v>
+        <v>482773</v>
       </c>
       <c r="F16" s="5" t="n">
-        <v>543501</v>
+        <v>544683</v>
       </c>
       <c r="G16" s="6" t="n">
         <v>0.6410582357439311</v>
       </c>
       <c r="H16" s="6" t="n">
-        <v>0.6016324677971122</v>
+        <v>0.6030702106398418</v>
       </c>
       <c r="I16" s="6" t="n">
-        <v>0.6789295664609226</v>
+        <v>0.6804066435233727</v>
       </c>
       <c r="J16" s="5" t="n">
         <v>694</v>
@@ -8779,19 +8779,19 @@
         <v>539112</v>
       </c>
       <c r="L16" s="5" t="n">
-        <v>511664</v>
+        <v>513651</v>
       </c>
       <c r="M16" s="5" t="n">
-        <v>566191</v>
+        <v>564034</v>
       </c>
       <c r="N16" s="6" t="n">
         <v>0.6637190408155408</v>
       </c>
       <c r="O16" s="6" t="n">
-        <v>0.6299265815025299</v>
+        <v>0.6323728287541538</v>
       </c>
       <c r="P16" s="6" t="n">
-        <v>0.6970574620846728</v>
+        <v>0.694401715599068</v>
       </c>
       <c r="Q16" s="5" t="n">
         <v>1106</v>
@@ -8800,19 +8800,19 @@
         <v>1052296</v>
       </c>
       <c r="S16" s="5" t="n">
-        <v>1011801</v>
+        <v>1009078</v>
       </c>
       <c r="T16" s="5" t="n">
-        <v>1090180</v>
+        <v>1087900</v>
       </c>
       <c r="U16" s="6" t="n">
         <v>0.6524710634910404</v>
       </c>
       <c r="V16" s="6" t="n">
-        <v>0.6273626159900874</v>
+        <v>0.6256743704167553</v>
       </c>
       <c r="W16" s="6" t="n">
-        <v>0.6759610155353912</v>
+        <v>0.6745474520065955</v>
       </c>
     </row>
     <row r="17">
@@ -8829,19 +8829,19 @@
         <v>219861</v>
       </c>
       <c r="E17" s="5" t="n">
-        <v>192413</v>
+        <v>192481</v>
       </c>
       <c r="F17" s="5" t="n">
-        <v>247443</v>
+        <v>249632</v>
       </c>
       <c r="G17" s="6" t="n">
         <v>0.2746452404617936</v>
       </c>
       <c r="H17" s="6" t="n">
-        <v>0.2403579772694492</v>
+        <v>0.2404432613670203</v>
       </c>
       <c r="I17" s="6" t="n">
-        <v>0.309101086407712</v>
+        <v>0.3118354335210722</v>
       </c>
       <c r="J17" s="5" t="n">
         <v>256</v>
@@ -8850,19 +8850,19 @@
         <v>194688</v>
       </c>
       <c r="L17" s="5" t="n">
-        <v>172998</v>
+        <v>171382</v>
       </c>
       <c r="M17" s="5" t="n">
-        <v>218990</v>
+        <v>217035</v>
       </c>
       <c r="N17" s="6" t="n">
         <v>0.2396867119495671</v>
       </c>
       <c r="O17" s="6" t="n">
-        <v>0.2129836323527035</v>
+        <v>0.2109938633231233</v>
       </c>
       <c r="P17" s="6" t="n">
-        <v>0.2696067101662102</v>
+        <v>0.2671986662264131</v>
       </c>
       <c r="Q17" s="5" t="n">
         <v>451</v>
@@ -8871,19 +8871,19 @@
         <v>414548</v>
       </c>
       <c r="S17" s="5" t="n">
-        <v>379465</v>
+        <v>379572</v>
       </c>
       <c r="T17" s="5" t="n">
-        <v>454206</v>
+        <v>453179</v>
       </c>
       <c r="U17" s="6" t="n">
         <v>0.2570388199069342</v>
       </c>
       <c r="V17" s="6" t="n">
-        <v>0.2352853150037391</v>
+        <v>0.2353516995165288</v>
       </c>
       <c r="W17" s="6" t="n">
-        <v>0.281628563082731</v>
+        <v>0.2809914557506795</v>
       </c>
     </row>
     <row r="18">
@@ -8900,19 +8900,19 @@
         <v>31154</v>
       </c>
       <c r="E18" s="5" t="n">
-        <v>21362</v>
+        <v>21941</v>
       </c>
       <c r="F18" s="5" t="n">
-        <v>42953</v>
+        <v>44197</v>
       </c>
       <c r="G18" s="6" t="n">
-        <v>0.03891711785348757</v>
+        <v>0.03891711785348758</v>
       </c>
       <c r="H18" s="6" t="n">
-        <v>0.02668555695248583</v>
+        <v>0.02740839612469859</v>
       </c>
       <c r="I18" s="6" t="n">
-        <v>0.05365643294111602</v>
+        <v>0.05520953682034532</v>
       </c>
       <c r="J18" s="5" t="n">
         <v>60</v>
@@ -8921,19 +8921,19 @@
         <v>50644</v>
       </c>
       <c r="L18" s="5" t="n">
-        <v>37441</v>
+        <v>37942</v>
       </c>
       <c r="M18" s="5" t="n">
-        <v>66482</v>
+        <v>65959</v>
       </c>
       <c r="N18" s="6" t="n">
         <v>0.06234972433003608</v>
       </c>
       <c r="O18" s="6" t="n">
-        <v>0.04609441775736865</v>
+        <v>0.04671115617337603</v>
       </c>
       <c r="P18" s="6" t="n">
-        <v>0.08184879036249884</v>
+        <v>0.08120464095375975</v>
       </c>
       <c r="Q18" s="5" t="n">
         <v>91</v>
@@ -8942,19 +8942,19 @@
         <v>81798</v>
       </c>
       <c r="S18" s="5" t="n">
-        <v>65838</v>
+        <v>65448</v>
       </c>
       <c r="T18" s="5" t="n">
-        <v>101008</v>
+        <v>99974</v>
       </c>
       <c r="U18" s="6" t="n">
         <v>0.05071865361258978</v>
       </c>
       <c r="V18" s="6" t="n">
-        <v>0.04082248738690204</v>
+        <v>0.04058102779209133</v>
       </c>
       <c r="W18" s="6" t="n">
-        <v>0.06262939961082806</v>
+        <v>0.06198845497448593</v>
       </c>
     </row>
     <row r="19">
@@ -8971,19 +8971,19 @@
         <v>33807</v>
       </c>
       <c r="E19" s="5" t="n">
-        <v>22800</v>
+        <v>23148</v>
       </c>
       <c r="F19" s="5" t="n">
-        <v>50711</v>
+        <v>52556</v>
       </c>
       <c r="G19" s="6" t="n">
         <v>0.04223133109502329</v>
       </c>
       <c r="H19" s="6" t="n">
-        <v>0.02848174356535478</v>
+        <v>0.02891660293611831</v>
       </c>
       <c r="I19" s="6" t="n">
-        <v>0.06334650875957647</v>
+        <v>0.06565180203335498</v>
       </c>
       <c r="J19" s="5" t="n">
         <v>27</v>
@@ -8992,19 +8992,19 @@
         <v>19700</v>
       </c>
       <c r="L19" s="5" t="n">
-        <v>12947</v>
+        <v>13164</v>
       </c>
       <c r="M19" s="5" t="n">
-        <v>27738</v>
+        <v>28105</v>
       </c>
       <c r="N19" s="6" t="n">
         <v>0.02425301813575486</v>
       </c>
       <c r="O19" s="6" t="n">
-        <v>0.01593890312006266</v>
+        <v>0.01620646355492835</v>
       </c>
       <c r="P19" s="6" t="n">
-        <v>0.03414938635755391</v>
+        <v>0.0346012757135758</v>
       </c>
       <c r="Q19" s="5" t="n">
         <v>60</v>
@@ -9013,19 +9013,19 @@
         <v>53507</v>
       </c>
       <c r="S19" s="5" t="n">
-        <v>40303</v>
+        <v>40868</v>
       </c>
       <c r="T19" s="5" t="n">
-        <v>73848</v>
+        <v>72393</v>
       </c>
       <c r="U19" s="6" t="n">
         <v>0.03317678125271362</v>
       </c>
       <c r="V19" s="6" t="n">
-        <v>0.02498998881846731</v>
+        <v>0.02534013791431179</v>
       </c>
       <c r="W19" s="6" t="n">
-        <v>0.04578903583620404</v>
+        <v>0.04488699190344246</v>
       </c>
     </row>
     <row r="20">
@@ -9042,19 +9042,19 @@
         <v>2520</v>
       </c>
       <c r="E20" s="5" t="n">
-        <v>684</v>
+        <v>678</v>
       </c>
       <c r="F20" s="5" t="n">
-        <v>8100</v>
+        <v>7012</v>
       </c>
       <c r="G20" s="6" t="n">
         <v>0.003148074845764531</v>
       </c>
       <c r="H20" s="6" t="n">
-        <v>0.000854721481552597</v>
+        <v>0.0008463360745244334</v>
       </c>
       <c r="I20" s="6" t="n">
-        <v>0.01011792966794995</v>
+        <v>0.008759787236719581</v>
       </c>
       <c r="J20" s="5" t="n">
         <v>10</v>
@@ -9063,19 +9063,19 @@
         <v>8116</v>
       </c>
       <c r="L20" s="5" t="n">
-        <v>4087</v>
+        <v>3941</v>
       </c>
       <c r="M20" s="5" t="n">
-        <v>17798</v>
+        <v>16820</v>
       </c>
       <c r="N20" s="6" t="n">
-        <v>0.009991504769101087</v>
+        <v>0.009991504769101085</v>
       </c>
       <c r="O20" s="6" t="n">
-        <v>0.005031095174380319</v>
+        <v>0.004852515826141409</v>
       </c>
       <c r="P20" s="6" t="n">
-        <v>0.02191173488109324</v>
+        <v>0.02070778272195683</v>
       </c>
       <c r="Q20" s="5" t="n">
         <v>13</v>
@@ -9084,19 +9084,19 @@
         <v>10636</v>
       </c>
       <c r="S20" s="5" t="n">
-        <v>5681</v>
+        <v>5416</v>
       </c>
       <c r="T20" s="5" t="n">
-        <v>20717</v>
+        <v>21612</v>
       </c>
       <c r="U20" s="6" t="n">
-        <v>0.006594681736721986</v>
+        <v>0.006594681736721985</v>
       </c>
       <c r="V20" s="6" t="n">
-        <v>0.003522645599474707</v>
+        <v>0.003358087976508356</v>
       </c>
       <c r="W20" s="6" t="n">
-        <v>0.01284529233415926</v>
+        <v>0.0134006135803387</v>
       </c>
     </row>
     <row r="21">
@@ -9188,19 +9188,19 @@
         <v>611413</v>
       </c>
       <c r="E22" s="5" t="n">
-        <v>579286</v>
+        <v>581979</v>
       </c>
       <c r="F22" s="5" t="n">
-        <v>642647</v>
+        <v>643803</v>
       </c>
       <c r="G22" s="6" t="n">
         <v>0.6175503371208263</v>
       </c>
       <c r="H22" s="6" t="n">
-        <v>0.5851003604924633</v>
+        <v>0.5878211053168931</v>
       </c>
       <c r="I22" s="6" t="n">
-        <v>0.649097881872712</v>
+        <v>0.6502658251749815</v>
       </c>
       <c r="J22" s="5" t="n">
         <v>947</v>
@@ -9209,19 +9209,19 @@
         <v>694314</v>
       </c>
       <c r="L22" s="5" t="n">
-        <v>666707</v>
+        <v>665167</v>
       </c>
       <c r="M22" s="5" t="n">
-        <v>720534</v>
+        <v>722512</v>
       </c>
       <c r="N22" s="6" t="n">
         <v>0.6222832286337546</v>
       </c>
       <c r="O22" s="6" t="n">
-        <v>0.5975403759629743</v>
+        <v>0.5961603523658116</v>
       </c>
       <c r="P22" s="6" t="n">
-        <v>0.6457830737774074</v>
+        <v>0.6475562799963966</v>
       </c>
       <c r="Q22" s="5" t="n">
         <v>1530</v>
@@ -9230,19 +9230,19 @@
         <v>1305727</v>
       </c>
       <c r="S22" s="5" t="n">
-        <v>1264728</v>
+        <v>1265769</v>
       </c>
       <c r="T22" s="5" t="n">
-        <v>1348650</v>
+        <v>1350259</v>
       </c>
       <c r="U22" s="6" t="n">
         <v>0.620058029177456</v>
       </c>
       <c r="V22" s="6" t="n">
-        <v>0.6005882039399234</v>
+        <v>0.601082484784061</v>
       </c>
       <c r="W22" s="6" t="n">
-        <v>0.64044087642565</v>
+        <v>0.6412050040829204</v>
       </c>
     </row>
     <row r="23">
@@ -9259,19 +9259,19 @@
         <v>254576</v>
       </c>
       <c r="E23" s="5" t="n">
-        <v>226748</v>
+        <v>227899</v>
       </c>
       <c r="F23" s="5" t="n">
-        <v>280583</v>
+        <v>283123</v>
       </c>
       <c r="G23" s="6" t="n">
         <v>0.2571313191276028</v>
       </c>
       <c r="H23" s="6" t="n">
-        <v>0.2290244167307478</v>
+        <v>0.2301864593571543</v>
       </c>
       <c r="I23" s="6" t="n">
-        <v>0.2833994811440107</v>
+        <v>0.2859652770011989</v>
       </c>
       <c r="J23" s="5" t="n">
         <v>411</v>
@@ -9280,19 +9280,19 @@
         <v>282088</v>
       </c>
       <c r="L23" s="5" t="n">
-        <v>260129</v>
+        <v>257081</v>
       </c>
       <c r="M23" s="5" t="n">
-        <v>307604</v>
+        <v>310673</v>
       </c>
       <c r="N23" s="6" t="n">
         <v>0.2528232665804553</v>
       </c>
       <c r="O23" s="6" t="n">
-        <v>0.2331421421869359</v>
+        <v>0.2304104800199358</v>
       </c>
       <c r="P23" s="6" t="n">
-        <v>0.2756920472677367</v>
+        <v>0.2784425762521896</v>
       </c>
       <c r="Q23" s="5" t="n">
         <v>694</v>
@@ -9301,19 +9301,19 @@
         <v>536664</v>
       </c>
       <c r="S23" s="5" t="n">
-        <v>499779</v>
+        <v>498909</v>
       </c>
       <c r="T23" s="5" t="n">
-        <v>573164</v>
+        <v>573266</v>
       </c>
       <c r="U23" s="6" t="n">
         <v>0.254848725258186</v>
       </c>
       <c r="V23" s="6" t="n">
-        <v>0.2373330039805485</v>
+        <v>0.2369197590303073</v>
       </c>
       <c r="W23" s="6" t="n">
-        <v>0.2721815154350846</v>
+        <v>0.2722300478813638</v>
       </c>
     </row>
     <row r="24">
@@ -9330,19 +9330,19 @@
         <v>65595</v>
       </c>
       <c r="E24" s="5" t="n">
-        <v>50438</v>
+        <v>51008</v>
       </c>
       <c r="F24" s="5" t="n">
-        <v>81794</v>
+        <v>83225</v>
       </c>
       <c r="G24" s="6" t="n">
         <v>0.06625365179887409</v>
       </c>
       <c r="H24" s="6" t="n">
-        <v>0.05094463875644583</v>
+        <v>0.05151989800926585</v>
       </c>
       <c r="I24" s="6" t="n">
-        <v>0.08261529593531758</v>
+        <v>0.08406032463538377</v>
       </c>
       <c r="J24" s="5" t="n">
         <v>102</v>
@@ -9351,19 +9351,19 @@
         <v>71146</v>
       </c>
       <c r="L24" s="5" t="n">
-        <v>57535</v>
+        <v>58290</v>
       </c>
       <c r="M24" s="5" t="n">
-        <v>85635</v>
+        <v>86397</v>
       </c>
       <c r="N24" s="6" t="n">
         <v>0.06376514438814573</v>
       </c>
       <c r="O24" s="6" t="n">
-        <v>0.05156616294546256</v>
+        <v>0.05224268019552781</v>
       </c>
       <c r="P24" s="6" t="n">
-        <v>0.07675121531546492</v>
+        <v>0.07743405723469381</v>
       </c>
       <c r="Q24" s="5" t="n">
         <v>175</v>
@@ -9372,19 +9372,19 @@
         <v>136741</v>
       </c>
       <c r="S24" s="5" t="n">
-        <v>115992</v>
+        <v>116314</v>
       </c>
       <c r="T24" s="5" t="n">
-        <v>159781</v>
+        <v>163115</v>
       </c>
       <c r="U24" s="6" t="n">
-        <v>0.06493513218994129</v>
+        <v>0.06493513218994131</v>
       </c>
       <c r="V24" s="6" t="n">
-        <v>0.05508178456179948</v>
+        <v>0.05523463211718188</v>
       </c>
       <c r="W24" s="6" t="n">
-        <v>0.07587607835222934</v>
+        <v>0.07745944800159831</v>
       </c>
     </row>
     <row r="25">
@@ -9401,19 +9401,19 @@
         <v>41369</v>
       </c>
       <c r="E25" s="5" t="n">
-        <v>30617</v>
+        <v>31080</v>
       </c>
       <c r="F25" s="5" t="n">
-        <v>55116</v>
+        <v>55866</v>
       </c>
       <c r="G25" s="6" t="n">
-        <v>0.04178380000125023</v>
+        <v>0.04178380000125024</v>
       </c>
       <c r="H25" s="6" t="n">
-        <v>0.03092460038722483</v>
+        <v>0.03139155081356596</v>
       </c>
       <c r="I25" s="6" t="n">
-        <v>0.05566944438496258</v>
+        <v>0.05642674637808901</v>
       </c>
       <c r="J25" s="5" t="n">
         <v>72</v>
@@ -9422,19 +9422,19 @@
         <v>50431</v>
       </c>
       <c r="L25" s="5" t="n">
-        <v>39219</v>
+        <v>39456</v>
       </c>
       <c r="M25" s="5" t="n">
-        <v>62663</v>
+        <v>63267</v>
       </c>
       <c r="N25" s="6" t="n">
         <v>0.04519921404798504</v>
       </c>
       <c r="O25" s="6" t="n">
-        <v>0.03515027334543938</v>
+        <v>0.03536304824565274</v>
       </c>
       <c r="P25" s="6" t="n">
-        <v>0.05616211446860252</v>
+        <v>0.05670372147237443</v>
       </c>
       <c r="Q25" s="5" t="n">
         <v>119</v>
@@ -9443,19 +9443,19 @@
         <v>91800</v>
       </c>
       <c r="S25" s="5" t="n">
-        <v>76381</v>
+        <v>75449</v>
       </c>
       <c r="T25" s="5" t="n">
-        <v>111601</v>
+        <v>109940</v>
       </c>
       <c r="U25" s="6" t="n">
         <v>0.04359343511578918</v>
       </c>
       <c r="V25" s="6" t="n">
-        <v>0.03627169177790056</v>
+        <v>0.03582909594696214</v>
       </c>
       <c r="W25" s="6" t="n">
-        <v>0.05299666104034111</v>
+        <v>0.05220776564616521</v>
       </c>
     </row>
     <row r="26">
@@ -9472,19 +9472,19 @@
         <v>17109</v>
       </c>
       <c r="E26" s="5" t="n">
-        <v>10734</v>
+        <v>10220</v>
       </c>
       <c r="F26" s="5" t="n">
-        <v>26479</v>
+        <v>26274</v>
       </c>
       <c r="G26" s="6" t="n">
         <v>0.01728089195144656</v>
       </c>
       <c r="H26" s="6" t="n">
-        <v>0.01084127741323291</v>
+        <v>0.01032215950682846</v>
       </c>
       <c r="I26" s="6" t="n">
-        <v>0.02674513438575315</v>
+        <v>0.02653811175599317</v>
       </c>
       <c r="J26" s="5" t="n">
         <v>26</v>
@@ -9493,19 +9493,19 @@
         <v>17773</v>
       </c>
       <c r="L26" s="5" t="n">
-        <v>11703</v>
+        <v>11776</v>
       </c>
       <c r="M26" s="5" t="n">
-        <v>25724</v>
+        <v>25789</v>
       </c>
       <c r="N26" s="6" t="n">
         <v>0.01592914634965922</v>
       </c>
       <c r="O26" s="6" t="n">
-        <v>0.01048847812519299</v>
+        <v>0.01055400283423347</v>
       </c>
       <c r="P26" s="6" t="n">
-        <v>0.02305529599715248</v>
+        <v>0.02311328996513324</v>
       </c>
       <c r="Q26" s="5" t="n">
         <v>46</v>
@@ -9514,19 +9514,19 @@
         <v>34882</v>
       </c>
       <c r="S26" s="5" t="n">
-        <v>25490</v>
+        <v>25331</v>
       </c>
       <c r="T26" s="5" t="n">
-        <v>46907</v>
+        <v>47072</v>
       </c>
       <c r="U26" s="6" t="n">
         <v>0.01656467825862752</v>
       </c>
       <c r="V26" s="6" t="n">
-        <v>0.01210465908913509</v>
+        <v>0.01202915625463793</v>
       </c>
       <c r="W26" s="6" t="n">
-        <v>0.02227483485108474</v>
+        <v>0.02235325695493289</v>
       </c>
     </row>
     <row r="27">
@@ -9618,19 +9618,19 @@
         <v>2187213</v>
       </c>
       <c r="E28" s="5" t="n">
-        <v>2122075</v>
+        <v>2127759</v>
       </c>
       <c r="F28" s="5" t="n">
-        <v>2250101</v>
+        <v>2254147</v>
       </c>
       <c r="G28" s="6" t="n">
         <v>0.6199466466998717</v>
       </c>
       <c r="H28" s="6" t="n">
-        <v>0.6014838693056983</v>
+        <v>0.6030947975385429</v>
       </c>
       <c r="I28" s="6" t="n">
-        <v>0.6377717561421982</v>
+        <v>0.638918495143673</v>
       </c>
       <c r="J28" s="5" t="n">
         <v>3144</v>
@@ -9639,19 +9639,19 @@
         <v>2277399</v>
       </c>
       <c r="L28" s="5" t="n">
-        <v>2227204</v>
+        <v>2222448</v>
       </c>
       <c r="M28" s="5" t="n">
-        <v>2331147</v>
+        <v>2327526</v>
       </c>
       <c r="N28" s="6" t="n">
         <v>0.6108819278449662</v>
       </c>
       <c r="O28" s="6" t="n">
-        <v>0.5974178276475127</v>
+        <v>0.5961421911621273</v>
       </c>
       <c r="P28" s="6" t="n">
-        <v>0.6252990432165159</v>
+        <v>0.6243278917741312</v>
       </c>
       <c r="Q28" s="5" t="n">
         <v>5086</v>
@@ -9660,19 +9660,19 @@
         <v>4464612</v>
       </c>
       <c r="S28" s="5" t="n">
-        <v>4384368</v>
+        <v>4389873</v>
       </c>
       <c r="T28" s="5" t="n">
-        <v>4547461</v>
+        <v>4551996</v>
       </c>
       <c r="U28" s="6" t="n">
         <v>0.6152893721276782</v>
       </c>
       <c r="V28" s="6" t="n">
-        <v>0.6042305106771717</v>
+        <v>0.604989133857326</v>
       </c>
       <c r="W28" s="6" t="n">
-        <v>0.6267070884493937</v>
+        <v>0.6273321245116137</v>
       </c>
     </row>
     <row r="29">
@@ -9689,19 +9689,19 @@
         <v>964251</v>
       </c>
       <c r="E29" s="5" t="n">
-        <v>910202</v>
+        <v>910940</v>
       </c>
       <c r="F29" s="5" t="n">
-        <v>1023838</v>
+        <v>1021387</v>
       </c>
       <c r="G29" s="6" t="n">
         <v>0.273308647854783</v>
       </c>
       <c r="H29" s="6" t="n">
-        <v>0.2579889672849957</v>
+        <v>0.2581981006968905</v>
       </c>
       <c r="I29" s="6" t="n">
-        <v>0.2901979441660631</v>
+        <v>0.289503182023201</v>
       </c>
       <c r="J29" s="5" t="n">
         <v>1568</v>
@@ -9710,19 +9710,19 @@
         <v>1025358</v>
       </c>
       <c r="L29" s="5" t="n">
-        <v>981025</v>
+        <v>980990</v>
       </c>
       <c r="M29" s="5" t="n">
-        <v>1073967</v>
+        <v>1074054</v>
       </c>
       <c r="N29" s="6" t="n">
         <v>0.275038598571114</v>
       </c>
       <c r="O29" s="6" t="n">
-        <v>0.263146949401835</v>
+        <v>0.2631375639256577</v>
       </c>
       <c r="P29" s="6" t="n">
-        <v>0.2880774292595913</v>
+        <v>0.2881007702106934</v>
       </c>
       <c r="Q29" s="5" t="n">
         <v>2579</v>
@@ -9731,19 +9731,19 @@
         <v>1989609</v>
       </c>
       <c r="S29" s="5" t="n">
-        <v>1914086</v>
+        <v>1914683</v>
       </c>
       <c r="T29" s="5" t="n">
-        <v>2063266</v>
+        <v>2058435</v>
       </c>
       <c r="U29" s="6" t="n">
         <v>0.2741974625672168</v>
       </c>
       <c r="V29" s="6" t="n">
-        <v>0.2637893094280949</v>
+        <v>0.2638715147492205</v>
       </c>
       <c r="W29" s="6" t="n">
-        <v>0.2843484537199845</v>
+        <v>0.2836827164581191</v>
       </c>
     </row>
     <row r="30">
@@ -9760,19 +9760,19 @@
         <v>201909</v>
       </c>
       <c r="E30" s="5" t="n">
-        <v>175573</v>
+        <v>174714</v>
       </c>
       <c r="F30" s="5" t="n">
-        <v>229912</v>
+        <v>229949</v>
       </c>
       <c r="G30" s="6" t="n">
-        <v>0.05722937195499575</v>
+        <v>0.05722937195499574</v>
       </c>
       <c r="H30" s="6" t="n">
-        <v>0.04976474737974439</v>
+        <v>0.04952107965413979</v>
       </c>
       <c r="I30" s="6" t="n">
-        <v>0.06516661846397724</v>
+        <v>0.06517694724689817</v>
       </c>
       <c r="J30" s="5" t="n">
         <v>381</v>
@@ -9781,19 +9781,19 @@
         <v>252502</v>
       </c>
       <c r="L30" s="5" t="n">
-        <v>227107</v>
+        <v>228199</v>
       </c>
       <c r="M30" s="5" t="n">
-        <v>280001</v>
+        <v>282013</v>
       </c>
       <c r="N30" s="6" t="n">
         <v>0.06773032399208642</v>
       </c>
       <c r="O30" s="6" t="n">
-        <v>0.06091843128392844</v>
+        <v>0.06121126245323271</v>
       </c>
       <c r="P30" s="6" t="n">
-        <v>0.07510665944994219</v>
+        <v>0.07564611735299405</v>
       </c>
       <c r="Q30" s="5" t="n">
         <v>607</v>
@@ -9802,19 +9802,19 @@
         <v>454411</v>
       </c>
       <c r="S30" s="5" t="n">
-        <v>418664</v>
+        <v>415290</v>
       </c>
       <c r="T30" s="5" t="n">
-        <v>495735</v>
+        <v>493856</v>
       </c>
       <c r="U30" s="6" t="n">
         <v>0.06262455493738901</v>
       </c>
       <c r="V30" s="6" t="n">
-        <v>0.05769813580413305</v>
+        <v>0.05723308214950604</v>
       </c>
       <c r="W30" s="6" t="n">
-        <v>0.0683195476248785</v>
+        <v>0.06806066214577289</v>
       </c>
     </row>
     <row r="31">
@@ -9831,19 +9831,19 @@
         <v>131606</v>
       </c>
       <c r="E31" s="5" t="n">
-        <v>111354</v>
+        <v>110607</v>
       </c>
       <c r="F31" s="5" t="n">
-        <v>156914</v>
+        <v>157818</v>
       </c>
       <c r="G31" s="6" t="n">
         <v>0.03730247652508952</v>
       </c>
       <c r="H31" s="6" t="n">
-        <v>0.03156239182445347</v>
+        <v>0.03135052276401435</v>
       </c>
       <c r="I31" s="6" t="n">
-        <v>0.04447604685614064</v>
+        <v>0.04473206207295308</v>
       </c>
       <c r="J31" s="5" t="n">
         <v>197</v>
@@ -9852,19 +9852,19 @@
         <v>131248</v>
       </c>
       <c r="L31" s="5" t="n">
-        <v>114562</v>
+        <v>112473</v>
       </c>
       <c r="M31" s="5" t="n">
-        <v>151426</v>
+        <v>150035</v>
       </c>
       <c r="N31" s="6" t="n">
-        <v>0.03520550287526905</v>
+        <v>0.03520550287526904</v>
       </c>
       <c r="O31" s="6" t="n">
-        <v>0.0307296584537378</v>
+        <v>0.03016942311221278</v>
       </c>
       <c r="P31" s="6" t="n">
-        <v>0.040617940090715</v>
+        <v>0.04024484132672555</v>
       </c>
       <c r="Q31" s="5" t="n">
         <v>340</v>
@@ -9873,19 +9873,19 @@
         <v>262854</v>
       </c>
       <c r="S31" s="5" t="n">
-        <v>234727</v>
+        <v>235202</v>
       </c>
       <c r="T31" s="5" t="n">
-        <v>294385</v>
+        <v>294109</v>
       </c>
       <c r="U31" s="6" t="n">
-        <v>0.03622509263550715</v>
+        <v>0.03622509263550716</v>
       </c>
       <c r="V31" s="6" t="n">
-        <v>0.03234877302297783</v>
+        <v>0.03241431362996744</v>
       </c>
       <c r="W31" s="6" t="n">
-        <v>0.04057065406199278</v>
+        <v>0.04053253254498377</v>
       </c>
     </row>
     <row r="32">
@@ -9902,19 +9902,19 @@
         <v>43088</v>
       </c>
       <c r="E32" s="5" t="n">
-        <v>31417</v>
+        <v>32096</v>
       </c>
       <c r="F32" s="5" t="n">
-        <v>57685</v>
+        <v>57279</v>
       </c>
       <c r="G32" s="6" t="n">
         <v>0.01221285696526009</v>
       </c>
       <c r="H32" s="6" t="n">
-        <v>0.008904942681157423</v>
+        <v>0.009097280137042557</v>
       </c>
       <c r="I32" s="6" t="n">
-        <v>0.01635017188062857</v>
+        <v>0.0162351818991817</v>
       </c>
       <c r="J32" s="5" t="n">
         <v>63</v>
@@ -9923,19 +9923,19 @@
         <v>41544</v>
       </c>
       <c r="L32" s="5" t="n">
-        <v>32421</v>
+        <v>31915</v>
       </c>
       <c r="M32" s="5" t="n">
-        <v>55251</v>
+        <v>53586</v>
       </c>
       <c r="N32" s="6" t="n">
         <v>0.01114364671656434</v>
       </c>
       <c r="O32" s="6" t="n">
-        <v>0.008696580260302253</v>
+        <v>0.008560824669861217</v>
       </c>
       <c r="P32" s="6" t="n">
-        <v>0.01482031532164289</v>
+        <v>0.01437369317621788</v>
       </c>
       <c r="Q32" s="5" t="n">
         <v>113</v>
@@ -9944,19 +9944,19 @@
         <v>84632</v>
       </c>
       <c r="S32" s="5" t="n">
-        <v>68254</v>
+        <v>68801</v>
       </c>
       <c r="T32" s="5" t="n">
-        <v>102047</v>
+        <v>102048</v>
       </c>
       <c r="U32" s="6" t="n">
         <v>0.0116635177322088</v>
       </c>
       <c r="V32" s="6" t="n">
-        <v>0.009406417156480829</v>
+        <v>0.009481833450977641</v>
       </c>
       <c r="W32" s="6" t="n">
-        <v>0.01406364359145123</v>
+        <v>0.0140636946292604</v>
       </c>
     </row>
     <row r="33">
